--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>23318.741</v>
+        <v>3302.3821</v>
       </c>
       <c r="G2" t="n">
-        <v>9.937566666666671</v>
+        <v>9.962400000000004</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.439</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.439</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9.439</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.439</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>6843.251</v>
+        <v>23318.741</v>
       </c>
       <c r="G3" t="n">
-        <v>9.914883333333337</v>
+        <v>9.937566666666671</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>9.439</v>
       </c>
       <c r="C4" t="n">
-        <v>9.32</v>
+        <v>9.439</v>
       </c>
       <c r="D4" t="n">
         <v>9.439</v>
       </c>
       <c r="E4" t="n">
-        <v>9.32</v>
+        <v>9.439</v>
       </c>
       <c r="F4" t="n">
-        <v>664189.6744</v>
+        <v>6843.251</v>
       </c>
       <c r="G4" t="n">
-        <v>9.891883333333338</v>
+        <v>9.914883333333337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.32</v>
+        <v>9.439</v>
       </c>
       <c r="C5" t="n">
         <v>9.32</v>
@@ -550,10 +550,10 @@
         <v>9.32</v>
       </c>
       <c r="F5" t="n">
-        <v>158705.9668</v>
+        <v>664189.6744</v>
       </c>
       <c r="G5" t="n">
-        <v>9.869716666666672</v>
+        <v>9.891883333333338</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,35 +573,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.44</v>
+        <v>9.32</v>
       </c>
       <c r="C6" t="n">
-        <v>9.44</v>
+        <v>9.32</v>
       </c>
       <c r="D6" t="n">
-        <v>9.44</v>
+        <v>9.439</v>
       </c>
       <c r="E6" t="n">
-        <v>9.44</v>
+        <v>9.32</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>158705.9668</v>
       </c>
       <c r="G6" t="n">
-        <v>9.850050000000007</v>
+        <v>9.869716666666672</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -612,40 +608,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.472</v>
+        <v>9.44</v>
       </c>
       <c r="C7" t="n">
-        <v>9.460000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="D7" t="n">
-        <v>9.472</v>
+        <v>9.44</v>
       </c>
       <c r="E7" t="n">
-        <v>9.460000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="F7" t="n">
-        <v>23866.9874</v>
+        <v>53</v>
       </c>
       <c r="G7" t="n">
-        <v>9.82938333333334</v>
+        <v>9.850050000000007</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -655,40 +643,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.460000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="C8" t="n">
         <v>9.460000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.460000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="E8" t="n">
         <v>9.460000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>281027.1889</v>
+        <v>23866.9874</v>
       </c>
       <c r="G8" t="n">
-        <v>9.810383333333339</v>
+        <v>9.82938333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -698,1803 +678,1543 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>281027.1889</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.810383333333339</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>9.449</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.49</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>355918.0551</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>9.789883333333339</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.769300000000007</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9.481999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.481999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.481999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>337744.0919</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.750500000000006</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.472</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.558</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>396182.1611</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.726833333333337</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="F14" t="n">
+        <v>780656.0013</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.705500000000004</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>113176.5318</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.685000000000004</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32280.3886</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.664666666666671</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>68600.33100000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.641716666666669</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13759.381</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.620766666666668</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.536</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.536</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26235.0559</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.6027</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F20" t="n">
+        <v>85418.32670000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.583200000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9966.491099999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.563700000000003</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>115645.4569445412</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.545950000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5144.4784</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.526783333333334</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F24" t="n">
+        <v>50053</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.50895</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4180.3261</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.491183333333334</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13836.7438</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.474066666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.513</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.411</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.513</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.411</v>
+      </c>
+      <c r="F27" t="n">
+        <v>125886.0815</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.455083333333334</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>59632.7767</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.437916666666668</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9.519</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.529</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.532999999999999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.519</v>
+      </c>
+      <c r="F29" t="n">
+        <v>271178.960741456</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.41656666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="F30" t="n">
+        <v>62186.2311</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.399100000000002</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>33245.4559</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.372000000000003</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="F32" t="n">
+        <v>53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.36791666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1778.4677</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.37701666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F34" t="n">
+        <v>117524.517</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.402833333333337</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>210016.9039</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.412066666666671</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>54846.7997</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9.406083333333338</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1738.8353</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.400566666666672</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="F38" t="n">
+        <v>261.1647</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.411700000000005</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="F39" t="n">
+        <v>95.54940000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.423400000000006</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="F40" t="n">
+        <v>83531.96920000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.432200000000005</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.648</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.648</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="F41" t="n">
+        <v>80443.45699999999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.442383333333339</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.648999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.648999999999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="F42" t="n">
+        <v>36028.8999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.44953333333334</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="F43" t="n">
+        <v>473964.996</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.456833333333341</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="F44" t="n">
+        <v>27339.3559</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.464583333333341</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>147875.2533</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.471716666666675</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>94650.84510000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.476833333333339</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="K9" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="C47" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13113.6028</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.480600000000006</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F48" t="n">
+        <v>53</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.483916666666675</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16913.7115</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.482416666666673</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="F50" t="n">
+        <v>151726.4622</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.479833333333341</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19940.3211</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.477966666666674</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F52" t="n">
+        <v>47616.5755</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.476916666666675</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>53</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.769300000000007</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9.481999999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.481999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.481999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>337744.0919</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.750500000000006</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9.472</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.558</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>396182.1611</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.726833333333337</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="F13" t="n">
-        <v>780656.0013</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.705500000000004</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="F14" t="n">
-        <v>113176.5318</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.685000000000004</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>32280.3886</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.664666666666671</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>68600.33100000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.641716666666669</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13759.381</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.620766666666668</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.536</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.536</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26235.0559</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.6027</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F19" t="n">
-        <v>85418.32670000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.583200000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9966.491099999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9.563700000000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>115645.4569445412</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9.545950000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5144.4784</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9.526783333333334</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D23" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F23" t="n">
-        <v>50053</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9.50895</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4180.3261</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9.491183333333334</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="F25" t="n">
-        <v>13836.7438</v>
-      </c>
-      <c r="G25" t="n">
-        <v>9.474066666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>9.513</v>
-      </c>
-      <c r="C26" t="n">
-        <v>9.411</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9.513</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.411</v>
-      </c>
-      <c r="F26" t="n">
-        <v>125886.0815</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9.455083333333334</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="C27" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D27" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>59632.7767</v>
-      </c>
-      <c r="G27" t="n">
-        <v>9.437916666666668</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>9.519</v>
-      </c>
-      <c r="C28" t="n">
-        <v>9.529</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9.532999999999999</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.519</v>
-      </c>
-      <c r="F28" t="n">
-        <v>271178.960741456</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9.41656666666667</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="C29" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="F29" t="n">
-        <v>62186.2311</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.399100000000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>33245.4559</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9.372000000000003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="C31" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="D31" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="F31" t="n">
-        <v>53</v>
-      </c>
-      <c r="G31" t="n">
-        <v>9.36791666666667</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D32" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1778.4677</v>
-      </c>
-      <c r="G32" t="n">
-        <v>9.37701666666667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F33" t="n">
-        <v>117524.517</v>
-      </c>
-      <c r="G33" t="n">
-        <v>9.402833333333337</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="C34" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>210016.9039</v>
-      </c>
-      <c r="G34" t="n">
-        <v>9.412066666666671</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C35" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F35" t="n">
-        <v>54846.7997</v>
-      </c>
-      <c r="G35" t="n">
-        <v>9.406083333333338</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="C36" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="D36" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1738.8353</v>
-      </c>
-      <c r="G36" t="n">
-        <v>9.400566666666672</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="C37" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="D37" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="F37" t="n">
-        <v>261.1647</v>
-      </c>
-      <c r="G37" t="n">
-        <v>9.411700000000005</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="F38" t="n">
-        <v>95.54940000000001</v>
-      </c>
-      <c r="G38" t="n">
-        <v>9.423400000000006</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="D39" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="F39" t="n">
-        <v>83531.96920000001</v>
-      </c>
-      <c r="G39" t="n">
-        <v>9.432200000000005</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="F40" t="n">
-        <v>80443.45699999999</v>
-      </c>
-      <c r="G40" t="n">
-        <v>9.442383333333339</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>9.648999999999999</v>
-      </c>
-      <c r="C41" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="D41" t="n">
-        <v>9.648999999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="F41" t="n">
-        <v>36028.8999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>9.44953333333334</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="C42" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="F42" t="n">
-        <v>473964.996</v>
-      </c>
-      <c r="G42" t="n">
-        <v>9.456833333333341</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="C43" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="F43" t="n">
-        <v>27339.3559</v>
-      </c>
-      <c r="G43" t="n">
-        <v>9.464583333333341</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D44" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F44" t="n">
-        <v>147875.2533</v>
-      </c>
-      <c r="G44" t="n">
-        <v>9.471716666666675</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D45" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>94650.84510000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>9.476833333333339</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="C46" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="D46" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="F46" t="n">
-        <v>13113.6028</v>
-      </c>
-      <c r="G46" t="n">
-        <v>9.480600000000006</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="C47" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="D47" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F47" t="n">
-        <v>53</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9.483916666666675</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>16913.7115</v>
-      </c>
-      <c r="G48" t="n">
-        <v>9.482416666666673</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="C49" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="F49" t="n">
-        <v>151726.4622</v>
-      </c>
-      <c r="G49" t="n">
-        <v>9.479833333333341</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F50" t="n">
-        <v>19940.3211</v>
-      </c>
-      <c r="G50" t="n">
-        <v>9.477966666666674</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F51" t="n">
-        <v>47616.5755</v>
-      </c>
-      <c r="G51" t="n">
-        <v>9.476916666666675</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F52" t="n">
-        <v>36304.4114</v>
-      </c>
-      <c r="G52" t="n">
-        <v>9.480250000000007</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2504,33 +2224,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.57</v>
+        <v>9.52</v>
       </c>
       <c r="C53" t="n">
-        <v>9.57</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>9.57</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>9.57</v>
+        <v>9.52</v>
       </c>
       <c r="F53" t="n">
-        <v>53</v>
+        <v>36304.4114</v>
       </c>
       <c r="G53" t="n">
-        <v>9.480833333333342</v>
+        <v>9.480250000000007</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J53" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,33 +2265,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="C54" t="n">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="D54" t="n">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="E54" t="n">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="F54" t="n">
         <v>53</v>
       </c>
       <c r="G54" t="n">
-        <v>9.485500000000009</v>
+        <v>9.480833333333342</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J54" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2589,30 +2309,30 @@
         <v>9.58</v>
       </c>
       <c r="C55" t="n">
-        <v>9.627000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="D55" t="n">
-        <v>9.627000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="E55" t="n">
         <v>9.58</v>
       </c>
       <c r="F55" t="n">
-        <v>249398.2851</v>
+        <v>53</v>
       </c>
       <c r="G55" t="n">
-        <v>9.490950000000009</v>
+        <v>9.485500000000009</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J55" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2627,33 +2347,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.605</v>
+        <v>9.58</v>
       </c>
       <c r="C56" t="n">
-        <v>9.699999999999999</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>9.699999999999999</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>9.605</v>
+        <v>9.58</v>
       </c>
       <c r="F56" t="n">
-        <v>10052</v>
+        <v>249398.2851</v>
       </c>
       <c r="G56" t="n">
-        <v>9.497600000000009</v>
+        <v>9.490950000000009</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J56" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,30 +2391,30 @@
         <v>9.605</v>
       </c>
       <c r="C57" t="n">
-        <v>9.605</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>9.605</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>9.605</v>
       </c>
       <c r="F57" t="n">
-        <v>99.3266</v>
+        <v>10052</v>
       </c>
       <c r="G57" t="n">
-        <v>9.502333333333343</v>
+        <v>9.497600000000009</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J57" t="n">
+        <v>9.627000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,33 +2429,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.696999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="C58" t="n">
-        <v>9.696999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="D58" t="n">
-        <v>9.696999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="E58" t="n">
-        <v>9.696999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="F58" t="n">
-        <v>52</v>
+        <v>99.3266</v>
       </c>
       <c r="G58" t="n">
-        <v>9.508616666666676</v>
+        <v>9.502333333333343</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J58" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,33 +2470,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.689</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>9.685</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>9.689</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>9.685</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>2620.102</v>
+        <v>52</v>
       </c>
       <c r="G59" t="n">
-        <v>9.514700000000007</v>
+        <v>9.508616666666676</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J59" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,22 +2511,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.630000000000001</v>
+        <v>9.689</v>
       </c>
       <c r="C60" t="n">
-        <v>9.616</v>
+        <v>9.685</v>
       </c>
       <c r="D60" t="n">
-        <v>9.630000000000001</v>
+        <v>9.689</v>
       </c>
       <c r="E60" t="n">
-        <v>9.616</v>
+        <v>9.685</v>
       </c>
       <c r="F60" t="n">
-        <v>19531.9692</v>
+        <v>2620.102</v>
       </c>
       <c r="G60" t="n">
-        <v>9.517266666666673</v>
+        <v>9.514700000000007</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2815,9 +2535,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,22 +2550,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.616</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C61" t="n">
         <v>9.616</v>
       </c>
       <c r="D61" t="n">
-        <v>9.616</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E61" t="n">
         <v>9.616</v>
       </c>
       <c r="F61" t="n">
-        <v>1750.2633</v>
+        <v>19531.9692</v>
       </c>
       <c r="G61" t="n">
-        <v>9.520033333333339</v>
+        <v>9.517266666666673</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2856,9 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2885,21 +2601,21 @@
         <v>9.616</v>
       </c>
       <c r="F62" t="n">
-        <v>10489.6217</v>
+        <v>1750.2633</v>
       </c>
       <c r="G62" t="n">
-        <v>9.524133333333339</v>
+        <v>9.520033333333339</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J62" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,21 +2642,21 @@
         <v>9.616</v>
       </c>
       <c r="F63" t="n">
-        <v>1272.6458</v>
+        <v>10489.6217</v>
       </c>
       <c r="G63" t="n">
-        <v>9.527083333333339</v>
+        <v>9.524133333333339</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J63" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,7 +2671,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.611000000000001</v>
+        <v>9.616</v>
       </c>
       <c r="C64" t="n">
         <v>9.616</v>
@@ -2964,24 +2680,24 @@
         <v>9.616</v>
       </c>
       <c r="E64" t="n">
-        <v>9.541</v>
+        <v>9.616</v>
       </c>
       <c r="F64" t="n">
-        <v>52950.716</v>
+        <v>1272.6458</v>
       </c>
       <c r="G64" t="n">
-        <v>9.532016666666671</v>
+        <v>9.527083333333339</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J64" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,33 +2712,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.542999999999999</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>9.542999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="D65" t="n">
-        <v>9.542999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="E65" t="n">
-        <v>9.542999999999999</v>
+        <v>9.541</v>
       </c>
       <c r="F65" t="n">
-        <v>1283.9168</v>
+        <v>52950.716</v>
       </c>
       <c r="G65" t="n">
-        <v>9.535733333333337</v>
+        <v>9.532016666666671</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J65" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,33 +2753,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.640000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>9.640000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>9.640000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>9.640000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>1196.7605</v>
+        <v>1283.9168</v>
       </c>
       <c r="G66" t="n">
-        <v>9.539066666666669</v>
+        <v>9.535733333333337</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J66" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,21 +2806,21 @@
         <v>9.640000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>9150.8145</v>
+        <v>1196.7605</v>
       </c>
       <c r="G67" t="n">
-        <v>9.542066666666669</v>
+        <v>9.539066666666669</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J67" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3119,33 +2835,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.638999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>9.638999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>9.638999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>9.638999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>28021.8646</v>
+        <v>9150.8145</v>
       </c>
       <c r="G68" t="n">
-        <v>9.545050000000002</v>
+        <v>9.542066666666669</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J68" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,33 +2876,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>28021.8646</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9.545050000000002</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="C69" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D69" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F69" t="n">
-        <v>55</v>
-      </c>
-      <c r="G69" t="n">
-        <v>9.549550000000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,10 +2929,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>5130.9621</v>
+        <v>55</v>
       </c>
       <c r="G70" t="n">
-        <v>9.5503</v>
+        <v>9.549550000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3225,9 +2941,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,22 +2956,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>54050.3631</v>
+        <v>5130.9621</v>
       </c>
       <c r="G71" t="n">
-        <v>9.553100000000001</v>
+        <v>9.5503</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3266,9 +2980,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3283,22 +2995,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="C72" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="D72" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="E72" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="F72" t="n">
-        <v>55</v>
+        <v>54050.3631</v>
       </c>
       <c r="G72" t="n">
-        <v>9.557650000000001</v>
+        <v>9.553100000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3307,9 +3019,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,22 +3034,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.65</v>
+        <v>9.683</v>
       </c>
       <c r="C73" t="n">
-        <v>9.65</v>
+        <v>9.683</v>
       </c>
       <c r="D73" t="n">
-        <v>9.65</v>
+        <v>9.683</v>
       </c>
       <c r="E73" t="n">
-        <v>9.65</v>
+        <v>9.683</v>
       </c>
       <c r="F73" t="n">
-        <v>356.6868</v>
+        <v>55</v>
       </c>
       <c r="G73" t="n">
-        <v>9.56265</v>
+        <v>9.557650000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3348,9 +3058,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3365,22 +3073,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="C74" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="D74" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="E74" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="F74" t="n">
-        <v>55</v>
+        <v>356.6868</v>
       </c>
       <c r="G74" t="n">
-        <v>9.567366666666667</v>
+        <v>9.56265</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3389,9 +3097,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,10 +3124,10 @@
         <v>9.683</v>
       </c>
       <c r="F75" t="n">
-        <v>10272.3769</v>
+        <v>55</v>
       </c>
       <c r="G75" t="n">
-        <v>9.572083333333333</v>
+        <v>9.567366666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3430,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,22 +3151,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.65</v>
+        <v>9.683</v>
       </c>
       <c r="C76" t="n">
-        <v>9.542999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D76" t="n">
-        <v>9.65</v>
+        <v>9.683</v>
       </c>
       <c r="E76" t="n">
-        <v>9.542999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F76" t="n">
-        <v>20000</v>
+        <v>10272.3769</v>
       </c>
       <c r="G76" t="n">
-        <v>9.57375</v>
+        <v>9.572083333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3471,9 +3175,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,22 +3190,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="C77" t="n">
-        <v>9.683</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>9.683</v>
+        <v>9.65</v>
       </c>
       <c r="E77" t="n">
-        <v>9.683</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>54.4444</v>
+        <v>20000</v>
       </c>
       <c r="G77" t="n">
-        <v>9.577750000000002</v>
+        <v>9.57375</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3512,9 +3214,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,10 +3241,10 @@
         <v>9.683</v>
       </c>
       <c r="F78" t="n">
-        <v>9897.331399999999</v>
+        <v>54.4444</v>
       </c>
       <c r="G78" t="n">
-        <v>9.580200000000001</v>
+        <v>9.577750000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3553,9 +3253,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,10 +3280,10 @@
         <v>9.683</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>9897.331399999999</v>
       </c>
       <c r="G79" t="n">
-        <v>9.584083333333334</v>
+        <v>9.580200000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3594,9 +3292,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,10 +3319,10 @@
         <v>9.683</v>
       </c>
       <c r="F80" t="n">
-        <v>515.0328</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="n">
-        <v>9.587966666666667</v>
+        <v>9.584083333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3635,9 +3331,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3664,10 +3358,10 @@
         <v>9.683</v>
       </c>
       <c r="F81" t="n">
-        <v>2410.1086</v>
+        <v>515.0328</v>
       </c>
       <c r="G81" t="n">
-        <v>9.590433333333333</v>
+        <v>9.587966666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3676,9 +3370,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3693,22 +3385,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C82" t="n">
-        <v>9.74</v>
+        <v>9.683</v>
       </c>
       <c r="D82" t="n">
-        <v>9.74</v>
+        <v>9.683</v>
       </c>
       <c r="E82" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F82" t="n">
-        <v>7529.5543</v>
+        <v>2410.1086</v>
       </c>
       <c r="G82" t="n">
-        <v>9.595266666666667</v>
+        <v>9.590433333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3717,9 +3409,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.749000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>9.869</v>
+        <v>9.74</v>
       </c>
       <c r="D83" t="n">
-        <v>9.869</v>
+        <v>9.74</v>
       </c>
       <c r="E83" t="n">
-        <v>9.749000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>232808.7559</v>
+        <v>7529.5543</v>
       </c>
       <c r="G83" t="n">
-        <v>9.601083333333333</v>
+        <v>9.595266666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3758,9 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3775,7 +3463,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.869</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>9.869</v>
@@ -3784,13 +3472,13 @@
         <v>9.869</v>
       </c>
       <c r="E84" t="n">
-        <v>9.868</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>9873.3254</v>
+        <v>232808.7559</v>
       </c>
       <c r="G84" t="n">
-        <v>9.606833333333334</v>
+        <v>9.601083333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3799,9 +3487,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,7 +3502,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.868</v>
+        <v>9.869</v>
       </c>
       <c r="C85" t="n">
         <v>9.869</v>
@@ -3828,121 +3514,125 @@
         <v>9.868</v>
       </c>
       <c r="F85" t="n">
+        <v>9873.3254</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9.606833333333334</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="F86" t="n">
         <v>49907.0929</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G86" t="n">
         <v>9.612600000000002</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11959.7823</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9.620233333333337</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1.053905579399142</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="C86" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="F86" t="n">
-        <v>11959.7823</v>
-      </c>
-      <c r="G86" t="n">
-        <v>9.620233333333337</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C87" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="F87" t="n">
-        <v>16939.2127</v>
-      </c>
-      <c r="G87" t="n">
-        <v>9.623416666666669</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.866</v>
+        <v>9.73</v>
       </c>
       <c r="C88" t="n">
-        <v>9.866</v>
+        <v>9.711</v>
       </c>
       <c r="D88" t="n">
-        <v>9.866</v>
+        <v>9.73</v>
       </c>
       <c r="E88" t="n">
-        <v>9.866</v>
+        <v>9.711</v>
       </c>
       <c r="F88" t="n">
-        <v>60</v>
+        <v>16939.2127</v>
       </c>
       <c r="G88" t="n">
-        <v>9.629033333333336</v>
+        <v>9.623416666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3962,28 +3652,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.855</v>
+        <v>9.866</v>
       </c>
       <c r="C89" t="n">
-        <v>9.763</v>
+        <v>9.866</v>
       </c>
       <c r="D89" t="n">
-        <v>9.855</v>
+        <v>9.866</v>
       </c>
       <c r="E89" t="n">
-        <v>9.763</v>
+        <v>9.866</v>
       </c>
       <c r="F89" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G89" t="n">
-        <v>9.633216666666669</v>
+        <v>9.629033333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4000,19 +3690,19 @@
         <v>9.855</v>
       </c>
       <c r="C90" t="n">
-        <v>9.855</v>
+        <v>9.763</v>
       </c>
       <c r="D90" t="n">
         <v>9.855</v>
       </c>
       <c r="E90" t="n">
-        <v>9.855</v>
+        <v>9.763</v>
       </c>
       <c r="F90" t="n">
-        <v>2809.9759</v>
+        <v>112</v>
       </c>
       <c r="G90" t="n">
-        <v>9.640400000000003</v>
+        <v>9.633216666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4032,22 +3722,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.779999999999999</v>
+        <v>9.855</v>
       </c>
       <c r="C91" t="n">
-        <v>9.77</v>
+        <v>9.855</v>
       </c>
       <c r="D91" t="n">
-        <v>9.779999999999999</v>
+        <v>9.855</v>
       </c>
       <c r="E91" t="n">
-        <v>9.77</v>
+        <v>9.855</v>
       </c>
       <c r="F91" t="n">
-        <v>18722.2876</v>
+        <v>2809.9759</v>
       </c>
       <c r="G91" t="n">
-        <v>9.643983333333336</v>
+        <v>9.640400000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4079,10 +3769,10 @@
         <v>9.77</v>
       </c>
       <c r="F92" t="n">
-        <v>53000</v>
+        <v>18722.2876</v>
       </c>
       <c r="G92" t="n">
-        <v>9.647716666666669</v>
+        <v>9.643983333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4102,22 +3792,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C93" t="n">
         <v>9.77</v>
       </c>
-      <c r="C93" t="n">
-        <v>9.76</v>
-      </c>
       <c r="D93" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E93" t="n">
         <v>9.77</v>
       </c>
-      <c r="E93" t="n">
-        <v>9.76</v>
-      </c>
       <c r="F93" t="n">
-        <v>7400</v>
+        <v>53000</v>
       </c>
       <c r="G93" t="n">
-        <v>9.651233333333336</v>
+        <v>9.647716666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4137,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.84</v>
+        <v>9.77</v>
       </c>
       <c r="C94" t="n">
-        <v>9.84</v>
+        <v>9.76</v>
       </c>
       <c r="D94" t="n">
-        <v>9.84</v>
+        <v>9.77</v>
       </c>
       <c r="E94" t="n">
-        <v>9.84</v>
+        <v>9.76</v>
       </c>
       <c r="F94" t="n">
-        <v>52.4444</v>
+        <v>7400</v>
       </c>
       <c r="G94" t="n">
-        <v>9.656133333333337</v>
+        <v>9.651233333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4172,28 +3862,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.712</v>
+        <v>9.84</v>
       </c>
       <c r="C95" t="n">
-        <v>9.683</v>
+        <v>9.84</v>
       </c>
       <c r="D95" t="n">
-        <v>9.712</v>
+        <v>9.84</v>
       </c>
       <c r="E95" t="n">
-        <v>9.683</v>
+        <v>9.84</v>
       </c>
       <c r="F95" t="n">
-        <v>100000</v>
+        <v>52.4444</v>
       </c>
       <c r="G95" t="n">
-        <v>9.658400000000002</v>
+        <v>9.656133333333337</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4207,28 +3897,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.683</v>
+        <v>9.712</v>
       </c>
       <c r="C96" t="n">
         <v>9.683</v>
       </c>
       <c r="D96" t="n">
-        <v>9.683</v>
+        <v>9.712</v>
       </c>
       <c r="E96" t="n">
         <v>9.683</v>
       </c>
       <c r="F96" t="n">
-        <v>11959.7823</v>
+        <v>100000</v>
       </c>
       <c r="G96" t="n">
-        <v>9.660316666666668</v>
+        <v>9.658400000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4254,10 +3944,10 @@
         <v>9.683</v>
       </c>
       <c r="F97" t="n">
-        <v>47489.9219</v>
+        <v>11959.7823</v>
       </c>
       <c r="G97" t="n">
-        <v>9.662233333333337</v>
+        <v>9.660316666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4280,19 +3970,19 @@
         <v>9.683</v>
       </c>
       <c r="C98" t="n">
-        <v>9.789</v>
+        <v>9.683</v>
       </c>
       <c r="D98" t="n">
-        <v>9.789</v>
+        <v>9.683</v>
       </c>
       <c r="E98" t="n">
         <v>9.683</v>
       </c>
       <c r="F98" t="n">
-        <v>17375.976</v>
+        <v>47489.9219</v>
       </c>
       <c r="G98" t="n">
-        <v>9.664916666666668</v>
+        <v>9.662233333333337</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4315,19 +4005,19 @@
         <v>9.683</v>
       </c>
       <c r="C99" t="n">
-        <v>9.683</v>
+        <v>9.789</v>
       </c>
       <c r="D99" t="n">
-        <v>9.827999999999999</v>
+        <v>9.789</v>
       </c>
       <c r="E99" t="n">
         <v>9.683</v>
       </c>
       <c r="F99" t="n">
-        <v>51671.43807136752</v>
+        <v>17375.976</v>
       </c>
       <c r="G99" t="n">
-        <v>9.666</v>
+        <v>9.664916666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4347,22 +4037,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.827999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C100" t="n">
-        <v>9.827999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D100" t="n">
         <v>9.827999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>9.827999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F100" t="n">
-        <v>60</v>
+        <v>51671.43807136752</v>
       </c>
       <c r="G100" t="n">
-        <v>9.669</v>
+        <v>9.666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4382,22 +4072,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.837999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>9.84</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>9.84</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>9.837999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>65186.858</v>
+        <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>9.672366666666667</v>
+        <v>9.669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4417,7 +4107,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.83</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>9.84</v>
@@ -4426,19 +4116,19 @@
         <v>9.84</v>
       </c>
       <c r="E102" t="n">
-        <v>9.83</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>70920.4546</v>
+        <v>65186.858</v>
       </c>
       <c r="G102" t="n">
-        <v>9.6759</v>
+        <v>9.672366666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4455,25 +4145,25 @@
         <v>9.83</v>
       </c>
       <c r="C103" t="n">
-        <v>9.83</v>
+        <v>9.84</v>
       </c>
       <c r="D103" t="n">
-        <v>9.83</v>
+        <v>9.84</v>
       </c>
       <c r="E103" t="n">
         <v>9.83</v>
       </c>
       <c r="F103" t="n">
-        <v>53940.3925</v>
+        <v>70920.4546</v>
       </c>
       <c r="G103" t="n">
-        <v>9.679650000000001</v>
+        <v>9.6759</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4487,7 +4177,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.829000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="C104" t="n">
         <v>9.83</v>
@@ -4496,19 +4186,19 @@
         <v>9.83</v>
       </c>
       <c r="E104" t="n">
-        <v>9.829000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="F104" t="n">
-        <v>29105.6424</v>
+        <v>53940.3925</v>
       </c>
       <c r="G104" t="n">
-        <v>9.684316666666668</v>
+        <v>9.679650000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4522,28 +4212,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.85</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>9.848000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="D105" t="n">
-        <v>9.858000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="E105" t="n">
-        <v>9.848000000000001</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>58962.279</v>
+        <v>29105.6424</v>
       </c>
       <c r="G105" t="n">
-        <v>9.689283333333334</v>
+        <v>9.684316666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4557,28 +4247,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.858000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="C106" t="n">
-        <v>9.858000000000001</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D106" t="n">
         <v>9.858000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>9.858000000000001</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>54.4545</v>
+        <v>58962.279</v>
       </c>
       <c r="G106" t="n">
-        <v>9.695983333333334</v>
+        <v>9.689283333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4592,28 +4282,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>17000</v>
+        <v>54.4545</v>
       </c>
       <c r="G107" t="n">
-        <v>9.700449999999998</v>
+        <v>9.695983333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4630,25 +4320,25 @@
         <v>9.848000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>9.859</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>9.859</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>9.800000000000001</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>99852.5177</v>
+        <v>17000</v>
       </c>
       <c r="G108" t="n">
-        <v>9.7056</v>
+        <v>9.700449999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4662,22 +4352,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9.859</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.859</v>
+      </c>
+      <c r="E109" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="C109" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9.69</v>
-      </c>
       <c r="F109" t="n">
-        <v>10000</v>
+        <v>99852.5177</v>
       </c>
       <c r="G109" t="n">
-        <v>9.708433333333335</v>
+        <v>9.7056</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4697,22 +4387,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.693</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>9.693</v>
+        <v>9.69</v>
       </c>
       <c r="D110" t="n">
-        <v>9.693</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>9.693</v>
+        <v>9.69</v>
       </c>
       <c r="F110" t="n">
-        <v>1676</v>
+        <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>9.711316666666669</v>
+        <v>9.708433333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4732,22 +4422,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.858000000000001</v>
+        <v>9.693</v>
       </c>
       <c r="C111" t="n">
-        <v>9.858000000000001</v>
+        <v>9.693</v>
       </c>
       <c r="D111" t="n">
-        <v>9.858000000000001</v>
+        <v>9.693</v>
       </c>
       <c r="E111" t="n">
-        <v>9.858000000000001</v>
+        <v>9.693</v>
       </c>
       <c r="F111" t="n">
-        <v>54.4545</v>
+        <v>1676</v>
       </c>
       <c r="G111" t="n">
-        <v>9.716950000000001</v>
+        <v>9.711316666666669</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4779,10 +4469,10 @@
         <v>9.858000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>1621.5455</v>
+        <v>54.4545</v>
       </c>
       <c r="G112" t="n">
-        <v>9.722416666666668</v>
+        <v>9.716950000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4802,22 +4492,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.859999999999999</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C113" t="n">
         <v>9.858000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>9.859999999999999</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E113" t="n">
         <v>9.858000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>11137.1566</v>
+        <v>1621.5455</v>
       </c>
       <c r="G113" t="n">
-        <v>9.727216666666665</v>
+        <v>9.722416666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4837,22 +4527,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C114" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="C114" t="n">
-        <v>9.721</v>
-      </c>
       <c r="D114" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E114" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="E114" t="n">
-        <v>9.721</v>
-      </c>
       <c r="F114" t="n">
-        <v>7390</v>
+        <v>11137.1566</v>
       </c>
       <c r="G114" t="n">
-        <v>9.729566666666665</v>
+        <v>9.727216666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4872,22 +4562,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.698</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>9.698</v>
+        <v>9.721</v>
       </c>
       <c r="D115" t="n">
-        <v>9.698</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>9.698</v>
+        <v>9.721</v>
       </c>
       <c r="F115" t="n">
-        <v>50815.5338</v>
+        <v>7390</v>
       </c>
       <c r="G115" t="n">
-        <v>9.730749999999999</v>
+        <v>9.729566666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4910,19 +4600,19 @@
         <v>9.698</v>
       </c>
       <c r="C116" t="n">
-        <v>9.711</v>
+        <v>9.698</v>
       </c>
       <c r="D116" t="n">
-        <v>9.711</v>
+        <v>9.698</v>
       </c>
       <c r="E116" t="n">
         <v>9.698</v>
       </c>
       <c r="F116" t="n">
-        <v>186878.9427</v>
+        <v>50815.5338</v>
       </c>
       <c r="G116" t="n">
-        <v>9.730933333333331</v>
+        <v>9.730749999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4942,22 +4632,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="C117" t="n">
         <v>9.711</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9.683</v>
       </c>
       <c r="D117" t="n">
         <v>9.711</v>
       </c>
       <c r="E117" t="n">
-        <v>9.683</v>
+        <v>9.698</v>
       </c>
       <c r="F117" t="n">
-        <v>242767.4348</v>
+        <v>186878.9427</v>
       </c>
       <c r="G117" t="n">
-        <v>9.732233333333332</v>
+        <v>9.730933333333331</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4980,19 +4670,19 @@
         <v>9.711</v>
       </c>
       <c r="C118" t="n">
-        <v>9.711</v>
+        <v>9.683</v>
       </c>
       <c r="D118" t="n">
         <v>9.711</v>
       </c>
       <c r="E118" t="n">
-        <v>9.711</v>
+        <v>9.683</v>
       </c>
       <c r="F118" t="n">
-        <v>14029.7675</v>
+        <v>242767.4348</v>
       </c>
       <c r="G118" t="n">
-        <v>9.732466666666664</v>
+        <v>9.732233333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5021,13 +4711,13 @@
         <v>9.711</v>
       </c>
       <c r="E119" t="n">
-        <v>9.683999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="F119" t="n">
-        <v>15112</v>
+        <v>14029.7675</v>
       </c>
       <c r="G119" t="n">
-        <v>9.732899999999999</v>
+        <v>9.732466666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5056,13 +4746,13 @@
         <v>9.711</v>
       </c>
       <c r="E120" t="n">
-        <v>9.711</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>34234.7078</v>
+        <v>15112</v>
       </c>
       <c r="G120" t="n">
-        <v>9.734483333333333</v>
+        <v>9.732899999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5094,10 +4784,10 @@
         <v>9.711</v>
       </c>
       <c r="F121" t="n">
-        <v>1714.6391</v>
+        <v>34234.7078</v>
       </c>
       <c r="G121" t="n">
-        <v>9.736066666666666</v>
+        <v>9.734483333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5120,19 +4810,19 @@
         <v>9.711</v>
       </c>
       <c r="C122" t="n">
-        <v>9.683999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="D122" t="n">
         <v>9.711</v>
       </c>
       <c r="E122" t="n">
-        <v>9.683999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="F122" t="n">
-        <v>13479.1316</v>
+        <v>1714.6391</v>
       </c>
       <c r="G122" t="n">
-        <v>9.7372</v>
+        <v>9.736066666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5152,22 +4842,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.683999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="C123" t="n">
         <v>9.683999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>9.683999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="E123" t="n">
         <v>9.683999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>6283.783</v>
+        <v>13479.1316</v>
       </c>
       <c r="G123" t="n">
-        <v>9.738333333333333</v>
+        <v>9.7372</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5190,19 +4880,19 @@
         <v>9.683999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="D124" t="n">
         <v>9.683999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>20865.6851</v>
+        <v>6283.783</v>
       </c>
       <c r="G124" t="n">
-        <v>9.73945</v>
+        <v>9.738333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5222,22 +4912,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D125" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F125" t="n">
-        <v>3000</v>
+        <v>20865.6851</v>
       </c>
       <c r="G125" t="n">
-        <v>9.742066666666666</v>
+        <v>9.73945</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5260,19 +4950,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>9.683999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D126" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>9.683999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="G126" t="n">
-        <v>9.742799999999999</v>
+        <v>9.742066666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5295,19 +4985,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="D127" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G127" t="n">
-        <v>9.7438</v>
+        <v>9.742799999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5339,10 +5029,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>247.835</v>
+        <v>51</v>
       </c>
       <c r="G128" t="n">
-        <v>9.744816666666669</v>
+        <v>9.7438</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5365,19 +5055,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>9.67</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D129" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>9.67</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>42101.1107</v>
+        <v>247.835</v>
       </c>
       <c r="G129" t="n">
-        <v>9.745316666666668</v>
+        <v>9.744816666666669</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5397,22 +5087,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C130" t="n">
         <v>9.67</v>
       </c>
-      <c r="C130" t="n">
-        <v>9.680999999999999</v>
-      </c>
       <c r="D130" t="n">
-        <v>9.711</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E130" t="n">
         <v>9.67</v>
       </c>
       <c r="F130" t="n">
-        <v>766017.7756000001</v>
+        <v>42101.1107</v>
       </c>
       <c r="G130" t="n">
-        <v>9.746000000000002</v>
+        <v>9.745316666666668</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5427,6 +5117,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F131" t="n">
+        <v>766017.7756000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9.746000000000002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3302.3821</v>
       </c>
       <c r="G2" t="n">
+        <v>9.436666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>9.962400000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>23318.741</v>
       </c>
       <c r="G3" t="n">
+        <v>9.435933333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>9.937566666666671</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6843.251</v>
       </c>
       <c r="G4" t="n">
+        <v>9.42253333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>9.914883333333337</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>664189.6744</v>
       </c>
       <c r="G5" t="n">
+        <v>9.398866666666663</v>
+      </c>
+      <c r="H5" t="n">
         <v>9.891883333333338</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>158705.9668</v>
       </c>
       <c r="G6" t="n">
+        <v>9.378066666666662</v>
+      </c>
+      <c r="H6" t="n">
         <v>9.869716666666672</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>53</v>
       </c>
       <c r="G7" t="n">
+        <v>9.368533333333328</v>
+      </c>
+      <c r="H7" t="n">
         <v>9.850050000000007</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>23866.9874</v>
       </c>
       <c r="G8" t="n">
+        <v>9.377199999999995</v>
+      </c>
+      <c r="H8" t="n">
         <v>9.82938333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>281027.1889</v>
       </c>
       <c r="G9" t="n">
+        <v>9.372199999999996</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.810383333333339</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>355918.0551</v>
       </c>
       <c r="G10" t="n">
+        <v>9.376866666666663</v>
+      </c>
+      <c r="H10" t="n">
         <v>9.789883333333339</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>53</v>
       </c>
       <c r="G11" t="n">
+        <v>9.396533333333329</v>
+      </c>
+      <c r="H11" t="n">
         <v>9.769300000000007</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>337744.0919</v>
       </c>
       <c r="G12" t="n">
+        <v>9.408599999999996</v>
+      </c>
+      <c r="H12" t="n">
         <v>9.750500000000006</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>396182.1611</v>
       </c>
       <c r="G13" t="n">
+        <v>9.414533333333329</v>
+      </c>
+      <c r="H13" t="n">
         <v>9.726833333333337</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>780656.0013</v>
       </c>
       <c r="G14" t="n">
+        <v>9.416533333333328</v>
+      </c>
+      <c r="H14" t="n">
         <v>9.705500000000004</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>113176.5318</v>
       </c>
       <c r="G15" t="n">
+        <v>9.421866666666663</v>
+      </c>
+      <c r="H15" t="n">
         <v>9.685000000000004</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>32280.3886</v>
       </c>
       <c r="G16" t="n">
+        <v>9.417733333333331</v>
+      </c>
+      <c r="H16" t="n">
         <v>9.664666666666671</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>68600.33100000001</v>
       </c>
       <c r="G17" t="n">
+        <v>9.417266666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>9.641716666666669</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>13759.381</v>
       </c>
       <c r="G18" t="n">
+        <v>9.422133333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>9.620766666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>26235.0559</v>
       </c>
       <c r="G19" t="n">
+        <v>9.428599999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>9.6027</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>85418.32670000001</v>
       </c>
       <c r="G20" t="n">
+        <v>9.437266666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>9.583200000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>9966.491099999999</v>
       </c>
       <c r="G21" t="n">
+        <v>9.445933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>9.563700000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>115645.4569445412</v>
       </c>
       <c r="G22" t="n">
+        <v>9.452266666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>9.545950000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>5144.4784</v>
       </c>
       <c r="G23" t="n">
+        <v>9.451599999999997</v>
+      </c>
+      <c r="H23" t="n">
         <v>9.526783333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>50053</v>
       </c>
       <c r="G24" t="n">
+        <v>9.455599999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>9.50895</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>4180.3261</v>
       </c>
       <c r="G25" t="n">
+        <v>9.465866666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>9.491183333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>13836.7438</v>
       </c>
       <c r="G26" t="n">
+        <v>9.461066666666664</v>
+      </c>
+      <c r="H26" t="n">
         <v>9.474066666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>125886.0815</v>
       </c>
       <c r="G27" t="n">
+        <v>9.456333333333331</v>
+      </c>
+      <c r="H27" t="n">
         <v>9.455083333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>59632.7767</v>
       </c>
       <c r="G28" t="n">
+        <v>9.463666666666665</v>
+      </c>
+      <c r="H28" t="n">
         <v>9.437916666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>271178.960741456</v>
       </c>
       <c r="G29" t="n">
+        <v>9.475599999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>9.41656666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>62186.2311</v>
       </c>
       <c r="G30" t="n">
+        <v>9.483066666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>9.399100000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>33245.4559</v>
       </c>
       <c r="G31" t="n">
+        <v>9.484666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>9.372000000000003</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,25 @@
         <v>53</v>
       </c>
       <c r="G32" t="n">
+        <v>9.492133333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>9.36791666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1635,29 @@
         <v>1778.4677</v>
       </c>
       <c r="G33" t="n">
+        <v>9.498999999999997</v>
+      </c>
+      <c r="H33" t="n">
         <v>9.37701666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1681,27 @@
         <v>117524.517</v>
       </c>
       <c r="G34" t="n">
+        <v>9.499866666666664</v>
+      </c>
+      <c r="H34" t="n">
         <v>9.402833333333337</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1725,21 @@
         <v>210016.9039</v>
       </c>
       <c r="G35" t="n">
+        <v>9.506266666666665</v>
+      </c>
+      <c r="H35" t="n">
         <v>9.412066666666671</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1763,21 @@
         <v>54846.7997</v>
       </c>
       <c r="G36" t="n">
+        <v>9.512733333333331</v>
+      </c>
+      <c r="H36" t="n">
         <v>9.406083333333338</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1801,21 @@
         <v>1738.8353</v>
       </c>
       <c r="G37" t="n">
+        <v>9.514933333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>9.400566666666672</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1839,21 @@
         <v>261.1647</v>
       </c>
       <c r="G38" t="n">
+        <v>9.5228</v>
+      </c>
+      <c r="H38" t="n">
         <v>9.411700000000005</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,21 @@
         <v>95.54940000000001</v>
       </c>
       <c r="G39" t="n">
+        <v>9.530000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>9.423400000000006</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1915,21 @@
         <v>83531.96920000001</v>
       </c>
       <c r="G40" t="n">
+        <v>9.536266666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>9.432200000000005</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1953,21 @@
         <v>80443.45699999999</v>
       </c>
       <c r="G41" t="n">
+        <v>9.544600000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>9.442383333333339</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1991,21 @@
         <v>36028.8999</v>
       </c>
       <c r="G42" t="n">
+        <v>9.559733333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>9.44953333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2029,21 @@
         <v>473964.996</v>
       </c>
       <c r="G43" t="n">
+        <v>9.566933333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>9.456833333333341</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2067,21 @@
         <v>27339.3559</v>
       </c>
       <c r="G44" t="n">
+        <v>9.571999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>9.464583333333341</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2105,21 @@
         <v>147875.2533</v>
       </c>
       <c r="G45" t="n">
+        <v>9.574533333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>9.471716666666675</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2143,25 @@
         <v>94650.84510000001</v>
       </c>
       <c r="G46" t="n">
+        <v>9.582933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>9.476833333333339</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L46" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2185,29 @@
         <v>13113.6028</v>
       </c>
       <c r="G47" t="n">
+        <v>9.576333333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>9.480600000000006</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2231,29 @@
         <v>53</v>
       </c>
       <c r="G48" t="n">
+        <v>9.5786</v>
+      </c>
+      <c r="H48" t="n">
         <v>9.483916666666675</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2277,29 @@
         <v>16913.7115</v>
       </c>
       <c r="G49" t="n">
+        <v>9.578666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>9.482416666666673</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2323,29 @@
         <v>151726.4622</v>
       </c>
       <c r="G50" t="n">
+        <v>9.576933333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>9.479833333333341</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2369,29 @@
         <v>19940.3211</v>
       </c>
       <c r="G51" t="n">
+        <v>9.575133333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>9.477966666666674</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="L51" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,24 +2415,29 @@
         <v>47616.5755</v>
       </c>
       <c r="G52" t="n">
+        <v>9.571933333333336</v>
+      </c>
+      <c r="H52" t="n">
         <v>9.476916666666675</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
         <v>9.52</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2239,24 +2461,29 @@
         <v>36304.4114</v>
       </c>
       <c r="G53" t="n">
+        <v>9.569400000000002</v>
+      </c>
+      <c r="H53" t="n">
         <v>9.480250000000007</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
         <v>9.52</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,24 +2507,29 @@
         <v>53</v>
       </c>
       <c r="G54" t="n">
+        <v>9.565533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>9.480833333333342</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,24 +2553,29 @@
         <v>53</v>
       </c>
       <c r="G55" t="n">
+        <v>9.563000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>9.485500000000009</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
         <v>9.57</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,24 +2599,29 @@
         <v>249398.2851</v>
       </c>
       <c r="G56" t="n">
+        <v>9.561600000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>9.490950000000009</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
         <v>9.58</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2403,24 +2645,29 @@
         <v>10052</v>
       </c>
       <c r="G57" t="n">
+        <v>9.565733333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>9.497600000000009</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
         <v>9.627000000000001</v>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,25 +2691,30 @@
         <v>99.3266</v>
       </c>
       <c r="G58" t="n">
+        <v>9.564200000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>9.502333333333343</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
+      <c r="L58" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1.000759162303665</v>
       </c>
     </row>
     <row r="59">
@@ -2485,24 +2737,29 @@
         <v>52</v>
       </c>
       <c r="G59" t="n">
+        <v>9.570333333333336</v>
+      </c>
+      <c r="H59" t="n">
         <v>9.508616666666676</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
         <v>9.605</v>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,22 +2783,29 @@
         <v>2620.102</v>
       </c>
       <c r="G60" t="n">
+        <v>9.579333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>9.514700000000007</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,22 +2829,27 @@
         <v>19531.9692</v>
       </c>
       <c r="G61" t="n">
+        <v>9.583733333333335</v>
+      </c>
+      <c r="H61" t="n">
         <v>9.517266666666673</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,24 +2873,29 @@
         <v>1750.2633</v>
       </c>
       <c r="G62" t="n">
+        <v>9.594400000000002</v>
+      </c>
+      <c r="H62" t="n">
         <v>9.520033333333339</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
         <v>9.616</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,24 +2919,29 @@
         <v>10489.6217</v>
       </c>
       <c r="G63" t="n">
+        <v>9.596800000000002</v>
+      </c>
+      <c r="H63" t="n">
         <v>9.524133333333339</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
         <v>9.616</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2686,24 +2965,29 @@
         <v>1272.6458</v>
       </c>
       <c r="G64" t="n">
+        <v>9.601200000000002</v>
+      </c>
+      <c r="H64" t="n">
         <v>9.527083333333339</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
         <v>9.616</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2727,24 +3011,29 @@
         <v>52950.716</v>
       </c>
       <c r="G65" t="n">
+        <v>9.6076</v>
+      </c>
+      <c r="H65" t="n">
         <v>9.532016666666671</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
         <v>9.616</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,24 +3057,29 @@
         <v>1283.9168</v>
       </c>
       <c r="G66" t="n">
+        <v>9.609133333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>9.535733333333337</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
         <v>9.616</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,24 +3103,29 @@
         <v>1196.7605</v>
       </c>
       <c r="G67" t="n">
+        <v>9.617133333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>9.539066666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
         <v>9.542999999999999</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,24 +3149,29 @@
         <v>9150.8145</v>
       </c>
       <c r="G68" t="n">
+        <v>9.624466666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>9.542066666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,24 +3195,29 @@
         <v>28021.8646</v>
       </c>
       <c r="G69" t="n">
+        <v>9.629066666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>9.545050000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,22 +3241,29 @@
         <v>55</v>
       </c>
       <c r="G70" t="n">
+        <v>9.633066666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>9.549550000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="L70" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2971,23 +3287,30 @@
         <v>5130.9621</v>
       </c>
       <c r="G71" t="n">
+        <v>9.633933333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>9.5503</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0.9888144329896909</v>
       </c>
     </row>
     <row r="72">
@@ -3010,22 +3333,25 @@
         <v>54050.3631</v>
       </c>
       <c r="G72" t="n">
+        <v>9.630600000000003</v>
+      </c>
+      <c r="H72" t="n">
         <v>9.553100000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,22 +3375,29 @@
         <v>55</v>
       </c>
       <c r="G73" t="n">
+        <v>9.635800000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>9.557650000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="L73" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,22 +3421,29 @@
         <v>356.6868</v>
       </c>
       <c r="G74" t="n">
+        <v>9.632666666666669</v>
+      </c>
+      <c r="H74" t="n">
         <v>9.56265</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L74" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3127,22 +3467,25 @@
         <v>55</v>
       </c>
       <c r="G75" t="n">
+        <v>9.632533333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>9.567366666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="L75" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,22 +3509,29 @@
         <v>10272.3769</v>
       </c>
       <c r="G76" t="n">
+        <v>9.637</v>
+      </c>
+      <c r="H76" t="n">
         <v>9.572083333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L76" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3205,22 +3555,29 @@
         <v>20000</v>
       </c>
       <c r="G77" t="n">
+        <v>9.632133333333336</v>
+      </c>
+      <c r="H77" t="n">
         <v>9.57375</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L77" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,22 +3601,29 @@
         <v>54.4444</v>
       </c>
       <c r="G78" t="n">
+        <v>9.636600000000003</v>
+      </c>
+      <c r="H78" t="n">
         <v>9.577750000000002</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="L78" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,22 +3647,29 @@
         <v>9897.331399999999</v>
       </c>
       <c r="G79" t="n">
+        <v>9.641066666666669</v>
+      </c>
+      <c r="H79" t="n">
         <v>9.580200000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,22 +3693,29 @@
         <v>2000</v>
       </c>
       <c r="G80" t="n">
+        <v>9.645533333333336</v>
+      </c>
+      <c r="H80" t="n">
         <v>9.584083333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3361,22 +3739,29 @@
         <v>515.0328</v>
       </c>
       <c r="G81" t="n">
+        <v>9.654866666666669</v>
+      </c>
+      <c r="H81" t="n">
         <v>9.587966666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L81" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,22 +3785,29 @@
         <v>2410.1086</v>
       </c>
       <c r="G82" t="n">
+        <v>9.657733333333336</v>
+      </c>
+      <c r="H82" t="n">
         <v>9.590433333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L82" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,22 +3831,29 @@
         <v>7529.5543</v>
       </c>
       <c r="G83" t="n">
+        <v>9.664400000000004</v>
+      </c>
+      <c r="H83" t="n">
         <v>9.595266666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L83" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,22 +3877,29 @@
         <v>232808.7559</v>
       </c>
       <c r="G84" t="n">
+        <v>9.679733333333337</v>
+      </c>
+      <c r="H84" t="n">
         <v>9.601083333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3517,22 +3923,29 @@
         <v>9873.3254</v>
       </c>
       <c r="G85" t="n">
+        <v>9.695000000000004</v>
+      </c>
+      <c r="H85" t="n">
         <v>9.606833333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,22 +3969,29 @@
         <v>49907.0929</v>
       </c>
       <c r="G86" t="n">
+        <v>9.710266666666671</v>
+      </c>
+      <c r="H86" t="n">
         <v>9.612600000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,22 +4015,31 @@
         <v>11959.7823</v>
       </c>
       <c r="G87" t="n">
+        <v>9.724866666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>9.620233333333337</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="L87" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,19 +4061,30 @@
         <v>16939.2127</v>
       </c>
       <c r="G88" t="n">
+        <v>9.726733333333337</v>
+      </c>
+      <c r="H88" t="n">
         <v>9.623416666666669</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="L88" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1.001321243523316</v>
       </c>
     </row>
     <row r="89">
@@ -3667,18 +4107,25 @@
         <v>60</v>
       </c>
       <c r="G89" t="n">
+        <v>9.741133333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>9.629033333333336</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L89" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4149,29 @@
         <v>112</v>
       </c>
       <c r="G90" t="n">
+        <v>9.74646666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>9.633216666666669</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4195,29 @@
         <v>2809.9759</v>
       </c>
       <c r="G91" t="n">
+        <v>9.757933333333337</v>
+      </c>
+      <c r="H91" t="n">
         <v>9.640400000000003</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>9.763</v>
+      </c>
+      <c r="L91" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4241,29 @@
         <v>18722.2876</v>
       </c>
       <c r="G92" t="n">
+        <v>9.77306666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>9.643983333333336</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4287,29 @@
         <v>53000</v>
       </c>
       <c r="G93" t="n">
+        <v>9.778866666666671</v>
+      </c>
+      <c r="H93" t="n">
         <v>9.647716666666669</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="L93" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4333,29 @@
         <v>7400</v>
       </c>
       <c r="G94" t="n">
+        <v>9.784000000000004</v>
+      </c>
+      <c r="H94" t="n">
         <v>9.651233333333336</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4379,29 @@
         <v>52.4444</v>
       </c>
       <c r="G95" t="n">
+        <v>9.794466666666672</v>
+      </c>
+      <c r="H95" t="n">
         <v>9.656133333333337</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4425,29 @@
         <v>100000</v>
       </c>
       <c r="G96" t="n">
+        <v>9.794466666666672</v>
+      </c>
+      <c r="H96" t="n">
         <v>9.658400000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="L96" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4471,29 @@
         <v>11959.7823</v>
       </c>
       <c r="G97" t="n">
+        <v>9.794466666666672</v>
+      </c>
+      <c r="H97" t="n">
         <v>9.660316666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L97" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4517,29 @@
         <v>47489.9219</v>
       </c>
       <c r="G98" t="n">
+        <v>9.790666666666672</v>
+      </c>
+      <c r="H98" t="n">
         <v>9.662233333333337</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L98" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4563,29 @@
         <v>17375.976</v>
       </c>
       <c r="G99" t="n">
+        <v>9.785333333333337</v>
+      </c>
+      <c r="H99" t="n">
         <v>9.664916666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L99" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4609,29 @@
         <v>51671.43807136752</v>
       </c>
       <c r="G100" t="n">
+        <v>9.772933333333336</v>
+      </c>
+      <c r="H100" t="n">
         <v>9.666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="L100" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4655,29 @@
         <v>60</v>
       </c>
       <c r="G101" t="n">
+        <v>9.770200000000004</v>
+      </c>
+      <c r="H101" t="n">
         <v>9.669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L101" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4701,29 @@
         <v>65186.858</v>
       </c>
       <c r="G102" t="n">
+        <v>9.768266666666671</v>
+      </c>
+      <c r="H102" t="n">
         <v>9.672366666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9.827999999999999</v>
+      </c>
+      <c r="L102" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,19 +4747,30 @@
         <v>70920.4546</v>
       </c>
       <c r="G103" t="n">
+        <v>9.77686666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>9.6759</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="L103" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1.00828390485017</v>
       </c>
     </row>
     <row r="104">
@@ -4192,18 +4793,25 @@
         <v>53940.3925</v>
       </c>
       <c r="G104" t="n">
+        <v>9.774466666666672</v>
+      </c>
+      <c r="H104" t="n">
         <v>9.679650000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="L104" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4835,29 @@
         <v>29105.6424</v>
       </c>
       <c r="G105" t="n">
+        <v>9.778933333333338</v>
+      </c>
+      <c r="H105" t="n">
         <v>9.684316666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="L105" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4881,29 @@
         <v>58962.279</v>
       </c>
       <c r="G106" t="n">
+        <v>9.778466666666674</v>
+      </c>
+      <c r="H106" t="n">
         <v>9.689283333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="L106" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4927,29 @@
         <v>54.4545</v>
       </c>
       <c r="G107" t="n">
+        <v>9.78433333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>9.695983333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="L107" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4973,29 @@
         <v>17000</v>
       </c>
       <c r="G108" t="n">
+        <v>9.78953333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>9.700449999999998</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="L108" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +5019,29 @@
         <v>99852.5177</v>
       </c>
       <c r="G109" t="n">
+        <v>9.796133333333341</v>
+      </c>
+      <c r="H109" t="n">
         <v>9.7056</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="L109" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +5065,29 @@
         <v>10000</v>
       </c>
       <c r="G110" t="n">
+        <v>9.786133333333341</v>
+      </c>
+      <c r="H110" t="n">
         <v>9.708433333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9.859</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +5111,29 @@
         <v>1676</v>
       </c>
       <c r="G111" t="n">
+        <v>9.786800000000008</v>
+      </c>
+      <c r="H111" t="n">
         <v>9.711316666666669</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="L111" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +5157,29 @@
         <v>54.4545</v>
       </c>
       <c r="G112" t="n">
+        <v>9.798466666666677</v>
+      </c>
+      <c r="H112" t="n">
         <v>9.716950000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="L112" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +5203,29 @@
         <v>1621.5455</v>
       </c>
       <c r="G113" t="n">
+        <v>9.810133333333344</v>
+      </c>
+      <c r="H113" t="n">
         <v>9.722416666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="L113" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5249,29 @@
         <v>11137.1566</v>
       </c>
       <c r="G114" t="n">
+        <v>9.814733333333345</v>
+      </c>
+      <c r="H114" t="n">
         <v>9.727216666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="L114" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5295,29 @@
         <v>7390</v>
       </c>
       <c r="G115" t="n">
+        <v>9.817266666666679</v>
+      </c>
+      <c r="H115" t="n">
         <v>9.729566666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="L115" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,19 +5341,30 @@
         <v>50815.5338</v>
       </c>
       <c r="G116" t="n">
+        <v>9.808600000000013</v>
+      </c>
+      <c r="H116" t="n">
         <v>9.730749999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="L116" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>0.9805691056910569</v>
       </c>
     </row>
     <row r="117">
@@ -4647,18 +5387,29 @@
         <v>186878.9427</v>
       </c>
       <c r="G117" t="n">
+        <v>9.800000000000013</v>
+      </c>
+      <c r="H117" t="n">
         <v>9.730933333333331</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="L117" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5433,29 @@
         <v>242767.4348</v>
       </c>
       <c r="G118" t="n">
+        <v>9.789533333333345</v>
+      </c>
+      <c r="H118" t="n">
         <v>9.732233333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L118" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5479,29 @@
         <v>14029.7675</v>
       </c>
       <c r="G119" t="n">
+        <v>9.781600000000013</v>
+      </c>
+      <c r="H119" t="n">
         <v>9.732466666666664</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5525,29 @@
         <v>15112</v>
       </c>
       <c r="G120" t="n">
+        <v>9.77366666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>9.732899999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L120" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5571,29 @@
         <v>34234.7078</v>
       </c>
       <c r="G121" t="n">
+        <v>9.764533333333345</v>
+      </c>
+      <c r="H121" t="n">
         <v>9.734483333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L121" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5617,29 @@
         <v>1714.6391</v>
       </c>
       <c r="G122" t="n">
+        <v>9.754733333333347</v>
+      </c>
+      <c r="H122" t="n">
         <v>9.736066666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L122" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5663,29 @@
         <v>13479.1316</v>
       </c>
       <c r="G123" t="n">
+        <v>9.743800000000013</v>
+      </c>
+      <c r="H123" t="n">
         <v>9.7372</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L123" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5709,29 @@
         <v>6283.783</v>
       </c>
       <c r="G124" t="n">
+        <v>9.732133333333344</v>
+      </c>
+      <c r="H124" t="n">
         <v>9.738333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="L124" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5755,29 @@
         <v>20865.6851</v>
       </c>
       <c r="G125" t="n">
+        <v>9.731666666666678</v>
+      </c>
+      <c r="H125" t="n">
         <v>9.73945</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="L125" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5801,29 @@
         <v>3000</v>
       </c>
       <c r="G126" t="n">
+        <v>9.732133333333342</v>
+      </c>
+      <c r="H126" t="n">
         <v>9.742066666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L126" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5847,29 @@
         <v>120</v>
       </c>
       <c r="G127" t="n">
+        <v>9.720533333333343</v>
+      </c>
+      <c r="H127" t="n">
         <v>9.742799999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L127" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,19 +5893,30 @@
         <v>51</v>
       </c>
       <c r="G128" t="n">
+        <v>9.710000000000008</v>
+      </c>
+      <c r="H128" t="n">
         <v>9.7438</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="L128" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>0.9928397284230016</v>
       </c>
     </row>
     <row r="129">
@@ -5067,18 +5939,25 @@
         <v>247.835</v>
       </c>
       <c r="G129" t="n">
+        <v>9.699466666666673</v>
+      </c>
+      <c r="H129" t="n">
         <v>9.744816666666669</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L129" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5981,29 @@
         <v>42101.1107</v>
       </c>
       <c r="G130" t="n">
+        <v>9.696066666666672</v>
+      </c>
+      <c r="H130" t="n">
         <v>9.745316666666668</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L130" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,19 +6027,482 @@
         <v>766017.7756000001</v>
       </c>
       <c r="G131" t="n">
+        <v>9.69493333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>9.746000000000002</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="L131" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>52897.2745</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9.69293333333334</v>
+      </c>
+      <c r="H132" t="n">
+        <v>9.74651666666667</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="L132" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9.693400000000006</v>
+      </c>
+      <c r="H133" t="n">
+        <v>9.746633333333337</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="L133" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="F134" t="n">
+        <v>51</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9.702600000000006</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9.749950000000005</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="L134" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9.702600000000006</v>
+      </c>
+      <c r="H135" t="n">
+        <v>9.750416666666672</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="L135" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>51</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9.711733333333338</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9.753166666666671</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="L136" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16597.444</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9.720866666666671</v>
+      </c>
+      <c r="H137" t="n">
+        <v>9.758250000000004</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F138" t="n">
+        <v>44659.6736</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9.731933333333338</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9.761033333333337</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>110737.6284</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9.742866666666673</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9.763783333333338</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F140" t="n">
+        <v>51</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9.754333333333339</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9.766650000000004</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F141" t="n">
+        <v>42217.7451</v>
+      </c>
+      <c r="G141" t="n">
+        <v>9.764666666666672</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9.769516666666672</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="L141" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1.010979381443299</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.449999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>9.449999999999999</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>9.449999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>9.449999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="F2" t="n">
-        <v>3302.3821</v>
+        <v>2469350.3565</v>
       </c>
       <c r="G2" t="n">
-        <v>9.436666666666666</v>
+        <v>-329168.695211194</v>
       </c>
       <c r="H2" t="n">
-        <v>9.962400000000004</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.369999999999999</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9.369999999999999</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>9.369999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.369999999999999</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>23318.741</v>
+        <v>7648810.117</v>
       </c>
       <c r="G3" t="n">
-        <v>9.435933333333333</v>
+        <v>-7977978.812211193</v>
       </c>
       <c r="H3" t="n">
-        <v>9.937566666666671</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.439</v>
+        <v>8.02</v>
       </c>
       <c r="C4" t="n">
-        <v>9.439</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>9.439</v>
+        <v>8.999000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.439</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>6843.251</v>
+        <v>930760.7343</v>
       </c>
       <c r="G4" t="n">
-        <v>9.42253333333333</v>
+        <v>-7047218.077911193</v>
       </c>
       <c r="H4" t="n">
-        <v>9.914883333333337</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.439</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.32</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.439</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.32</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>664189.6744</v>
+        <v>248761.5081</v>
       </c>
       <c r="G5" t="n">
-        <v>9.398866666666663</v>
+        <v>-6798456.569811193</v>
       </c>
       <c r="H5" t="n">
-        <v>9.891883333333338</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.32</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.32</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.439</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.32</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>158705.9668</v>
+        <v>658.9583</v>
       </c>
       <c r="G6" t="n">
-        <v>9.378066666666662</v>
+        <v>-6799115.528111193</v>
       </c>
       <c r="H6" t="n">
-        <v>9.869716666666672</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.44</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>9.44</v>
+        <v>8.9</v>
       </c>
       <c r="D7" t="n">
-        <v>9.44</v>
+        <v>9.401</v>
       </c>
       <c r="E7" t="n">
-        <v>9.44</v>
+        <v>8.894</v>
       </c>
       <c r="F7" t="n">
-        <v>53</v>
+        <v>1096164.058</v>
       </c>
       <c r="G7" t="n">
-        <v>9.368533333333328</v>
+        <v>-7895279.586111194</v>
       </c>
       <c r="H7" t="n">
-        <v>9.850050000000007</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.472</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9.460000000000001</v>
+        <v>8.926</v>
       </c>
       <c r="D8" t="n">
-        <v>9.472</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>9.460000000000001</v>
+        <v>8.912000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>23866.9874</v>
+        <v>3220231.5663</v>
       </c>
       <c r="G8" t="n">
-        <v>9.377199999999995</v>
+        <v>-4675048.019811193</v>
       </c>
       <c r="H8" t="n">
-        <v>9.82938333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.460000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="C9" t="n">
-        <v>9.460000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="D9" t="n">
-        <v>9.460000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="E9" t="n">
-        <v>9.460000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="F9" t="n">
-        <v>281027.1889</v>
+        <v>965588.9238</v>
       </c>
       <c r="G9" t="n">
-        <v>9.372199999999996</v>
+        <v>-3709459.096011193</v>
       </c>
       <c r="H9" t="n">
-        <v>9.810383333333339</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.449</v>
+        <v>9.08</v>
       </c>
       <c r="C10" t="n">
-        <v>9.369999999999999</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9.49</v>
+        <v>9.08</v>
       </c>
       <c r="E10" t="n">
-        <v>9.369999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>355918.0551</v>
+        <v>1189565.0139</v>
       </c>
       <c r="G10" t="n">
-        <v>9.376866666666663</v>
+        <v>-4899024.109911193</v>
       </c>
       <c r="H10" t="n">
-        <v>9.789883333333339</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.595000000000001</v>
+        <v>9.029</v>
       </c>
       <c r="C11" t="n">
-        <v>9.595000000000001</v>
+        <v>9.209</v>
       </c>
       <c r="D11" t="n">
-        <v>9.595000000000001</v>
+        <v>9.209</v>
       </c>
       <c r="E11" t="n">
-        <v>9.595000000000001</v>
+        <v>9.029</v>
       </c>
       <c r="F11" t="n">
-        <v>53</v>
+        <v>74274.82090000001</v>
       </c>
       <c r="G11" t="n">
-        <v>9.396533333333329</v>
+        <v>-4824749.289011193</v>
       </c>
       <c r="H11" t="n">
-        <v>9.769300000000007</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.481999999999999</v>
+        <v>9.208</v>
       </c>
       <c r="C12" t="n">
-        <v>9.481999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="D12" t="n">
-        <v>9.49</v>
+        <v>9.44</v>
       </c>
       <c r="E12" t="n">
-        <v>9.481999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="F12" t="n">
-        <v>337744.0919</v>
+        <v>1308667.3687</v>
       </c>
       <c r="G12" t="n">
-        <v>9.408599999999996</v>
+        <v>-6133416.657711193</v>
       </c>
       <c r="H12" t="n">
-        <v>9.750500000000006</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.472</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.41</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>9.558</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>9.4</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>396182.1611</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>9.414533333333329</v>
+        <v>-6134416.657711193</v>
       </c>
       <c r="H13" t="n">
-        <v>9.726833333333337</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.390000000000001</v>
+        <v>9.122</v>
       </c>
       <c r="C14" t="n">
-        <v>9.35</v>
+        <v>9.122</v>
       </c>
       <c r="D14" t="n">
-        <v>9.390000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="E14" t="n">
-        <v>9.35</v>
+        <v>9.121</v>
       </c>
       <c r="F14" t="n">
-        <v>780656.0013</v>
+        <v>146017.4126</v>
       </c>
       <c r="G14" t="n">
-        <v>9.416533333333328</v>
+        <v>-6280434.070311193</v>
       </c>
       <c r="H14" t="n">
-        <v>9.705500000000004</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.35</v>
+        <v>9.24</v>
       </c>
       <c r="C15" t="n">
-        <v>9.4</v>
+        <v>9.243</v>
       </c>
       <c r="D15" t="n">
-        <v>9.4</v>
+        <v>9.243</v>
       </c>
       <c r="E15" t="n">
-        <v>9.35</v>
+        <v>9.24</v>
       </c>
       <c r="F15" t="n">
-        <v>113176.5318</v>
+        <v>4654.0812</v>
       </c>
       <c r="G15" t="n">
-        <v>9.421866666666663</v>
+        <v>-6275779.989111193</v>
       </c>
       <c r="H15" t="n">
-        <v>9.685000000000004</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.4</v>
+        <v>9.243</v>
       </c>
       <c r="C16" t="n">
-        <v>9.4</v>
+        <v>9.23</v>
       </c>
       <c r="D16" t="n">
-        <v>9.4</v>
+        <v>9.243</v>
       </c>
       <c r="E16" t="n">
-        <v>9.390000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="F16" t="n">
-        <v>32280.3886</v>
+        <v>37590.5496</v>
       </c>
       <c r="G16" t="n">
-        <v>9.417733333333331</v>
+        <v>-6313370.538711193</v>
       </c>
       <c r="H16" t="n">
-        <v>9.664666666666671</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.4</v>
+        <v>9.244</v>
       </c>
       <c r="C17" t="n">
-        <v>9.443</v>
+        <v>9.381</v>
       </c>
       <c r="D17" t="n">
-        <v>9.443</v>
+        <v>9.381</v>
       </c>
       <c r="E17" t="n">
-        <v>9.4</v>
+        <v>9.23</v>
       </c>
       <c r="F17" t="n">
-        <v>68600.33100000001</v>
+        <v>251764.823</v>
       </c>
       <c r="G17" t="n">
-        <v>9.417266666666666</v>
+        <v>-6061605.715711193</v>
       </c>
       <c r="H17" t="n">
-        <v>9.641716666666669</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.23</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +999,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.443</v>
+        <v>9.381</v>
       </c>
       <c r="C18" t="n">
-        <v>9.443</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>9.443</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>9.443</v>
+        <v>9.381</v>
       </c>
       <c r="F18" t="n">
-        <v>13759.381</v>
+        <v>186517.7178</v>
       </c>
       <c r="G18" t="n">
-        <v>9.422133333333333</v>
+        <v>-5875087.997911193</v>
       </c>
       <c r="H18" t="n">
-        <v>9.620766666666668</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.381</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1040,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.443</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9.536</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>9.536</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>9.443</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>26235.0559</v>
+        <v>8920.7117</v>
       </c>
       <c r="G19" t="n">
-        <v>9.428599999999999</v>
+        <v>-5866167.286211194</v>
       </c>
       <c r="H19" t="n">
-        <v>9.6027</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1081,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.449999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>9.449999999999999</v>
+        <v>9.632</v>
       </c>
       <c r="D20" t="n">
-        <v>9.449999999999999</v>
+        <v>9.632</v>
       </c>
       <c r="E20" t="n">
-        <v>9.449</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>85418.32670000001</v>
+        <v>76344.27439999999</v>
       </c>
       <c r="G20" t="n">
-        <v>9.437266666666666</v>
+        <v>-5942511.560611194</v>
       </c>
       <c r="H20" t="n">
-        <v>9.583200000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1120,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.449999999999999</v>
+        <v>9.654</v>
       </c>
       <c r="C21" t="n">
-        <v>9.449999999999999</v>
+        <v>9.583</v>
       </c>
       <c r="D21" t="n">
-        <v>9.449999999999999</v>
+        <v>9.654</v>
       </c>
       <c r="E21" t="n">
-        <v>9.449999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="F21" t="n">
-        <v>9966.491099999999</v>
+        <v>123044.4117</v>
       </c>
       <c r="G21" t="n">
-        <v>9.445933333333333</v>
+        <v>-6065555.972311194</v>
       </c>
       <c r="H21" t="n">
-        <v>9.563700000000003</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1159,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.449999999999999</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>9.535</v>
+        <v>9.33</v>
       </c>
       <c r="D22" t="n">
-        <v>9.535</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>9.449999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="F22" t="n">
-        <v>115645.4569445412</v>
+        <v>138113.6107</v>
       </c>
       <c r="G22" t="n">
-        <v>9.452266666666667</v>
+        <v>-6203669.583011194</v>
       </c>
       <c r="H22" t="n">
-        <v>9.545950000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1198,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.449999999999999</v>
+        <v>9.535</v>
       </c>
       <c r="C23" t="n">
-        <v>9.449999999999999</v>
+        <v>9.535</v>
       </c>
       <c r="D23" t="n">
-        <v>9.449999999999999</v>
+        <v>9.535</v>
       </c>
       <c r="E23" t="n">
-        <v>9.449999999999999</v>
+        <v>9.535</v>
       </c>
       <c r="F23" t="n">
-        <v>5144.4784</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>9.451599999999997</v>
+        <v>-6203616.583011194</v>
       </c>
       <c r="H23" t="n">
-        <v>9.526783333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1237,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.52</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>9.52</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>9.52</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>9.52</v>
+        <v>9.298999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>50053</v>
+        <v>150706.3308</v>
       </c>
       <c r="G24" t="n">
-        <v>9.455599999999999</v>
+        <v>-6354322.913811194</v>
       </c>
       <c r="H24" t="n">
-        <v>9.50895</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1276,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.523999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>9.523999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>9.523999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>9.523999999999999</v>
+        <v>9.173</v>
       </c>
       <c r="F25" t="n">
-        <v>4180.3261</v>
+        <v>305156.5432</v>
       </c>
       <c r="G25" t="n">
-        <v>9.465866666666665</v>
+        <v>-6354322.913811194</v>
       </c>
       <c r="H25" t="n">
-        <v>9.491183333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1315,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.523</v>
+        <v>9.301</v>
       </c>
       <c r="C26" t="n">
-        <v>9.523</v>
+        <v>9.301</v>
       </c>
       <c r="D26" t="n">
-        <v>9.523</v>
+        <v>9.301</v>
       </c>
       <c r="E26" t="n">
-        <v>9.523</v>
+        <v>9.301</v>
       </c>
       <c r="F26" t="n">
-        <v>13836.7438</v>
+        <v>17269.8485</v>
       </c>
       <c r="G26" t="n">
-        <v>9.461066666666664</v>
+        <v>-6337053.065311193</v>
       </c>
       <c r="H26" t="n">
-        <v>9.474066666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1354,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.513</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>9.411</v>
+        <v>9.321</v>
       </c>
       <c r="D27" t="n">
-        <v>9.513</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>9.411</v>
+        <v>9.321</v>
       </c>
       <c r="F27" t="n">
-        <v>125886.0815</v>
+        <v>124967.3003</v>
       </c>
       <c r="G27" t="n">
-        <v>9.456333333333331</v>
+        <v>-6212085.765011193</v>
       </c>
       <c r="H27" t="n">
-        <v>9.455083333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1393,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.42</v>
+        <v>9.359</v>
       </c>
       <c r="C28" t="n">
-        <v>9.52</v>
+        <v>9.32</v>
       </c>
       <c r="D28" t="n">
-        <v>9.52</v>
+        <v>9.359</v>
       </c>
       <c r="E28" t="n">
-        <v>9.4</v>
+        <v>9.32</v>
       </c>
       <c r="F28" t="n">
-        <v>59632.7767</v>
+        <v>159283.0867</v>
       </c>
       <c r="G28" t="n">
-        <v>9.463666666666665</v>
+        <v>-6371368.851711193</v>
       </c>
       <c r="H28" t="n">
-        <v>9.437916666666668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1432,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.519</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>9.529</v>
+        <v>9.32</v>
       </c>
       <c r="D29" t="n">
-        <v>9.532999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>9.519</v>
+        <v>9.32</v>
       </c>
       <c r="F29" t="n">
-        <v>271178.960741456</v>
+        <v>143368.4596</v>
       </c>
       <c r="G29" t="n">
-        <v>9.475599999999998</v>
+        <v>-6371368.851711193</v>
       </c>
       <c r="H29" t="n">
-        <v>9.41656666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1471,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.526999999999999</v>
+        <v>9.462</v>
       </c>
       <c r="C30" t="n">
-        <v>9.512</v>
+        <v>9.462</v>
       </c>
       <c r="D30" t="n">
-        <v>9.526999999999999</v>
+        <v>9.462</v>
       </c>
       <c r="E30" t="n">
-        <v>9.512</v>
+        <v>9.462</v>
       </c>
       <c r="F30" t="n">
-        <v>62186.2311</v>
+        <v>33950.3005</v>
       </c>
       <c r="G30" t="n">
-        <v>9.483066666666666</v>
+        <v>-6337418.551211193</v>
       </c>
       <c r="H30" t="n">
-        <v>9.399100000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1510,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.512</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>9.423999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>9.512</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>9.423999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>33245.4559</v>
+        <v>3302.3821</v>
       </c>
       <c r="G31" t="n">
-        <v>9.484666666666666</v>
+        <v>-6340720.933311193</v>
       </c>
       <c r="H31" t="n">
-        <v>9.372000000000003</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,40 +1549,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.555</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>9.555</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>9.555</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>9.555</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>23318.741</v>
       </c>
       <c r="G32" t="n">
-        <v>9.492133333333332</v>
+        <v>-6364039.674311194</v>
       </c>
       <c r="H32" t="n">
-        <v>9.36791666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,44 +1588,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.545999999999999</v>
+        <v>9.439</v>
       </c>
       <c r="C33" t="n">
-        <v>9.545999999999999</v>
+        <v>9.439</v>
       </c>
       <c r="D33" t="n">
-        <v>9.545999999999999</v>
+        <v>9.439</v>
       </c>
       <c r="E33" t="n">
-        <v>9.545999999999999</v>
+        <v>9.439</v>
       </c>
       <c r="F33" t="n">
-        <v>1778.4677</v>
+        <v>6843.251</v>
       </c>
       <c r="G33" t="n">
-        <v>9.498999999999997</v>
+        <v>-6357196.423311193</v>
       </c>
       <c r="H33" t="n">
-        <v>9.37701666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,42 +1627,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.545</v>
+        <v>9.439</v>
       </c>
       <c r="C34" t="n">
-        <v>9.548999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="D34" t="n">
-        <v>9.548999999999999</v>
+        <v>9.439</v>
       </c>
       <c r="E34" t="n">
-        <v>9.545</v>
+        <v>9.32</v>
       </c>
       <c r="F34" t="n">
-        <v>117524.517</v>
+        <v>664189.6744</v>
       </c>
       <c r="G34" t="n">
-        <v>9.499866666666664</v>
+        <v>-7021386.097711193</v>
       </c>
       <c r="H34" t="n">
-        <v>9.402833333333337</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,36 +1666,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.548999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="C35" t="n">
-        <v>9.545999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="D35" t="n">
-        <v>9.548999999999999</v>
+        <v>9.439</v>
       </c>
       <c r="E35" t="n">
-        <v>9.545999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="F35" t="n">
-        <v>210016.9039</v>
+        <v>158705.9668</v>
       </c>
       <c r="G35" t="n">
-        <v>9.506266666666665</v>
+        <v>-7021386.097711193</v>
       </c>
       <c r="H35" t="n">
-        <v>9.412066666666671</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,36 +1705,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.545999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="C36" t="n">
-        <v>9.547000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="D36" t="n">
-        <v>9.547000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="E36" t="n">
-        <v>9.545999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="F36" t="n">
-        <v>54846.7997</v>
+        <v>53</v>
       </c>
       <c r="G36" t="n">
-        <v>9.512733333333331</v>
+        <v>-7021333.097711193</v>
       </c>
       <c r="H36" t="n">
-        <v>9.406083333333338</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,36 +1744,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.568</v>
+        <v>9.472</v>
       </c>
       <c r="C37" t="n">
-        <v>9.568</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>9.568</v>
+        <v>9.472</v>
       </c>
       <c r="E37" t="n">
-        <v>9.568</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1738.8353</v>
+        <v>23866.9874</v>
       </c>
       <c r="G37" t="n">
-        <v>9.514933333333333</v>
+        <v>-6997466.110311193</v>
       </c>
       <c r="H37" t="n">
-        <v>9.400566666666672</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,36 +1783,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.568</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>9.568</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>9.568</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>9.568</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>261.1647</v>
+        <v>281027.1889</v>
       </c>
       <c r="G38" t="n">
-        <v>9.5228</v>
+        <v>-6997466.110311193</v>
       </c>
       <c r="H38" t="n">
-        <v>9.411700000000005</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,36 +1822,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.628</v>
+        <v>9.449</v>
       </c>
       <c r="C39" t="n">
-        <v>9.628</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>9.628</v>
+        <v>9.49</v>
       </c>
       <c r="E39" t="n">
-        <v>9.628</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>95.54940000000001</v>
+        <v>355918.0551</v>
       </c>
       <c r="G39" t="n">
-        <v>9.530000000000001</v>
+        <v>-7353384.165411193</v>
       </c>
       <c r="H39" t="n">
-        <v>9.423400000000006</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,36 +1861,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.618</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>9.618</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>9.618</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>9.618</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>83531.96920000001</v>
+        <v>53</v>
       </c>
       <c r="G40" t="n">
-        <v>9.536266666666668</v>
+        <v>-7353331.165411193</v>
       </c>
       <c r="H40" t="n">
-        <v>9.432200000000005</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,36 +1900,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.628</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>9.648</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>9.648</v>
+        <v>9.49</v>
       </c>
       <c r="E41" t="n">
-        <v>9.628</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>80443.45699999999</v>
+        <v>337744.0919</v>
       </c>
       <c r="G41" t="n">
-        <v>9.544600000000001</v>
+        <v>-7691075.257311193</v>
       </c>
       <c r="H41" t="n">
-        <v>9.442383333333339</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,36 +1939,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.648999999999999</v>
+        <v>9.472</v>
       </c>
       <c r="C42" t="n">
-        <v>9.638</v>
+        <v>9.41</v>
       </c>
       <c r="D42" t="n">
-        <v>9.648999999999999</v>
+        <v>9.558</v>
       </c>
       <c r="E42" t="n">
-        <v>9.638</v>
+        <v>9.4</v>
       </c>
       <c r="F42" t="n">
-        <v>36028.8999</v>
+        <v>396182.1611</v>
       </c>
       <c r="G42" t="n">
-        <v>9.559733333333334</v>
+        <v>-8087257.418411193</v>
       </c>
       <c r="H42" t="n">
-        <v>9.44953333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,36 +1978,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.638</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>9.628</v>
+        <v>9.35</v>
       </c>
       <c r="D43" t="n">
-        <v>9.638</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>9.628</v>
+        <v>9.35</v>
       </c>
       <c r="F43" t="n">
-        <v>473964.996</v>
+        <v>780656.0013</v>
       </c>
       <c r="G43" t="n">
-        <v>9.566933333333333</v>
+        <v>-8867913.419711193</v>
       </c>
       <c r="H43" t="n">
-        <v>9.456833333333341</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,36 +2017,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.605</v>
+        <v>9.35</v>
       </c>
       <c r="C44" t="n">
-        <v>9.605</v>
+        <v>9.4</v>
       </c>
       <c r="D44" t="n">
-        <v>9.605</v>
+        <v>9.4</v>
       </c>
       <c r="E44" t="n">
-        <v>9.605</v>
+        <v>9.35</v>
       </c>
       <c r="F44" t="n">
-        <v>27339.3559</v>
+        <v>113176.5318</v>
       </c>
       <c r="G44" t="n">
-        <v>9.571999999999999</v>
+        <v>-8754736.887911193</v>
       </c>
       <c r="H44" t="n">
-        <v>9.464583333333341</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,36 +2056,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.595000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C45" t="n">
-        <v>9.550000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D45" t="n">
-        <v>9.595000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E45" t="n">
-        <v>9.550000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>147875.2533</v>
+        <v>32280.3886</v>
       </c>
       <c r="G45" t="n">
-        <v>9.574533333333333</v>
+        <v>-8754736.887911193</v>
       </c>
       <c r="H45" t="n">
-        <v>9.471716666666675</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,40 +2095,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.550000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C46" t="n">
-        <v>9.550000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="D46" t="n">
-        <v>9.550000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="E46" t="n">
-        <v>9.550000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F46" t="n">
-        <v>94650.84510000001</v>
+        <v>68600.33100000001</v>
       </c>
       <c r="G46" t="n">
-        <v>9.582933333333333</v>
+        <v>-8686136.556911193</v>
       </c>
       <c r="H46" t="n">
-        <v>9.476833333333339</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,44 +2134,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.460000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="C47" t="n">
-        <v>9.456</v>
+        <v>9.443</v>
       </c>
       <c r="D47" t="n">
-        <v>9.460000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="E47" t="n">
-        <v>9.456</v>
+        <v>9.443</v>
       </c>
       <c r="F47" t="n">
-        <v>13113.6028</v>
+        <v>13759.381</v>
       </c>
       <c r="G47" t="n">
-        <v>9.576333333333332</v>
+        <v>-8686136.556911193</v>
       </c>
       <c r="H47" t="n">
-        <v>9.480600000000006</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,44 +2173,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.58</v>
+        <v>9.443</v>
       </c>
       <c r="C48" t="n">
-        <v>9.58</v>
+        <v>9.536</v>
       </c>
       <c r="D48" t="n">
-        <v>9.58</v>
+        <v>9.536</v>
       </c>
       <c r="E48" t="n">
-        <v>9.58</v>
+        <v>9.443</v>
       </c>
       <c r="F48" t="n">
-        <v>53</v>
+        <v>26235.0559</v>
       </c>
       <c r="G48" t="n">
-        <v>9.5786</v>
+        <v>-8659901.501011193</v>
       </c>
       <c r="H48" t="n">
-        <v>9.483916666666675</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,44 +2212,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.550000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>9.550000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>9.550000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>9.550000000000001</v>
+        <v>9.449</v>
       </c>
       <c r="F49" t="n">
-        <v>16913.7115</v>
+        <v>85418.32670000001</v>
       </c>
       <c r="G49" t="n">
-        <v>9.578666666666667</v>
+        <v>-8745319.827711193</v>
       </c>
       <c r="H49" t="n">
-        <v>9.482416666666673</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,44 +2251,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.456</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>9.52</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>9.52</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>9.443</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>151726.4622</v>
+        <v>9966.491099999999</v>
       </c>
       <c r="G50" t="n">
-        <v>9.576933333333335</v>
+        <v>-8745319.827711193</v>
       </c>
       <c r="H50" t="n">
-        <v>9.479833333333341</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,44 +2290,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.52</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9.52</v>
+        <v>9.535</v>
       </c>
       <c r="D51" t="n">
-        <v>9.52</v>
+        <v>9.535</v>
       </c>
       <c r="E51" t="n">
-        <v>9.52</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>19940.3211</v>
+        <v>115645.4569445412</v>
       </c>
       <c r="G51" t="n">
-        <v>9.575133333333335</v>
+        <v>-8629674.370766651</v>
       </c>
       <c r="H51" t="n">
-        <v>9.477966666666674</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="L51" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,44 +2329,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.539999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>9.52</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>9.539999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>9.52</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>47616.5755</v>
+        <v>5144.4784</v>
       </c>
       <c r="G52" t="n">
-        <v>9.571933333333336</v>
+        <v>-8634818.84916665</v>
       </c>
       <c r="H52" t="n">
-        <v>9.476916666666675</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2449,41 +2371,34 @@
         <v>9.52</v>
       </c>
       <c r="C53" t="n">
-        <v>9.529999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="D53" t="n">
-        <v>9.529999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="E53" t="n">
         <v>9.52</v>
       </c>
       <c r="F53" t="n">
-        <v>36304.4114</v>
+        <v>50053</v>
       </c>
       <c r="G53" t="n">
-        <v>9.569400000000002</v>
+        <v>-8584765.84916665</v>
       </c>
       <c r="H53" t="n">
-        <v>9.480250000000007</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="L53" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,44 +2407,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.57</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>9.57</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>9.57</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>9.57</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>53</v>
+        <v>4180.3261</v>
       </c>
       <c r="G54" t="n">
-        <v>9.565533333333333</v>
+        <v>-8580585.523066651</v>
       </c>
       <c r="H54" t="n">
-        <v>9.480833333333342</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="L54" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,44 +2446,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.58</v>
+        <v>9.523</v>
       </c>
       <c r="C55" t="n">
-        <v>9.58</v>
+        <v>9.523</v>
       </c>
       <c r="D55" t="n">
-        <v>9.58</v>
+        <v>9.523</v>
       </c>
       <c r="E55" t="n">
-        <v>9.58</v>
+        <v>9.523</v>
       </c>
       <c r="F55" t="n">
-        <v>53</v>
+        <v>13836.7438</v>
       </c>
       <c r="G55" t="n">
-        <v>9.563000000000001</v>
+        <v>-8594422.26686665</v>
       </c>
       <c r="H55" t="n">
-        <v>9.485500000000009</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,44 +2485,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.58</v>
+        <v>9.513</v>
       </c>
       <c r="C56" t="n">
-        <v>9.627000000000001</v>
+        <v>9.411</v>
       </c>
       <c r="D56" t="n">
-        <v>9.627000000000001</v>
+        <v>9.513</v>
       </c>
       <c r="E56" t="n">
-        <v>9.58</v>
+        <v>9.411</v>
       </c>
       <c r="F56" t="n">
-        <v>249398.2851</v>
+        <v>125886.0815</v>
       </c>
       <c r="G56" t="n">
-        <v>9.561600000000002</v>
+        <v>-8720308.34836665</v>
       </c>
       <c r="H56" t="n">
-        <v>9.490950000000009</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,44 +2524,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.605</v>
+        <v>9.42</v>
       </c>
       <c r="C57" t="n">
-        <v>9.699999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="D57" t="n">
-        <v>9.699999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="E57" t="n">
-        <v>9.605</v>
+        <v>9.4</v>
       </c>
       <c r="F57" t="n">
-        <v>10052</v>
+        <v>59632.7767</v>
       </c>
       <c r="G57" t="n">
-        <v>9.565733333333334</v>
+        <v>-8660675.57166665</v>
       </c>
       <c r="H57" t="n">
-        <v>9.497600000000009</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9.627000000000001</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,45 +2563,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.605</v>
+        <v>9.519</v>
       </c>
       <c r="C58" t="n">
-        <v>9.605</v>
+        <v>9.529</v>
       </c>
       <c r="D58" t="n">
-        <v>9.605</v>
+        <v>9.532999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>9.605</v>
+        <v>9.519</v>
       </c>
       <c r="F58" t="n">
-        <v>99.3266</v>
+        <v>271178.960741456</v>
       </c>
       <c r="G58" t="n">
-        <v>9.564200000000001</v>
+        <v>-8389496.610925194</v>
       </c>
       <c r="H58" t="n">
-        <v>9.502333333333343</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>1.000759162303665</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2722,44 +2602,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.696999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>9.696999999999999</v>
+        <v>9.512</v>
       </c>
       <c r="D59" t="n">
-        <v>9.696999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>9.696999999999999</v>
+        <v>9.512</v>
       </c>
       <c r="F59" t="n">
-        <v>52</v>
+        <v>62186.2311</v>
       </c>
       <c r="G59" t="n">
-        <v>9.570333333333336</v>
+        <v>-8451682.842025194</v>
       </c>
       <c r="H59" t="n">
-        <v>9.508616666666676</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,44 +2641,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.689</v>
+        <v>9.512</v>
       </c>
       <c r="C60" t="n">
-        <v>9.685</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>9.689</v>
+        <v>9.512</v>
       </c>
       <c r="E60" t="n">
-        <v>9.685</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>2620.102</v>
+        <v>33245.4559</v>
       </c>
       <c r="G60" t="n">
-        <v>9.579333333333334</v>
+        <v>-8484928.297925195</v>
       </c>
       <c r="H60" t="n">
-        <v>9.514700000000007</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,42 +2680,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.630000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="C61" t="n">
-        <v>9.616</v>
+        <v>9.555</v>
       </c>
       <c r="D61" t="n">
-        <v>9.630000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="E61" t="n">
-        <v>9.616</v>
+        <v>9.555</v>
       </c>
       <c r="F61" t="n">
-        <v>19531.9692</v>
+        <v>53</v>
       </c>
       <c r="G61" t="n">
-        <v>9.583733333333335</v>
+        <v>-8484875.297925195</v>
       </c>
       <c r="H61" t="n">
-        <v>9.517266666666673</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,44 +2719,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.616</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>9.616</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>9.616</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>9.616</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1750.2633</v>
+        <v>1778.4677</v>
       </c>
       <c r="G62" t="n">
-        <v>9.594400000000002</v>
+        <v>-8486653.765625196</v>
       </c>
       <c r="H62" t="n">
-        <v>9.520033333333339</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,44 +2758,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.616</v>
+        <v>9.545</v>
       </c>
       <c r="C63" t="n">
-        <v>9.616</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>9.616</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>9.616</v>
+        <v>9.545</v>
       </c>
       <c r="F63" t="n">
-        <v>10489.6217</v>
+        <v>117524.517</v>
       </c>
       <c r="G63" t="n">
-        <v>9.596800000000002</v>
+        <v>-8369129.248625196</v>
       </c>
       <c r="H63" t="n">
-        <v>9.524133333333339</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,44 +2797,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.616</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>9.616</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>9.616</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>9.616</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>1272.6458</v>
+        <v>210016.9039</v>
       </c>
       <c r="G64" t="n">
-        <v>9.601200000000002</v>
+        <v>-8579146.152525196</v>
       </c>
       <c r="H64" t="n">
-        <v>9.527083333333339</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,44 +2836,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.611000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>9.616</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>9.616</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>9.541</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>52950.716</v>
+        <v>54846.7997</v>
       </c>
       <c r="G65" t="n">
-        <v>9.6076</v>
+        <v>-8524299.352825196</v>
       </c>
       <c r="H65" t="n">
-        <v>9.532016666666671</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,44 +2875,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.542999999999999</v>
+        <v>9.568</v>
       </c>
       <c r="C66" t="n">
-        <v>9.542999999999999</v>
+        <v>9.568</v>
       </c>
       <c r="D66" t="n">
-        <v>9.542999999999999</v>
+        <v>9.568</v>
       </c>
       <c r="E66" t="n">
-        <v>9.542999999999999</v>
+        <v>9.568</v>
       </c>
       <c r="F66" t="n">
-        <v>1283.9168</v>
+        <v>1738.8353</v>
       </c>
       <c r="G66" t="n">
-        <v>9.609133333333334</v>
+        <v>-8522560.517525196</v>
       </c>
       <c r="H66" t="n">
-        <v>9.535733333333337</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,44 +2914,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.640000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="C67" t="n">
-        <v>9.640000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="D67" t="n">
-        <v>9.640000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="E67" t="n">
-        <v>9.640000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="F67" t="n">
-        <v>1196.7605</v>
+        <v>261.1647</v>
       </c>
       <c r="G67" t="n">
-        <v>9.617133333333332</v>
+        <v>-8522560.517525196</v>
       </c>
       <c r="H67" t="n">
-        <v>9.539066666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,44 +2953,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.640000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="C68" t="n">
-        <v>9.640000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="D68" t="n">
-        <v>9.640000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="E68" t="n">
-        <v>9.640000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="F68" t="n">
-        <v>9150.8145</v>
+        <v>95.54940000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>9.624466666666667</v>
+        <v>-8522464.968125196</v>
       </c>
       <c r="H68" t="n">
-        <v>9.542066666666669</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,44 +2992,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.638999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="C69" t="n">
-        <v>9.638999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="D69" t="n">
-        <v>9.638999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="E69" t="n">
-        <v>9.638999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="F69" t="n">
-        <v>28021.8646</v>
+        <v>83531.96920000001</v>
       </c>
       <c r="G69" t="n">
-        <v>9.629066666666667</v>
+        <v>-8605996.937325196</v>
       </c>
       <c r="H69" t="n">
-        <v>9.545050000000002</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,44 +3031,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.640000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="C70" t="n">
-        <v>9.640000000000001</v>
+        <v>9.648</v>
       </c>
       <c r="D70" t="n">
-        <v>9.640000000000001</v>
+        <v>9.648</v>
       </c>
       <c r="E70" t="n">
-        <v>9.640000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="F70" t="n">
-        <v>55</v>
+        <v>80443.45699999999</v>
       </c>
       <c r="G70" t="n">
-        <v>9.633066666666668</v>
+        <v>-8525553.480325196</v>
       </c>
       <c r="H70" t="n">
-        <v>9.549550000000002</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,45 +3070,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.640000000000001</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>9.640000000000001</v>
+        <v>9.638</v>
       </c>
       <c r="D71" t="n">
-        <v>9.640000000000001</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>9.640000000000001</v>
+        <v>9.638</v>
       </c>
       <c r="F71" t="n">
-        <v>5130.9621</v>
+        <v>36028.8999</v>
       </c>
       <c r="G71" t="n">
-        <v>9.633933333333335</v>
+        <v>-8561582.380225196</v>
       </c>
       <c r="H71" t="n">
-        <v>9.5503</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>0.9888144329896909</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3318,40 +3109,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.65</v>
+        <v>9.638</v>
       </c>
       <c r="C72" t="n">
-        <v>9.65</v>
+        <v>9.628</v>
       </c>
       <c r="D72" t="n">
-        <v>9.65</v>
+        <v>9.638</v>
       </c>
       <c r="E72" t="n">
-        <v>9.65</v>
+        <v>9.628</v>
       </c>
       <c r="F72" t="n">
-        <v>54050.3631</v>
+        <v>473964.996</v>
       </c>
       <c r="G72" t="n">
-        <v>9.630600000000003</v>
+        <v>-9035547.376225196</v>
       </c>
       <c r="H72" t="n">
-        <v>9.553100000000001</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3360,44 +3148,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.683</v>
+        <v>9.605</v>
       </c>
       <c r="C73" t="n">
-        <v>9.683</v>
+        <v>9.605</v>
       </c>
       <c r="D73" t="n">
-        <v>9.683</v>
+        <v>9.605</v>
       </c>
       <c r="E73" t="n">
-        <v>9.683</v>
+        <v>9.605</v>
       </c>
       <c r="F73" t="n">
-        <v>55</v>
+        <v>27339.3559</v>
       </c>
       <c r="G73" t="n">
-        <v>9.635800000000001</v>
+        <v>-9062886.732125197</v>
       </c>
       <c r="H73" t="n">
-        <v>9.557650000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,44 +3187,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.65</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>9.65</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>9.65</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>9.65</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>356.6868</v>
+        <v>147875.2533</v>
       </c>
       <c r="G74" t="n">
-        <v>9.632666666666669</v>
+        <v>-9210761.985425197</v>
       </c>
       <c r="H74" t="n">
-        <v>9.56265</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,40 +3226,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>55</v>
+        <v>94650.84510000001</v>
       </c>
       <c r="G75" t="n">
-        <v>9.632533333333335</v>
+        <v>-9210761.985425197</v>
       </c>
       <c r="H75" t="n">
-        <v>9.567366666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="L75" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,44 +3265,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>9.683</v>
+        <v>9.456</v>
       </c>
       <c r="D76" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>9.683</v>
+        <v>9.456</v>
       </c>
       <c r="F76" t="n">
-        <v>10272.3769</v>
+        <v>13113.6028</v>
       </c>
       <c r="G76" t="n">
-        <v>9.637</v>
+        <v>-9223875.588225197</v>
       </c>
       <c r="H76" t="n">
-        <v>9.572083333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,44 +3304,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.65</v>
+        <v>9.58</v>
       </c>
       <c r="C77" t="n">
-        <v>9.542999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="D77" t="n">
-        <v>9.65</v>
+        <v>9.58</v>
       </c>
       <c r="E77" t="n">
-        <v>9.542999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="F77" t="n">
-        <v>20000</v>
+        <v>53</v>
       </c>
       <c r="G77" t="n">
-        <v>9.632133333333336</v>
+        <v>-9223822.588225197</v>
       </c>
       <c r="H77" t="n">
-        <v>9.57375</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L77" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,44 +3343,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>9.683</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>54.4444</v>
+        <v>16913.7115</v>
       </c>
       <c r="G78" t="n">
-        <v>9.636600000000003</v>
+        <v>-9240736.299725197</v>
       </c>
       <c r="H78" t="n">
-        <v>9.577750000000002</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,44 +3382,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.683</v>
+        <v>9.456</v>
       </c>
       <c r="C79" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="D79" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="E79" t="n">
-        <v>9.683</v>
+        <v>9.443</v>
       </c>
       <c r="F79" t="n">
-        <v>9897.331399999999</v>
+        <v>151726.4622</v>
       </c>
       <c r="G79" t="n">
-        <v>9.641066666666669</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H79" t="n">
-        <v>9.580200000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,44 +3421,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="C80" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="D80" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="E80" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>19940.3211</v>
       </c>
       <c r="G80" t="n">
-        <v>9.645533333333336</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H80" t="n">
-        <v>9.584083333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,44 +3460,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.683</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="D81" t="n">
-        <v>9.683</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="F81" t="n">
-        <v>515.0328</v>
+        <v>47616.5755</v>
       </c>
       <c r="G81" t="n">
-        <v>9.654866666666669</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H81" t="n">
-        <v>9.587966666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,44 +3499,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="C82" t="n">
-        <v>9.683</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>9.683</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>9.683</v>
+        <v>9.52</v>
       </c>
       <c r="F82" t="n">
-        <v>2410.1086</v>
+        <v>36304.4114</v>
       </c>
       <c r="G82" t="n">
-        <v>9.657733333333336</v>
+        <v>-9356158.350525199</v>
       </c>
       <c r="H82" t="n">
-        <v>9.590433333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,44 +3538,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C83" t="n">
-        <v>9.74</v>
+        <v>9.57</v>
       </c>
       <c r="D83" t="n">
-        <v>9.74</v>
+        <v>9.57</v>
       </c>
       <c r="E83" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="F83" t="n">
-        <v>7529.5543</v>
+        <v>53</v>
       </c>
       <c r="G83" t="n">
-        <v>9.664400000000004</v>
+        <v>-9356105.350525199</v>
       </c>
       <c r="H83" t="n">
-        <v>9.595266666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,44 +3577,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.749000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="C84" t="n">
-        <v>9.869</v>
+        <v>9.58</v>
       </c>
       <c r="D84" t="n">
-        <v>9.869</v>
+        <v>9.58</v>
       </c>
       <c r="E84" t="n">
-        <v>9.749000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="F84" t="n">
-        <v>232808.7559</v>
+        <v>53</v>
       </c>
       <c r="G84" t="n">
-        <v>9.679733333333337</v>
+        <v>-9356052.350525199</v>
       </c>
       <c r="H84" t="n">
-        <v>9.601083333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,44 +3616,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.869</v>
+        <v>9.58</v>
       </c>
       <c r="C85" t="n">
-        <v>9.869</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>9.869</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>9.868</v>
+        <v>9.58</v>
       </c>
       <c r="F85" t="n">
-        <v>9873.3254</v>
+        <v>249398.2851</v>
       </c>
       <c r="G85" t="n">
-        <v>9.695000000000004</v>
+        <v>-9106654.065425199</v>
       </c>
       <c r="H85" t="n">
-        <v>9.606833333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,44 +3655,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.868</v>
+        <v>9.605</v>
       </c>
       <c r="C86" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>9.868</v>
+        <v>9.605</v>
       </c>
       <c r="F86" t="n">
-        <v>49907.0929</v>
+        <v>10052</v>
       </c>
       <c r="G86" t="n">
-        <v>9.710266666666671</v>
+        <v>-9096602.065425199</v>
       </c>
       <c r="H86" t="n">
-        <v>9.612600000000002</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,44 +3694,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.869</v>
+        <v>9.605</v>
       </c>
       <c r="C87" t="n">
-        <v>9.869</v>
+        <v>9.605</v>
       </c>
       <c r="D87" t="n">
-        <v>9.869</v>
+        <v>9.605</v>
       </c>
       <c r="E87" t="n">
-        <v>9.869</v>
+        <v>9.605</v>
       </c>
       <c r="F87" t="n">
-        <v>11959.7823</v>
+        <v>99.3266</v>
       </c>
       <c r="G87" t="n">
-        <v>9.724866666666669</v>
+        <v>-9096701.392025199</v>
       </c>
       <c r="H87" t="n">
-        <v>9.620233333333337</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,45 +3733,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.73</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>9.711</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>9.73</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>9.711</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>16939.2127</v>
+        <v>52</v>
       </c>
       <c r="G88" t="n">
-        <v>9.726733333333337</v>
+        <v>-9096649.392025199</v>
       </c>
       <c r="H88" t="n">
-        <v>9.623416666666669</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>1.001321243523316</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4092,40 +3772,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.866</v>
+        <v>9.689</v>
       </c>
       <c r="C89" t="n">
-        <v>9.866</v>
+        <v>9.685</v>
       </c>
       <c r="D89" t="n">
-        <v>9.866</v>
+        <v>9.689</v>
       </c>
       <c r="E89" t="n">
-        <v>9.866</v>
+        <v>9.685</v>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>2620.102</v>
       </c>
       <c r="G89" t="n">
-        <v>9.741133333333336</v>
+        <v>-9099269.494025199</v>
       </c>
       <c r="H89" t="n">
-        <v>9.629033333333336</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,44 +3811,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.855</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9.763</v>
+        <v>9.616</v>
       </c>
       <c r="D90" t="n">
-        <v>9.855</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>9.763</v>
+        <v>9.616</v>
       </c>
       <c r="F90" t="n">
-        <v>112</v>
+        <v>19531.9692</v>
       </c>
       <c r="G90" t="n">
-        <v>9.74646666666667</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H90" t="n">
-        <v>9.633216666666669</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>9.866</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,44 +3850,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.855</v>
+        <v>9.616</v>
       </c>
       <c r="C91" t="n">
-        <v>9.855</v>
+        <v>9.616</v>
       </c>
       <c r="D91" t="n">
-        <v>9.855</v>
+        <v>9.616</v>
       </c>
       <c r="E91" t="n">
-        <v>9.855</v>
+        <v>9.616</v>
       </c>
       <c r="F91" t="n">
-        <v>2809.9759</v>
+        <v>1750.2633</v>
       </c>
       <c r="G91" t="n">
-        <v>9.757933333333337</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H91" t="n">
-        <v>9.640400000000003</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>9.763</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,44 +3889,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.779999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="C92" t="n">
-        <v>9.77</v>
+        <v>9.616</v>
       </c>
       <c r="D92" t="n">
-        <v>9.779999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="E92" t="n">
-        <v>9.77</v>
+        <v>9.616</v>
       </c>
       <c r="F92" t="n">
-        <v>18722.2876</v>
+        <v>10489.6217</v>
       </c>
       <c r="G92" t="n">
-        <v>9.77306666666667</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H92" t="n">
-        <v>9.643983333333336</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,44 +3928,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.779999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="C93" t="n">
-        <v>9.77</v>
+        <v>9.616</v>
       </c>
       <c r="D93" t="n">
-        <v>9.779999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="E93" t="n">
-        <v>9.77</v>
+        <v>9.616</v>
       </c>
       <c r="F93" t="n">
-        <v>53000</v>
+        <v>1272.6458</v>
       </c>
       <c r="G93" t="n">
-        <v>9.778866666666671</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H93" t="n">
-        <v>9.647716666666669</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,44 +3967,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.77</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>9.76</v>
+        <v>9.616</v>
       </c>
       <c r="D94" t="n">
-        <v>9.77</v>
+        <v>9.616</v>
       </c>
       <c r="E94" t="n">
-        <v>9.76</v>
+        <v>9.541</v>
       </c>
       <c r="F94" t="n">
-        <v>7400</v>
+        <v>52950.716</v>
       </c>
       <c r="G94" t="n">
-        <v>9.784000000000004</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H94" t="n">
-        <v>9.651233333333336</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,44 +4006,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.84</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>9.84</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>9.84</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>9.84</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>52.4444</v>
+        <v>1283.9168</v>
       </c>
       <c r="G95" t="n">
-        <v>9.794466666666672</v>
+        <v>-9120085.380025199</v>
       </c>
       <c r="H95" t="n">
-        <v>9.656133333333337</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,44 +4045,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.712</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>9.712</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>100000</v>
+        <v>1196.7605</v>
       </c>
       <c r="G96" t="n">
-        <v>9.794466666666672</v>
+        <v>-9118888.619525198</v>
       </c>
       <c r="H96" t="n">
-        <v>9.658400000000002</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,44 +4084,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>11959.7823</v>
+        <v>9150.8145</v>
       </c>
       <c r="G97" t="n">
-        <v>9.794466666666672</v>
+        <v>-9118888.619525198</v>
       </c>
       <c r="H97" t="n">
-        <v>9.660316666666668</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,44 +4123,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.683</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>9.683</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>9.683</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>9.683</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>47489.9219</v>
+        <v>28021.8646</v>
       </c>
       <c r="G98" t="n">
-        <v>9.790666666666672</v>
+        <v>-9146910.484125199</v>
       </c>
       <c r="H98" t="n">
-        <v>9.662233333333337</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,44 +4162,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>9.789</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>9.789</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>17375.976</v>
+        <v>55</v>
       </c>
       <c r="G99" t="n">
-        <v>9.785333333333337</v>
+        <v>-9146855.484125199</v>
       </c>
       <c r="H99" t="n">
-        <v>9.664916666666668</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,44 +4201,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>9.827999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>9.683</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>51671.43807136752</v>
+        <v>5130.9621</v>
       </c>
       <c r="G100" t="n">
-        <v>9.772933333333336</v>
+        <v>-9146855.484125199</v>
       </c>
       <c r="H100" t="n">
-        <v>9.666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="L100" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,44 +4240,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.827999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="C101" t="n">
-        <v>9.827999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="D101" t="n">
-        <v>9.827999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="E101" t="n">
-        <v>9.827999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="F101" t="n">
-        <v>60</v>
+        <v>54050.3631</v>
       </c>
       <c r="G101" t="n">
-        <v>9.770200000000004</v>
+        <v>-9092805.121025199</v>
       </c>
       <c r="H101" t="n">
-        <v>9.669</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,44 +4279,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.837999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C102" t="n">
-        <v>9.84</v>
+        <v>9.683</v>
       </c>
       <c r="D102" t="n">
-        <v>9.84</v>
+        <v>9.683</v>
       </c>
       <c r="E102" t="n">
-        <v>9.837999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F102" t="n">
-        <v>65186.858</v>
+        <v>55</v>
       </c>
       <c r="G102" t="n">
-        <v>9.768266666666671</v>
+        <v>-9092750.121025199</v>
       </c>
       <c r="H102" t="n">
-        <v>9.672366666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,45 +4318,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.83</v>
+        <v>9.65</v>
       </c>
       <c r="C103" t="n">
-        <v>9.84</v>
+        <v>9.65</v>
       </c>
       <c r="D103" t="n">
-        <v>9.84</v>
+        <v>9.65</v>
       </c>
       <c r="E103" t="n">
-        <v>9.83</v>
+        <v>9.65</v>
       </c>
       <c r="F103" t="n">
-        <v>70920.4546</v>
+        <v>356.6868</v>
       </c>
       <c r="G103" t="n">
-        <v>9.77686666666667</v>
+        <v>-9093106.807825198</v>
       </c>
       <c r="H103" t="n">
-        <v>9.6759</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="L103" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>1.00828390485017</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4778,40 +4357,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.83</v>
+        <v>9.683</v>
       </c>
       <c r="C104" t="n">
-        <v>9.83</v>
+        <v>9.683</v>
       </c>
       <c r="D104" t="n">
-        <v>9.83</v>
+        <v>9.683</v>
       </c>
       <c r="E104" t="n">
-        <v>9.83</v>
+        <v>9.683</v>
       </c>
       <c r="F104" t="n">
-        <v>53940.3925</v>
+        <v>55</v>
       </c>
       <c r="G104" t="n">
-        <v>9.774466666666672</v>
+        <v>-9093051.807825198</v>
       </c>
       <c r="H104" t="n">
-        <v>9.679650000000001</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,44 +4396,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.829000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="C105" t="n">
-        <v>9.83</v>
+        <v>9.683</v>
       </c>
       <c r="D105" t="n">
-        <v>9.83</v>
+        <v>9.683</v>
       </c>
       <c r="E105" t="n">
-        <v>9.829000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="F105" t="n">
-        <v>29105.6424</v>
+        <v>10272.3769</v>
       </c>
       <c r="G105" t="n">
-        <v>9.778933333333338</v>
+        <v>-9093051.807825198</v>
       </c>
       <c r="H105" t="n">
-        <v>9.684316666666668</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,44 +4435,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.85</v>
+        <v>9.65</v>
       </c>
       <c r="C106" t="n">
-        <v>9.848000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>9.858000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="E106" t="n">
-        <v>9.848000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>58962.279</v>
+        <v>20000</v>
       </c>
       <c r="G106" t="n">
-        <v>9.778466666666674</v>
+        <v>-9113051.807825198</v>
       </c>
       <c r="H106" t="n">
-        <v>9.689283333333334</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,44 +4474,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.858000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="C107" t="n">
-        <v>9.858000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="D107" t="n">
-        <v>9.858000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="E107" t="n">
-        <v>9.858000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="F107" t="n">
-        <v>54.4545</v>
+        <v>54.4444</v>
       </c>
       <c r="G107" t="n">
-        <v>9.78433333333334</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H107" t="n">
-        <v>9.695983333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,44 +4513,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.848000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="C108" t="n">
-        <v>9.848000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="D108" t="n">
-        <v>9.848000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="E108" t="n">
-        <v>9.848000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="F108" t="n">
-        <v>17000</v>
+        <v>9897.331399999999</v>
       </c>
       <c r="G108" t="n">
-        <v>9.78953333333334</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H108" t="n">
-        <v>9.700449999999998</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,44 +4552,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.848000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="C109" t="n">
-        <v>9.859</v>
+        <v>9.683</v>
       </c>
       <c r="D109" t="n">
-        <v>9.859</v>
+        <v>9.683</v>
       </c>
       <c r="E109" t="n">
-        <v>9.800000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="F109" t="n">
-        <v>99852.5177</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="n">
-        <v>9.796133333333341</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H109" t="n">
-        <v>9.7056</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,44 +4591,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.800000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="C110" t="n">
-        <v>9.69</v>
+        <v>9.683</v>
       </c>
       <c r="D110" t="n">
-        <v>9.800000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="E110" t="n">
-        <v>9.69</v>
+        <v>9.683</v>
       </c>
       <c r="F110" t="n">
-        <v>10000</v>
+        <v>515.0328</v>
       </c>
       <c r="G110" t="n">
-        <v>9.786133333333341</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H110" t="n">
-        <v>9.708433333333335</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>9.859</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,44 +4630,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.693</v>
+        <v>9.683</v>
       </c>
       <c r="C111" t="n">
-        <v>9.693</v>
+        <v>9.683</v>
       </c>
       <c r="D111" t="n">
-        <v>9.693</v>
+        <v>9.683</v>
       </c>
       <c r="E111" t="n">
-        <v>9.693</v>
+        <v>9.683</v>
       </c>
       <c r="F111" t="n">
-        <v>1676</v>
+        <v>2410.1086</v>
       </c>
       <c r="G111" t="n">
-        <v>9.786800000000008</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H111" t="n">
-        <v>9.711316666666669</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,44 +4669,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.858000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>9.858000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="D112" t="n">
-        <v>9.858000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="E112" t="n">
-        <v>9.858000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>54.4545</v>
+        <v>7529.5543</v>
       </c>
       <c r="G112" t="n">
-        <v>9.798466666666677</v>
+        <v>-9105467.809125198</v>
       </c>
       <c r="H112" t="n">
-        <v>9.716950000000001</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,44 +4708,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.858000000000001</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>9.858000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="D113" t="n">
-        <v>9.858000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="E113" t="n">
-        <v>9.858000000000001</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>1621.5455</v>
+        <v>232808.7559</v>
       </c>
       <c r="G113" t="n">
-        <v>9.810133333333344</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H113" t="n">
-        <v>9.722416666666668</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,44 +4747,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.859999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="C114" t="n">
-        <v>9.858000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="D114" t="n">
-        <v>9.859999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="E114" t="n">
-        <v>9.858000000000001</v>
+        <v>9.868</v>
       </c>
       <c r="F114" t="n">
-        <v>11137.1566</v>
+        <v>9873.3254</v>
       </c>
       <c r="G114" t="n">
-        <v>9.814733333333345</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H114" t="n">
-        <v>9.727216666666665</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,44 +4786,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.858000000000001</v>
+        <v>9.868</v>
       </c>
       <c r="C115" t="n">
-        <v>9.721</v>
+        <v>9.869</v>
       </c>
       <c r="D115" t="n">
-        <v>9.858000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="E115" t="n">
-        <v>9.721</v>
+        <v>9.868</v>
       </c>
       <c r="F115" t="n">
-        <v>7390</v>
+        <v>49907.0929</v>
       </c>
       <c r="G115" t="n">
-        <v>9.817266666666679</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H115" t="n">
-        <v>9.729566666666665</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,45 +4825,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.698</v>
+        <v>9.869</v>
       </c>
       <c r="C116" t="n">
-        <v>9.698</v>
+        <v>9.869</v>
       </c>
       <c r="D116" t="n">
-        <v>9.698</v>
+        <v>9.869</v>
       </c>
       <c r="E116" t="n">
-        <v>9.698</v>
+        <v>9.869</v>
       </c>
       <c r="F116" t="n">
-        <v>50815.5338</v>
+        <v>11959.7823</v>
       </c>
       <c r="G116" t="n">
-        <v>9.808600000000013</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H116" t="n">
-        <v>9.730749999999999</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>0.9805691056910569</v>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -5372,44 +4864,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.698</v>
+        <v>9.73</v>
       </c>
       <c r="C117" t="n">
         <v>9.711</v>
       </c>
       <c r="D117" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E117" t="n">
         <v>9.711</v>
       </c>
-      <c r="E117" t="n">
-        <v>9.698</v>
-      </c>
       <c r="F117" t="n">
-        <v>186878.9427</v>
+        <v>16939.2127</v>
       </c>
       <c r="G117" t="n">
-        <v>9.800000000000013</v>
+        <v>-8889598.265925199</v>
       </c>
       <c r="H117" t="n">
-        <v>9.730933333333331</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="L117" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,44 +4903,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.711</v>
+        <v>9.866</v>
       </c>
       <c r="C118" t="n">
-        <v>9.683</v>
+        <v>9.866</v>
       </c>
       <c r="D118" t="n">
-        <v>9.711</v>
+        <v>9.866</v>
       </c>
       <c r="E118" t="n">
-        <v>9.683</v>
+        <v>9.866</v>
       </c>
       <c r="F118" t="n">
-        <v>242767.4348</v>
+        <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>9.789533333333345</v>
+        <v>-8889538.265925199</v>
       </c>
       <c r="H118" t="n">
-        <v>9.732233333333332</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,44 +4942,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.711</v>
+        <v>9.855</v>
       </c>
       <c r="C119" t="n">
-        <v>9.711</v>
+        <v>9.763</v>
       </c>
       <c r="D119" t="n">
-        <v>9.711</v>
+        <v>9.855</v>
       </c>
       <c r="E119" t="n">
-        <v>9.711</v>
+        <v>9.763</v>
       </c>
       <c r="F119" t="n">
-        <v>14029.7675</v>
+        <v>112</v>
       </c>
       <c r="G119" t="n">
-        <v>9.781600000000013</v>
+        <v>-8889650.265925199</v>
       </c>
       <c r="H119" t="n">
-        <v>9.732466666666664</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,44 +4981,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.711</v>
+        <v>9.855</v>
       </c>
       <c r="C120" t="n">
-        <v>9.711</v>
+        <v>9.855</v>
       </c>
       <c r="D120" t="n">
-        <v>9.711</v>
+        <v>9.855</v>
       </c>
       <c r="E120" t="n">
-        <v>9.683999999999999</v>
+        <v>9.855</v>
       </c>
       <c r="F120" t="n">
-        <v>15112</v>
+        <v>2809.9759</v>
       </c>
       <c r="G120" t="n">
-        <v>9.77366666666668</v>
+        <v>-8886840.290025199</v>
       </c>
       <c r="H120" t="n">
-        <v>9.732899999999999</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5556,44 +5020,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.711</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>9.711</v>
+        <v>9.77</v>
       </c>
       <c r="D121" t="n">
-        <v>9.711</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>9.711</v>
+        <v>9.77</v>
       </c>
       <c r="F121" t="n">
-        <v>34234.7078</v>
+        <v>18722.2876</v>
       </c>
       <c r="G121" t="n">
-        <v>9.764533333333345</v>
+        <v>-8905562.577625198</v>
       </c>
       <c r="H121" t="n">
-        <v>9.734483333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,44 +5059,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.711</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>9.711</v>
+        <v>9.77</v>
       </c>
       <c r="D122" t="n">
-        <v>9.711</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>9.711</v>
+        <v>9.77</v>
       </c>
       <c r="F122" t="n">
-        <v>1714.6391</v>
+        <v>53000</v>
       </c>
       <c r="G122" t="n">
-        <v>9.754733333333347</v>
+        <v>-8905562.577625198</v>
       </c>
       <c r="H122" t="n">
-        <v>9.736066666666666</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,44 +5098,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.711</v>
+        <v>9.77</v>
       </c>
       <c r="C123" t="n">
-        <v>9.683999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="D123" t="n">
-        <v>9.711</v>
+        <v>9.77</v>
       </c>
       <c r="E123" t="n">
-        <v>9.683999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="F123" t="n">
-        <v>13479.1316</v>
+        <v>7400</v>
       </c>
       <c r="G123" t="n">
-        <v>9.743800000000013</v>
+        <v>-8912962.577625198</v>
       </c>
       <c r="H123" t="n">
-        <v>9.7372</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,44 +5137,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.683999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="C124" t="n">
-        <v>9.683999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D124" t="n">
-        <v>9.683999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="E124" t="n">
-        <v>9.683999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="F124" t="n">
-        <v>6283.783</v>
+        <v>52.4444</v>
       </c>
       <c r="G124" t="n">
-        <v>9.732133333333344</v>
+        <v>-8912910.133225199</v>
       </c>
       <c r="H124" t="n">
-        <v>9.738333333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,44 +5176,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.683999999999999</v>
+        <v>9.712</v>
       </c>
       <c r="C125" t="n">
         <v>9.683</v>
       </c>
       <c r="D125" t="n">
-        <v>9.683999999999999</v>
+        <v>9.712</v>
       </c>
       <c r="E125" t="n">
         <v>9.683</v>
       </c>
       <c r="F125" t="n">
-        <v>20865.6851</v>
+        <v>100000</v>
       </c>
       <c r="G125" t="n">
-        <v>9.731666666666678</v>
+        <v>-9012910.133225199</v>
       </c>
       <c r="H125" t="n">
-        <v>9.73945</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,44 +5215,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C126" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D126" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="E126" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F126" t="n">
-        <v>3000</v>
+        <v>11959.7823</v>
       </c>
       <c r="G126" t="n">
-        <v>9.732133333333342</v>
+        <v>-9012910.133225199</v>
       </c>
       <c r="H126" t="n">
-        <v>9.742066666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,44 +5254,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C127" t="n">
-        <v>9.683999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D127" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="E127" t="n">
-        <v>9.683999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F127" t="n">
-        <v>120</v>
+        <v>47489.9219</v>
       </c>
       <c r="G127" t="n">
-        <v>9.720533333333343</v>
+        <v>-9012910.133225199</v>
       </c>
       <c r="H127" t="n">
-        <v>9.742799999999999</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L127" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,45 +5293,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C128" t="n">
-        <v>9.699999999999999</v>
+        <v>9.789</v>
       </c>
       <c r="D128" t="n">
-        <v>9.699999999999999</v>
+        <v>9.789</v>
       </c>
       <c r="E128" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F128" t="n">
-        <v>51</v>
+        <v>17375.976</v>
       </c>
       <c r="G128" t="n">
-        <v>9.710000000000008</v>
+        <v>-8995534.157225199</v>
       </c>
       <c r="H128" t="n">
-        <v>9.7438</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
-        <v>0.9928397284230016</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5924,40 +5332,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C129" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D129" t="n">
-        <v>9.699999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F129" t="n">
-        <v>247.835</v>
+        <v>51671.43807136752</v>
       </c>
       <c r="G129" t="n">
-        <v>9.699466666666673</v>
+        <v>-9047205.595296567</v>
       </c>
       <c r="H129" t="n">
-        <v>9.744816666666669</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L129" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,44 +5371,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.699999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>9.67</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>9.699999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>9.67</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>42101.1107</v>
+        <v>60</v>
       </c>
       <c r="G130" t="n">
-        <v>9.696066666666672</v>
+        <v>-9047145.595296567</v>
       </c>
       <c r="H130" t="n">
-        <v>9.745316666666668</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L130" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,44 +5410,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9.67</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>9.680999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D131" t="n">
-        <v>9.711</v>
+        <v>9.84</v>
       </c>
       <c r="E131" t="n">
-        <v>9.67</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>766017.7756000001</v>
+        <v>65186.858</v>
       </c>
       <c r="G131" t="n">
-        <v>9.69493333333334</v>
+        <v>-8981958.737296568</v>
       </c>
       <c r="H131" t="n">
-        <v>9.746000000000002</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="L131" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,44 +5449,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9.680999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="C132" t="n">
-        <v>9.680999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D132" t="n">
-        <v>9.680999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="E132" t="n">
-        <v>9.680999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="F132" t="n">
-        <v>52897.2745</v>
+        <v>70920.4546</v>
       </c>
       <c r="G132" t="n">
-        <v>9.69293333333334</v>
+        <v>-8981958.737296568</v>
       </c>
       <c r="H132" t="n">
-        <v>9.74651666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="L132" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,44 +5488,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9.69</v>
+        <v>9.83</v>
       </c>
       <c r="C133" t="n">
-        <v>9.69</v>
+        <v>9.83</v>
       </c>
       <c r="D133" t="n">
-        <v>9.69</v>
+        <v>9.83</v>
       </c>
       <c r="E133" t="n">
-        <v>9.69</v>
+        <v>9.83</v>
       </c>
       <c r="F133" t="n">
-        <v>10000</v>
+        <v>53940.3925</v>
       </c>
       <c r="G133" t="n">
-        <v>9.693400000000006</v>
+        <v>-9035899.129796568</v>
       </c>
       <c r="H133" t="n">
-        <v>9.746633333333337</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="L133" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,44 +5527,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9.849</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>9.849</v>
+        <v>9.83</v>
       </c>
       <c r="D134" t="n">
-        <v>9.849</v>
+        <v>9.83</v>
       </c>
       <c r="E134" t="n">
-        <v>9.849</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>51</v>
+        <v>29105.6424</v>
       </c>
       <c r="G134" t="n">
-        <v>9.702600000000006</v>
+        <v>-9035899.129796568</v>
       </c>
       <c r="H134" t="n">
-        <v>9.749950000000005</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="L134" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6196,44 +5566,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9.711</v>
+        <v>9.85</v>
       </c>
       <c r="C135" t="n">
-        <v>9.711</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>9.711</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>9.711</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>10000</v>
+        <v>58962.279</v>
       </c>
       <c r="G135" t="n">
-        <v>9.702600000000006</v>
+        <v>-8976936.850796569</v>
       </c>
       <c r="H135" t="n">
-        <v>9.750416666666672</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="L135" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,44 +5605,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>9.848000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>51</v>
+        <v>54.4545</v>
       </c>
       <c r="G136" t="n">
-        <v>9.711733333333338</v>
+        <v>-8976882.396296568</v>
       </c>
       <c r="H136" t="n">
-        <v>9.753166666666671</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="L136" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,30 +5656,25 @@
         <v>9.848000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>16597.444</v>
+        <v>17000</v>
       </c>
       <c r="G137" t="n">
-        <v>9.720866666666671</v>
+        <v>-8993882.396296568</v>
       </c>
       <c r="H137" t="n">
-        <v>9.758250000000004</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6332,42 +5683,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.85</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>9.85</v>
+        <v>9.859</v>
       </c>
       <c r="D138" t="n">
-        <v>9.85</v>
+        <v>9.859</v>
       </c>
       <c r="E138" t="n">
-        <v>9.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>44659.6736</v>
+        <v>99852.5177</v>
       </c>
       <c r="G138" t="n">
-        <v>9.731933333333338</v>
+        <v>-8894029.878596568</v>
       </c>
       <c r="H138" t="n">
-        <v>9.761033333333337</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,42 +5722,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.848000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>9.848000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="D139" t="n">
-        <v>9.848000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>9.848000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="F139" t="n">
-        <v>110737.6284</v>
+        <v>10000</v>
       </c>
       <c r="G139" t="n">
-        <v>9.742866666666673</v>
+        <v>-8904029.878596568</v>
       </c>
       <c r="H139" t="n">
-        <v>9.763783333333338</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6420,42 +5761,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.855</v>
+        <v>9.693</v>
       </c>
       <c r="C140" t="n">
-        <v>9.855</v>
+        <v>9.693</v>
       </c>
       <c r="D140" t="n">
-        <v>9.855</v>
+        <v>9.693</v>
       </c>
       <c r="E140" t="n">
-        <v>9.855</v>
+        <v>9.693</v>
       </c>
       <c r="F140" t="n">
-        <v>51</v>
+        <v>1676</v>
       </c>
       <c r="G140" t="n">
-        <v>9.754333333333339</v>
+        <v>-8902353.878596568</v>
       </c>
       <c r="H140" t="n">
-        <v>9.766650000000004</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,45 +5800,1169 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>54.4545</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-8902299.424096568</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1621.5455</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-8902299.424096568</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11137.1566</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-8902299.424096568</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7390</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-8909689.424096568</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50815.5338</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-8960504.957896568</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="F146" t="n">
+        <v>186878.9427</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-8773626.015196567</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F147" t="n">
+        <v>242767.4348</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-9016393.449996568</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F148" t="n">
+        <v>14029.7675</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15112</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F150" t="n">
+        <v>34234.7078</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1714.6391</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>13479.1316</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-9015842.814096568</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6283.783</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-9015842.814096568</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20865.6851</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-9036708.499196569</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-9033708.499196569</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>120</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-9033828.499196569</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>51</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-9033777.499196569</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>247.835</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-9033777.499196569</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F159" t="n">
+        <v>42101.1107</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-9075878.609896569</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F160" t="n">
+        <v>766017.7756000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-8309860.834296568</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>52897.2745</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-8309860.834296568</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-8299860.834296568</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="F163" t="n">
+        <v>51</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-8299809.834296568</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-8309809.834296568</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>51</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-8309758.834296568</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>16597.444</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-8309758.834296568</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>9.85</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C167" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F167" t="n">
+        <v>44659.6736</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-8265099.160696568</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>110737.6284</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-8375836.789096568</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>9.855</v>
       </c>
-      <c r="D141" t="n">
+      <c r="C169" t="n">
         <v>9.855</v>
       </c>
-      <c r="E141" t="n">
+      <c r="D169" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F169" t="n">
+        <v>51</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-8375785.789096568</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>9.85</v>
       </c>
-      <c r="F141" t="n">
+      <c r="C170" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F170" t="n">
         <v>42217.7451</v>
       </c>
-      <c r="G141" t="n">
-        <v>9.764666666666672</v>
-      </c>
-      <c r="H141" t="n">
-        <v>9.769516666666672</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="L141" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
-        <v>1.010979381443299</v>
+      <c r="G170" t="n">
+        <v>-8375785.789096568</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="D2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E2" t="n">
-        <v>8.99</v>
+        <v>9.35</v>
       </c>
       <c r="F2" t="n">
-        <v>2469350.3565</v>
+        <v>113176.5318</v>
       </c>
       <c r="G2" t="n">
-        <v>-329168.695211194</v>
+        <v>-8754736.887911193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="D3" t="n">
-        <v>9.890000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>7648810.117</v>
+        <v>32280.3886</v>
       </c>
       <c r="G3" t="n">
-        <v>-7977978.812211193</v>
+        <v>-8754736.887911193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.02</v>
+        <v>9.4</v>
       </c>
       <c r="C4" t="n">
-        <v>8.992000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="D4" t="n">
-        <v>8.999000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="F4" t="n">
-        <v>930760.7343</v>
+        <v>68600.33100000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-7047218.077911193</v>
+        <v>-8686136.556911193</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.992000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="C5" t="n">
-        <v>9.906000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="D5" t="n">
-        <v>9.906000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="E5" t="n">
-        <v>8.992000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="F5" t="n">
-        <v>248761.5081</v>
+        <v>13759.381</v>
       </c>
       <c r="G5" t="n">
-        <v>-6798456.569811193</v>
+        <v>-8686136.556911193</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.898999999999999</v>
+        <v>9.443</v>
       </c>
       <c r="C6" t="n">
-        <v>9.898999999999999</v>
+        <v>9.536</v>
       </c>
       <c r="D6" t="n">
-        <v>9.898999999999999</v>
+        <v>9.536</v>
       </c>
       <c r="E6" t="n">
-        <v>9.898999999999999</v>
+        <v>9.443</v>
       </c>
       <c r="F6" t="n">
-        <v>658.9583</v>
+        <v>26235.0559</v>
       </c>
       <c r="G6" t="n">
-        <v>-6799115.528111193</v>
+        <v>-8659901.501011193</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.390000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>8.9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.401</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>8.894</v>
+        <v>9.449</v>
       </c>
       <c r="F7" t="n">
-        <v>1096164.058</v>
+        <v>85418.32670000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-7895279.586111194</v>
+        <v>-8745319.827711193</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.926</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.912000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>3220231.5663</v>
+        <v>9966.491099999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-4675048.019811193</v>
+        <v>-8745319.827711193</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.99</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>9.09</v>
+        <v>9.535</v>
       </c>
       <c r="D9" t="n">
-        <v>9.24</v>
+        <v>9.535</v>
       </c>
       <c r="E9" t="n">
-        <v>8.99</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>965588.9238</v>
+        <v>115645.4569445412</v>
       </c>
       <c r="G9" t="n">
-        <v>-3709459.096011193</v>
+        <v>-8629674.370766651</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.08</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.037000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.08</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1189565.0139</v>
+        <v>5144.4784</v>
       </c>
       <c r="G10" t="n">
-        <v>-4899024.109911193</v>
+        <v>-8634818.84916665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.029</v>
+        <v>9.52</v>
       </c>
       <c r="C11" t="n">
-        <v>9.209</v>
+        <v>9.52</v>
       </c>
       <c r="D11" t="n">
-        <v>9.209</v>
+        <v>9.52</v>
       </c>
       <c r="E11" t="n">
-        <v>9.029</v>
+        <v>9.52</v>
       </c>
       <c r="F11" t="n">
-        <v>74274.82090000001</v>
+        <v>50053</v>
       </c>
       <c r="G11" t="n">
-        <v>-4824749.289011193</v>
+        <v>-8584765.84916665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.208</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.19</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>9.44</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>9.19</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1308667.3687</v>
+        <v>4180.3261</v>
       </c>
       <c r="G12" t="n">
-        <v>-6133416.657711193</v>
+        <v>-8580585.523066651</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.140000000000001</v>
+        <v>9.523</v>
       </c>
       <c r="C13" t="n">
-        <v>9.140000000000001</v>
+        <v>9.523</v>
       </c>
       <c r="D13" t="n">
-        <v>9.140000000000001</v>
+        <v>9.523</v>
       </c>
       <c r="E13" t="n">
-        <v>9.140000000000001</v>
+        <v>9.523</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>13836.7438</v>
       </c>
       <c r="G13" t="n">
-        <v>-6134416.657711193</v>
+        <v>-8594422.26686665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.122</v>
+        <v>9.513</v>
       </c>
       <c r="C14" t="n">
-        <v>9.122</v>
+        <v>9.411</v>
       </c>
       <c r="D14" t="n">
-        <v>9.19</v>
+        <v>9.513</v>
       </c>
       <c r="E14" t="n">
-        <v>9.121</v>
+        <v>9.411</v>
       </c>
       <c r="F14" t="n">
-        <v>146017.4126</v>
+        <v>125886.0815</v>
       </c>
       <c r="G14" t="n">
-        <v>-6280434.070311193</v>
+        <v>-8720308.34836665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.24</v>
+        <v>9.42</v>
       </c>
       <c r="C15" t="n">
-        <v>9.243</v>
+        <v>9.52</v>
       </c>
       <c r="D15" t="n">
-        <v>9.243</v>
+        <v>9.52</v>
       </c>
       <c r="E15" t="n">
-        <v>9.24</v>
+        <v>9.4</v>
       </c>
       <c r="F15" t="n">
-        <v>4654.0812</v>
+        <v>59632.7767</v>
       </c>
       <c r="G15" t="n">
-        <v>-6275779.989111193</v>
+        <v>-8660675.57166665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.243</v>
+        <v>9.519</v>
       </c>
       <c r="C16" t="n">
-        <v>9.23</v>
+        <v>9.529</v>
       </c>
       <c r="D16" t="n">
-        <v>9.243</v>
+        <v>9.532999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9.23</v>
+        <v>9.519</v>
       </c>
       <c r="F16" t="n">
-        <v>37590.5496</v>
+        <v>271178.960741456</v>
       </c>
       <c r="G16" t="n">
-        <v>-6313370.538711193</v>
+        <v>-8389496.610925194</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,268 +971,245 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.244</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9.381</v>
+        <v>9.512</v>
       </c>
       <c r="D17" t="n">
-        <v>9.381</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>9.23</v>
+        <v>9.512</v>
       </c>
       <c r="F17" t="n">
-        <v>251764.823</v>
+        <v>62186.2311</v>
       </c>
       <c r="G17" t="n">
-        <v>-6061605.715711193</v>
+        <v>-8451682.842025194</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9.23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.381</v>
+        <v>9.512</v>
       </c>
       <c r="C18" t="n">
-        <v>9.640000000000001</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>9.779999999999999</v>
+        <v>9.512</v>
       </c>
       <c r="E18" t="n">
-        <v>9.381</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>186517.7178</v>
+        <v>33245.4559</v>
       </c>
       <c r="G18" t="n">
-        <v>-5875087.997911193</v>
+        <v>-8484928.297925195</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.381</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.771000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="C19" t="n">
-        <v>9.675000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="D19" t="n">
-        <v>9.771000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="E19" t="n">
-        <v>9.675000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="F19" t="n">
-        <v>8920.7117</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>-5866167.286211194</v>
+        <v>-8484875.297925195</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9.640000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.369999999999999</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>9.632</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>9.632</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>9.369999999999999</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>76344.27439999999</v>
+        <v>1778.4677</v>
       </c>
       <c r="G20" t="n">
-        <v>-5942511.560611194</v>
+        <v>-8486653.765625196</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.654</v>
+        <v>9.545</v>
       </c>
       <c r="C21" t="n">
-        <v>9.583</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>9.654</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>9.32</v>
+        <v>9.545</v>
       </c>
       <c r="F21" t="n">
-        <v>123044.4117</v>
+        <v>117524.517</v>
       </c>
       <c r="G21" t="n">
-        <v>-6065555.972311194</v>
+        <v>-8369129.248625196</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.444000000000001</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>9.33</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>9.444000000000001</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>9.33</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>138113.6107</v>
+        <v>210016.9039</v>
       </c>
       <c r="G22" t="n">
-        <v>-6203669.583011194</v>
+        <v>-8579146.152525196</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.535</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>9.535</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>9.535</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>9.535</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>53</v>
+        <v>54846.7997</v>
       </c>
       <c r="G23" t="n">
-        <v>-6203616.583011194</v>
+        <v>-8524299.352825196</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1223,75 +1219,69 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.332000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="C24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="D24" t="n">
-        <v>9.332000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="E24" t="n">
-        <v>9.298999999999999</v>
+        <v>9.568</v>
       </c>
       <c r="F24" t="n">
-        <v>150706.3308</v>
+        <v>1738.8353</v>
       </c>
       <c r="G24" t="n">
-        <v>-6354322.913811194</v>
+        <v>-8522560.517525196</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="C25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="D25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="E25" t="n">
-        <v>9.173</v>
+        <v>9.568</v>
       </c>
       <c r="F25" t="n">
-        <v>305156.5432</v>
+        <v>261.1647</v>
       </c>
       <c r="G25" t="n">
-        <v>-6354322.913811194</v>
+        <v>-8522560.517525196</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1301,36 +1291,33 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.301</v>
+        <v>9.628</v>
       </c>
       <c r="C26" t="n">
-        <v>9.301</v>
+        <v>9.628</v>
       </c>
       <c r="D26" t="n">
-        <v>9.301</v>
+        <v>9.628</v>
       </c>
       <c r="E26" t="n">
-        <v>9.301</v>
+        <v>9.628</v>
       </c>
       <c r="F26" t="n">
-        <v>17269.8485</v>
+        <v>95.54940000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-6337053.065311193</v>
+        <v>-8522464.968125196</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1340,36 +1327,33 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.468999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="C27" t="n">
-        <v>9.321</v>
+        <v>9.618</v>
       </c>
       <c r="D27" t="n">
-        <v>9.468999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="E27" t="n">
-        <v>9.321</v>
+        <v>9.618</v>
       </c>
       <c r="F27" t="n">
-        <v>124967.3003</v>
+        <v>83531.96920000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-6212085.765011193</v>
+        <v>-8605996.937325196</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1379,231 +1363,213 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.359</v>
+        <v>9.628</v>
       </c>
       <c r="C28" t="n">
-        <v>9.32</v>
+        <v>9.648</v>
       </c>
       <c r="D28" t="n">
-        <v>9.359</v>
+        <v>9.648</v>
       </c>
       <c r="E28" t="n">
-        <v>9.32</v>
+        <v>9.628</v>
       </c>
       <c r="F28" t="n">
-        <v>159283.0867</v>
+        <v>80443.45699999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-6371368.851711193</v>
+        <v>-8525553.480325196</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.359999999999999</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>9.32</v>
+        <v>9.638</v>
       </c>
       <c r="D29" t="n">
-        <v>9.359999999999999</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>9.32</v>
+        <v>9.638</v>
       </c>
       <c r="F29" t="n">
-        <v>143368.4596</v>
+        <v>36028.8999</v>
       </c>
       <c r="G29" t="n">
-        <v>-6371368.851711193</v>
+        <v>-8561582.380225196</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.462</v>
+        <v>9.638</v>
       </c>
       <c r="C30" t="n">
-        <v>9.462</v>
+        <v>9.628</v>
       </c>
       <c r="D30" t="n">
-        <v>9.462</v>
+        <v>9.638</v>
       </c>
       <c r="E30" t="n">
-        <v>9.462</v>
+        <v>9.628</v>
       </c>
       <c r="F30" t="n">
-        <v>33950.3005</v>
+        <v>473964.996</v>
       </c>
       <c r="G30" t="n">
-        <v>-6337418.551211193</v>
+        <v>-9035547.376225196</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.449999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="C31" t="n">
-        <v>9.449999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="D31" t="n">
-        <v>9.449999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="E31" t="n">
-        <v>9.449999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="F31" t="n">
-        <v>3302.3821</v>
+        <v>27339.3559</v>
       </c>
       <c r="G31" t="n">
-        <v>-6340720.933311193</v>
+        <v>-9062886.732125197</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.369999999999999</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>9.369999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>9.369999999999999</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>9.369999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>23318.741</v>
+        <v>147875.2533</v>
       </c>
       <c r="G32" t="n">
-        <v>-6364039.674311194</v>
+        <v>-9210761.985425197</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.439</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>9.439</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>9.439</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>9.439</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>6843.251</v>
+        <v>94650.84510000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-6357196.423311193</v>
+        <v>-9210761.985425197</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1613,75 +1579,69 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.439</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>9.32</v>
+        <v>9.456</v>
       </c>
       <c r="D34" t="n">
-        <v>9.439</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>9.32</v>
+        <v>9.456</v>
       </c>
       <c r="F34" t="n">
-        <v>664189.6744</v>
+        <v>13113.6028</v>
       </c>
       <c r="G34" t="n">
-        <v>-7021386.097711193</v>
+        <v>-9223875.588225197</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.32</v>
+        <v>9.58</v>
       </c>
       <c r="C35" t="n">
-        <v>9.32</v>
+        <v>9.58</v>
       </c>
       <c r="D35" t="n">
-        <v>9.439</v>
+        <v>9.58</v>
       </c>
       <c r="E35" t="n">
-        <v>9.32</v>
+        <v>9.58</v>
       </c>
       <c r="F35" t="n">
-        <v>158705.9668</v>
+        <v>53</v>
       </c>
       <c r="G35" t="n">
-        <v>-7021386.097711193</v>
+        <v>-9223822.588225197</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1691,36 +1651,33 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.44</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>9.44</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>9.44</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>9.44</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>53</v>
+        <v>16913.7115</v>
       </c>
       <c r="G36" t="n">
-        <v>-7021333.097711193</v>
+        <v>-9240736.299725197</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1730,36 +1687,33 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.472</v>
+        <v>9.456</v>
       </c>
       <c r="C37" t="n">
-        <v>9.460000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="D37" t="n">
-        <v>9.472</v>
+        <v>9.52</v>
       </c>
       <c r="E37" t="n">
-        <v>9.460000000000001</v>
+        <v>9.443</v>
       </c>
       <c r="F37" t="n">
-        <v>23866.9874</v>
+        <v>151726.4622</v>
       </c>
       <c r="G37" t="n">
-        <v>-6997466.110311193</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1769,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.460000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="C38" t="n">
-        <v>9.460000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="D38" t="n">
-        <v>9.460000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="E38" t="n">
-        <v>9.460000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="F38" t="n">
-        <v>281027.1889</v>
+        <v>19940.3211</v>
       </c>
       <c r="G38" t="n">
-        <v>-6997466.110311193</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1808,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.449</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>9.369999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="D39" t="n">
-        <v>9.49</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>9.369999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="F39" t="n">
-        <v>355918.0551</v>
+        <v>47616.5755</v>
       </c>
       <c r="G39" t="n">
-        <v>-7353384.165411193</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1847,36 +1795,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.595000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="C40" t="n">
-        <v>9.595000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>9.595000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>9.595000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="F40" t="n">
-        <v>53</v>
+        <v>36304.4114</v>
       </c>
       <c r="G40" t="n">
-        <v>-7353331.165411193</v>
+        <v>-9356158.350525199</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1886,36 +1831,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.481999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C41" t="n">
-        <v>9.481999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D41" t="n">
-        <v>9.49</v>
+        <v>9.57</v>
       </c>
       <c r="E41" t="n">
-        <v>9.481999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="F41" t="n">
-        <v>337744.0919</v>
+        <v>53</v>
       </c>
       <c r="G41" t="n">
-        <v>-7691075.257311193</v>
+        <v>-9356105.350525199</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1925,36 +1867,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.472</v>
+        <v>9.58</v>
       </c>
       <c r="C42" t="n">
-        <v>9.41</v>
+        <v>9.58</v>
       </c>
       <c r="D42" t="n">
-        <v>9.558</v>
+        <v>9.58</v>
       </c>
       <c r="E42" t="n">
-        <v>9.4</v>
+        <v>9.58</v>
       </c>
       <c r="F42" t="n">
-        <v>396182.1611</v>
+        <v>53</v>
       </c>
       <c r="G42" t="n">
-        <v>-8087257.418411193</v>
+        <v>-9356052.350525199</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1964,36 +1903,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.390000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="C43" t="n">
-        <v>9.35</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>9.390000000000001</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>9.35</v>
+        <v>9.58</v>
       </c>
       <c r="F43" t="n">
-        <v>780656.0013</v>
+        <v>249398.2851</v>
       </c>
       <c r="G43" t="n">
-        <v>-8867913.419711193</v>
+        <v>-9106654.065425199</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2003,36 +1939,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.35</v>
+        <v>9.605</v>
       </c>
       <c r="C44" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>9.35</v>
+        <v>9.605</v>
       </c>
       <c r="F44" t="n">
-        <v>113176.5318</v>
+        <v>10052</v>
       </c>
       <c r="G44" t="n">
-        <v>-8754736.887911193</v>
+        <v>-9096602.065425199</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2042,36 +1975,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.4</v>
+        <v>9.605</v>
       </c>
       <c r="C45" t="n">
-        <v>9.4</v>
+        <v>9.605</v>
       </c>
       <c r="D45" t="n">
-        <v>9.4</v>
+        <v>9.605</v>
       </c>
       <c r="E45" t="n">
-        <v>9.390000000000001</v>
+        <v>9.605</v>
       </c>
       <c r="F45" t="n">
-        <v>32280.3886</v>
+        <v>99.3266</v>
       </c>
       <c r="G45" t="n">
-        <v>-8754736.887911193</v>
+        <v>-9096701.392025199</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2081,36 +2011,33 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.4</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9.443</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>9.443</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>9.4</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>68600.33100000001</v>
+        <v>52</v>
       </c>
       <c r="G46" t="n">
-        <v>-8686136.556911193</v>
+        <v>-9096649.392025199</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2120,36 +2047,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.443</v>
+        <v>9.689</v>
       </c>
       <c r="C47" t="n">
-        <v>9.443</v>
+        <v>9.685</v>
       </c>
       <c r="D47" t="n">
-        <v>9.443</v>
+        <v>9.689</v>
       </c>
       <c r="E47" t="n">
-        <v>9.443</v>
+        <v>9.685</v>
       </c>
       <c r="F47" t="n">
-        <v>13759.381</v>
+        <v>2620.102</v>
       </c>
       <c r="G47" t="n">
-        <v>-8686136.556911193</v>
+        <v>-9099269.494025199</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2159,36 +2083,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.443</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9.536</v>
+        <v>9.616</v>
       </c>
       <c r="D48" t="n">
-        <v>9.536</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>9.443</v>
+        <v>9.616</v>
       </c>
       <c r="F48" t="n">
-        <v>26235.0559</v>
+        <v>19531.9692</v>
       </c>
       <c r="G48" t="n">
-        <v>-8659901.501011193</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2198,36 +2119,33 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="C49" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="D49" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="E49" t="n">
-        <v>9.449</v>
+        <v>9.616</v>
       </c>
       <c r="F49" t="n">
-        <v>85418.32670000001</v>
+        <v>1750.2633</v>
       </c>
       <c r="G49" t="n">
-        <v>-8745319.827711193</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2237,36 +2155,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="C50" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="D50" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="E50" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="F50" t="n">
-        <v>9966.491099999999</v>
+        <v>10489.6217</v>
       </c>
       <c r="G50" t="n">
-        <v>-8745319.827711193</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2276,36 +2191,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="C51" t="n">
-        <v>9.535</v>
+        <v>9.616</v>
       </c>
       <c r="D51" t="n">
-        <v>9.535</v>
+        <v>9.616</v>
       </c>
       <c r="E51" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="F51" t="n">
-        <v>115645.4569445412</v>
+        <v>1272.6458</v>
       </c>
       <c r="G51" t="n">
-        <v>-8629674.370766651</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2315,36 +2227,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.449999999999999</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="D52" t="n">
-        <v>9.449999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="E52" t="n">
-        <v>9.449999999999999</v>
+        <v>9.541</v>
       </c>
       <c r="F52" t="n">
-        <v>5144.4784</v>
+        <v>52950.716</v>
       </c>
       <c r="G52" t="n">
-        <v>-8634818.84916665</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2354,36 +2263,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.52</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>9.52</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>9.52</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>9.52</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>50053</v>
+        <v>1283.9168</v>
       </c>
       <c r="G53" t="n">
-        <v>-8584765.84916665</v>
+        <v>-9120085.380025199</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2393,36 +2299,33 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.523999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>9.523999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>9.523999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>9.523999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>4180.3261</v>
+        <v>1196.7605</v>
       </c>
       <c r="G54" t="n">
-        <v>-8580585.523066651</v>
+        <v>-9118888.619525198</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2432,36 +2335,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.523</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>9.523</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>9.523</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>9.523</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>13836.7438</v>
+        <v>9150.8145</v>
       </c>
       <c r="G55" t="n">
-        <v>-8594422.26686665</v>
+        <v>-9118888.619525198</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2471,36 +2371,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.513</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9.411</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>9.513</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>9.411</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>125886.0815</v>
+        <v>28021.8646</v>
       </c>
       <c r="G56" t="n">
-        <v>-8720308.34836665</v>
+        <v>-9146910.484125199</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2510,36 +2407,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.42</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9.52</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>9.52</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>9.4</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>59632.7767</v>
+        <v>55</v>
       </c>
       <c r="G57" t="n">
-        <v>-8660675.57166665</v>
+        <v>-9146855.484125199</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2549,318 +2443,346 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.519</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>9.529</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>9.532999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>9.519</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>271178.960741456</v>
+        <v>5130.9621</v>
       </c>
       <c r="G58" t="n">
-        <v>-8389496.610925194</v>
+        <v>-9146855.484125199</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.526999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="C59" t="n">
-        <v>9.512</v>
+        <v>9.65</v>
       </c>
       <c r="D59" t="n">
-        <v>9.526999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="E59" t="n">
-        <v>9.512</v>
+        <v>9.65</v>
       </c>
       <c r="F59" t="n">
-        <v>62186.2311</v>
+        <v>54050.3631</v>
       </c>
       <c r="G59" t="n">
-        <v>-8451682.842025194</v>
+        <v>-9092805.121025199</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.512</v>
+        <v>9.683</v>
       </c>
       <c r="C60" t="n">
-        <v>9.423999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D60" t="n">
-        <v>9.512</v>
+        <v>9.683</v>
       </c>
       <c r="E60" t="n">
-        <v>9.423999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F60" t="n">
-        <v>33245.4559</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>-8484928.297925195</v>
+        <v>-9092750.121025199</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.555</v>
+        <v>9.65</v>
       </c>
       <c r="C61" t="n">
-        <v>9.555</v>
+        <v>9.65</v>
       </c>
       <c r="D61" t="n">
-        <v>9.555</v>
+        <v>9.65</v>
       </c>
       <c r="E61" t="n">
-        <v>9.555</v>
+        <v>9.65</v>
       </c>
       <c r="F61" t="n">
-        <v>53</v>
+        <v>356.6868</v>
       </c>
       <c r="G61" t="n">
-        <v>-8484875.297925195</v>
+        <v>-9093106.807825198</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.545999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C62" t="n">
-        <v>9.545999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D62" t="n">
-        <v>9.545999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="E62" t="n">
-        <v>9.545999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F62" t="n">
-        <v>1778.4677</v>
+        <v>55</v>
       </c>
       <c r="G62" t="n">
-        <v>-8486653.765625196</v>
+        <v>-9093051.807825198</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.545</v>
+        <v>9.683</v>
       </c>
       <c r="C63" t="n">
-        <v>9.548999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="D63" t="n">
-        <v>9.548999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="E63" t="n">
-        <v>9.545</v>
+        <v>9.683</v>
       </c>
       <c r="F63" t="n">
-        <v>117524.517</v>
+        <v>10272.3769</v>
       </c>
       <c r="G63" t="n">
-        <v>-8369129.248625196</v>
+        <v>-9093051.807825198</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.548999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="C64" t="n">
-        <v>9.545999999999999</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>9.548999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="E64" t="n">
-        <v>9.545999999999999</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>210016.9039</v>
+        <v>20000</v>
       </c>
       <c r="G64" t="n">
-        <v>-8579146.152525196</v>
+        <v>-9113051.807825198</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.545999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="C65" t="n">
-        <v>9.547000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="D65" t="n">
-        <v>9.547000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="E65" t="n">
-        <v>9.545999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F65" t="n">
-        <v>54846.7997</v>
+        <v>54.4444</v>
       </c>
       <c r="G65" t="n">
-        <v>-8524299.352825196</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,37 +2791,42 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="C66" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="D66" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="E66" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="F66" t="n">
-        <v>1738.8353</v>
+        <v>9897.331399999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-8522560.517525196</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,37 +2835,42 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="C67" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="D67" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="E67" t="n">
-        <v>9.568</v>
+        <v>9.683</v>
       </c>
       <c r="F67" t="n">
-        <v>261.1647</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="n">
-        <v>-8522560.517525196</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2947,37 +2879,42 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.628</v>
+        <v>9.683</v>
       </c>
       <c r="C68" t="n">
-        <v>9.628</v>
+        <v>9.683</v>
       </c>
       <c r="D68" t="n">
-        <v>9.628</v>
+        <v>9.683</v>
       </c>
       <c r="E68" t="n">
-        <v>9.628</v>
+        <v>9.683</v>
       </c>
       <c r="F68" t="n">
-        <v>95.54940000000001</v>
+        <v>515.0328</v>
       </c>
       <c r="G68" t="n">
-        <v>-8522464.968125196</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,37 +2923,42 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.618</v>
+        <v>9.683</v>
       </c>
       <c r="C69" t="n">
-        <v>9.618</v>
+        <v>9.683</v>
       </c>
       <c r="D69" t="n">
-        <v>9.618</v>
+        <v>9.683</v>
       </c>
       <c r="E69" t="n">
-        <v>9.618</v>
+        <v>9.683</v>
       </c>
       <c r="F69" t="n">
-        <v>83531.96920000001</v>
+        <v>2410.1086</v>
       </c>
       <c r="G69" t="n">
-        <v>-8605996.937325196</v>
+        <v>-9112997.363425199</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,37 +2967,42 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.628</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>9.648</v>
+        <v>9.74</v>
       </c>
       <c r="D70" t="n">
-        <v>9.648</v>
+        <v>9.74</v>
       </c>
       <c r="E70" t="n">
-        <v>9.628</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>80443.45699999999</v>
+        <v>7529.5543</v>
       </c>
       <c r="G70" t="n">
-        <v>-8525553.480325196</v>
+        <v>-9105467.809125198</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,37 +3011,42 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.648999999999999</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>9.638</v>
+        <v>9.869</v>
       </c>
       <c r="D71" t="n">
-        <v>9.648999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="E71" t="n">
-        <v>9.638</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>36028.8999</v>
+        <v>232808.7559</v>
       </c>
       <c r="G71" t="n">
-        <v>-8561582.380225196</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,37 +3055,42 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.638</v>
+        <v>9.869</v>
       </c>
       <c r="C72" t="n">
-        <v>9.628</v>
+        <v>9.869</v>
       </c>
       <c r="D72" t="n">
-        <v>9.638</v>
+        <v>9.869</v>
       </c>
       <c r="E72" t="n">
-        <v>9.628</v>
+        <v>9.868</v>
       </c>
       <c r="F72" t="n">
-        <v>473964.996</v>
+        <v>9873.3254</v>
       </c>
       <c r="G72" t="n">
-        <v>-9035547.376225196</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,37 +3099,42 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.605</v>
+        <v>9.868</v>
       </c>
       <c r="C73" t="n">
-        <v>9.605</v>
+        <v>9.869</v>
       </c>
       <c r="D73" t="n">
-        <v>9.605</v>
+        <v>9.869</v>
       </c>
       <c r="E73" t="n">
-        <v>9.605</v>
+        <v>9.868</v>
       </c>
       <c r="F73" t="n">
-        <v>27339.3559</v>
+        <v>49907.0929</v>
       </c>
       <c r="G73" t="n">
-        <v>-9062886.732125197</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,37 +3143,42 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.595000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="C74" t="n">
-        <v>9.550000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="D74" t="n">
-        <v>9.595000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="E74" t="n">
-        <v>9.550000000000001</v>
+        <v>9.869</v>
       </c>
       <c r="F74" t="n">
-        <v>147875.2533</v>
+        <v>11959.7823</v>
       </c>
       <c r="G74" t="n">
-        <v>-9210761.985425197</v>
+        <v>-8872659.053225199</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,37 +3187,42 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.550000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="C75" t="n">
-        <v>9.550000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="D75" t="n">
-        <v>9.550000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="E75" t="n">
-        <v>9.550000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="F75" t="n">
-        <v>94650.84510000001</v>
+        <v>16939.2127</v>
       </c>
       <c r="G75" t="n">
-        <v>-9210761.985425197</v>
+        <v>-8889598.265925199</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,37 +3231,42 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.460000000000001</v>
+        <v>9.866</v>
       </c>
       <c r="C76" t="n">
-        <v>9.456</v>
+        <v>9.866</v>
       </c>
       <c r="D76" t="n">
-        <v>9.460000000000001</v>
+        <v>9.866</v>
       </c>
       <c r="E76" t="n">
-        <v>9.456</v>
+        <v>9.866</v>
       </c>
       <c r="F76" t="n">
-        <v>13113.6028</v>
+        <v>60</v>
       </c>
       <c r="G76" t="n">
-        <v>-9223875.588225197</v>
+        <v>-8889538.265925199</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,37 +3275,42 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.58</v>
+        <v>9.855</v>
       </c>
       <c r="C77" t="n">
-        <v>9.58</v>
+        <v>9.763</v>
       </c>
       <c r="D77" t="n">
-        <v>9.58</v>
+        <v>9.855</v>
       </c>
       <c r="E77" t="n">
-        <v>9.58</v>
+        <v>9.763</v>
       </c>
       <c r="F77" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G77" t="n">
-        <v>-9223822.588225197</v>
+        <v>-8889650.265925199</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="K77" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,37 +3319,42 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.550000000000001</v>
+        <v>9.855</v>
       </c>
       <c r="C78" t="n">
-        <v>9.550000000000001</v>
+        <v>9.855</v>
       </c>
       <c r="D78" t="n">
-        <v>9.550000000000001</v>
+        <v>9.855</v>
       </c>
       <c r="E78" t="n">
-        <v>9.550000000000001</v>
+        <v>9.855</v>
       </c>
       <c r="F78" t="n">
-        <v>16913.7115</v>
+        <v>2809.9759</v>
       </c>
       <c r="G78" t="n">
-        <v>-9240736.299725197</v>
+        <v>-8886840.290025199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9.763</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,37 +3363,42 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.456</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>9.52</v>
+        <v>9.77</v>
       </c>
       <c r="D79" t="n">
-        <v>9.52</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>9.443</v>
+        <v>9.77</v>
       </c>
       <c r="F79" t="n">
-        <v>151726.4622</v>
+        <v>18722.2876</v>
       </c>
       <c r="G79" t="n">
-        <v>-9392462.761925198</v>
+        <v>-8905562.577625198</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3415,37 +3407,42 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.52</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>9.52</v>
+        <v>9.77</v>
       </c>
       <c r="D80" t="n">
-        <v>9.52</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>9.52</v>
+        <v>9.77</v>
       </c>
       <c r="F80" t="n">
-        <v>19940.3211</v>
+        <v>53000</v>
       </c>
       <c r="G80" t="n">
-        <v>-9392462.761925198</v>
+        <v>-8905562.577625198</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,28 +3451,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.539999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="C81" t="n">
-        <v>9.52</v>
+        <v>9.76</v>
       </c>
       <c r="D81" t="n">
-        <v>9.539999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="E81" t="n">
-        <v>9.52</v>
+        <v>9.76</v>
       </c>
       <c r="F81" t="n">
-        <v>47616.5755</v>
+        <v>7400</v>
       </c>
       <c r="G81" t="n">
-        <v>-9392462.761925198</v>
+        <v>-8912962.577625198</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3484,7 +3482,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,37 +3493,42 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.52</v>
+        <v>9.84</v>
       </c>
       <c r="C82" t="n">
-        <v>9.529999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D82" t="n">
-        <v>9.529999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="E82" t="n">
-        <v>9.52</v>
+        <v>9.84</v>
       </c>
       <c r="F82" t="n">
-        <v>36304.4114</v>
+        <v>52.4444</v>
       </c>
       <c r="G82" t="n">
-        <v>-9356158.350525199</v>
+        <v>-8912910.133225199</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,37 +3537,42 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.57</v>
+        <v>9.712</v>
       </c>
       <c r="C83" t="n">
-        <v>9.57</v>
+        <v>9.683</v>
       </c>
       <c r="D83" t="n">
-        <v>9.57</v>
+        <v>9.712</v>
       </c>
       <c r="E83" t="n">
-        <v>9.57</v>
+        <v>9.683</v>
       </c>
       <c r="F83" t="n">
-        <v>53</v>
+        <v>100000</v>
       </c>
       <c r="G83" t="n">
-        <v>-9356105.350525199</v>
+        <v>-9012910.133225199</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,37 +3581,42 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.58</v>
+        <v>9.683</v>
       </c>
       <c r="C84" t="n">
-        <v>9.58</v>
+        <v>9.683</v>
       </c>
       <c r="D84" t="n">
-        <v>9.58</v>
+        <v>9.683</v>
       </c>
       <c r="E84" t="n">
-        <v>9.58</v>
+        <v>9.683</v>
       </c>
       <c r="F84" t="n">
-        <v>53</v>
+        <v>11959.7823</v>
       </c>
       <c r="G84" t="n">
-        <v>-9356052.350525199</v>
+        <v>-9012910.133225199</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,37 +3625,42 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.58</v>
+        <v>9.683</v>
       </c>
       <c r="C85" t="n">
-        <v>9.627000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="D85" t="n">
-        <v>9.627000000000001</v>
+        <v>9.683</v>
       </c>
       <c r="E85" t="n">
-        <v>9.58</v>
+        <v>9.683</v>
       </c>
       <c r="F85" t="n">
-        <v>249398.2851</v>
+        <v>47489.9219</v>
       </c>
       <c r="G85" t="n">
-        <v>-9106654.065425199</v>
+        <v>-9012910.133225199</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K85" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,37 +3669,42 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.605</v>
+        <v>9.683</v>
       </c>
       <c r="C86" t="n">
-        <v>9.699999999999999</v>
+        <v>9.789</v>
       </c>
       <c r="D86" t="n">
-        <v>9.699999999999999</v>
+        <v>9.789</v>
       </c>
       <c r="E86" t="n">
-        <v>9.605</v>
+        <v>9.683</v>
       </c>
       <c r="F86" t="n">
-        <v>10052</v>
+        <v>17375.976</v>
       </c>
       <c r="G86" t="n">
-        <v>-9096602.065425199</v>
+        <v>-8995534.157225199</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,37 +3713,42 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.605</v>
+        <v>9.683</v>
       </c>
       <c r="C87" t="n">
-        <v>9.605</v>
+        <v>9.683</v>
       </c>
       <c r="D87" t="n">
-        <v>9.605</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>9.605</v>
+        <v>9.683</v>
       </c>
       <c r="F87" t="n">
-        <v>99.3266</v>
+        <v>51671.43807136752</v>
       </c>
       <c r="G87" t="n">
-        <v>-9096701.392025199</v>
+        <v>-9047205.595296567</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,37 +3757,42 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.696999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>9.696999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>9.696999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>9.696999999999999</v>
+        <v>9.827999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G88" t="n">
-        <v>-9096649.392025199</v>
+        <v>-9047145.595296567</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,28 +3801,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.689</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>9.685</v>
+        <v>9.84</v>
       </c>
       <c r="D89" t="n">
-        <v>9.689</v>
+        <v>9.84</v>
       </c>
       <c r="E89" t="n">
-        <v>9.685</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>2620.102</v>
+        <v>65186.858</v>
       </c>
       <c r="G89" t="n">
-        <v>-9099269.494025199</v>
+        <v>-8981958.737296568</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3796,7 +3832,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3805,28 +3843,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.630000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="C90" t="n">
-        <v>9.616</v>
+        <v>9.84</v>
       </c>
       <c r="D90" t="n">
-        <v>9.630000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="E90" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="F90" t="n">
-        <v>19531.9692</v>
+        <v>70920.4546</v>
       </c>
       <c r="G90" t="n">
-        <v>-9118801.463225199</v>
+        <v>-8981958.737296568</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3835,7 +3874,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,28 +3885,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="C91" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="D91" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="E91" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="F91" t="n">
-        <v>1750.2633</v>
+        <v>53940.3925</v>
       </c>
       <c r="G91" t="n">
-        <v>-9118801.463225199</v>
+        <v>-9035899.129796568</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3874,7 +3916,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,28 +3927,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.616</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="D92" t="n">
-        <v>9.616</v>
+        <v>9.83</v>
       </c>
       <c r="E92" t="n">
-        <v>9.616</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>10489.6217</v>
+        <v>29105.6424</v>
       </c>
       <c r="G92" t="n">
-        <v>-9118801.463225199</v>
+        <v>-9035899.129796568</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3913,7 +3958,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3922,37 +3969,42 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.616</v>
+        <v>9.85</v>
       </c>
       <c r="C93" t="n">
-        <v>9.616</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>9.616</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>9.616</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>1272.6458</v>
+        <v>58962.279</v>
       </c>
       <c r="G93" t="n">
-        <v>-9118801.463225199</v>
+        <v>-8976936.850796569</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,28 +4013,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.611000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>9.616</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>9.616</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>9.541</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>52950.716</v>
+        <v>54.4545</v>
       </c>
       <c r="G94" t="n">
-        <v>-9118801.463225199</v>
+        <v>-8976882.396296568</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3991,7 +4044,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,28 +4055,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.542999999999999</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>9.542999999999999</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>9.542999999999999</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>9.542999999999999</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1283.9168</v>
+        <v>17000</v>
       </c>
       <c r="G95" t="n">
-        <v>-9120085.380025199</v>
+        <v>-8993882.396296568</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4030,7 +4086,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,37 +4097,42 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.640000000000001</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>9.640000000000001</v>
+        <v>9.859</v>
       </c>
       <c r="D96" t="n">
-        <v>9.640000000000001</v>
+        <v>9.859</v>
       </c>
       <c r="E96" t="n">
-        <v>9.640000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>1196.7605</v>
+        <v>99852.5177</v>
       </c>
       <c r="G96" t="n">
-        <v>-9118888.619525198</v>
+        <v>-8894029.878596568</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,28 +4141,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.640000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>9.640000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="D97" t="n">
-        <v>9.640000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>9.640000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="F97" t="n">
-        <v>9150.8145</v>
+        <v>10000</v>
       </c>
       <c r="G97" t="n">
-        <v>-9118888.619525198</v>
+        <v>-8904029.878596568</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4108,7 +4172,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,37 +4183,42 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.638999999999999</v>
+        <v>9.693</v>
       </c>
       <c r="C98" t="n">
-        <v>9.638999999999999</v>
+        <v>9.693</v>
       </c>
       <c r="D98" t="n">
-        <v>9.638999999999999</v>
+        <v>9.693</v>
       </c>
       <c r="E98" t="n">
-        <v>9.638999999999999</v>
+        <v>9.693</v>
       </c>
       <c r="F98" t="n">
-        <v>28021.8646</v>
+        <v>1676</v>
       </c>
       <c r="G98" t="n">
-        <v>-9146910.484125199</v>
+        <v>-8902353.878596568</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,37 +4227,42 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>55</v>
+        <v>54.4545</v>
       </c>
       <c r="G99" t="n">
-        <v>-9146855.484125199</v>
+        <v>-8902299.424096568</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4195,37 +4271,42 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>9.640000000000001</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>5130.9621</v>
+        <v>1621.5455</v>
       </c>
       <c r="G100" t="n">
-        <v>-9146855.484125199</v>
+        <v>-8902299.424096568</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,28 +4315,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.65</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>9.65</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>9.65</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>9.65</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>54050.3631</v>
+        <v>11137.1566</v>
       </c>
       <c r="G101" t="n">
-        <v>-9092805.121025199</v>
+        <v>-8902299.424096568</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4264,7 +4346,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,28 +4357,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.683</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>9.683</v>
+        <v>9.721</v>
       </c>
       <c r="D102" t="n">
-        <v>9.683</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>9.683</v>
+        <v>9.721</v>
       </c>
       <c r="F102" t="n">
-        <v>55</v>
+        <v>7390</v>
       </c>
       <c r="G102" t="n">
-        <v>-9092750.121025199</v>
+        <v>-8909689.424096568</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4303,7 +4388,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,28 +4399,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.65</v>
+        <v>9.698</v>
       </c>
       <c r="C103" t="n">
-        <v>9.65</v>
+        <v>9.698</v>
       </c>
       <c r="D103" t="n">
-        <v>9.65</v>
+        <v>9.698</v>
       </c>
       <c r="E103" t="n">
-        <v>9.65</v>
+        <v>9.698</v>
       </c>
       <c r="F103" t="n">
-        <v>356.6868</v>
+        <v>50815.5338</v>
       </c>
       <c r="G103" t="n">
-        <v>-9093106.807825198</v>
+        <v>-8960504.957896568</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4342,7 +4430,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,37 +4441,42 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.683</v>
+        <v>9.698</v>
       </c>
       <c r="C104" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="D104" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="E104" t="n">
-        <v>9.683</v>
+        <v>9.698</v>
       </c>
       <c r="F104" t="n">
-        <v>55</v>
+        <v>186878.9427</v>
       </c>
       <c r="G104" t="n">
-        <v>-9093051.807825198</v>
+        <v>-8773626.015196567</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,28 +4485,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="C105" t="n">
         <v>9.683</v>
       </c>
       <c r="D105" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="E105" t="n">
         <v>9.683</v>
       </c>
       <c r="F105" t="n">
-        <v>10272.3769</v>
+        <v>242767.4348</v>
       </c>
       <c r="G105" t="n">
-        <v>-9093051.807825198</v>
+        <v>-9016393.449996568</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4420,7 +4516,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,28 +4527,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.65</v>
+        <v>9.711</v>
       </c>
       <c r="C106" t="n">
-        <v>9.542999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="D106" t="n">
-        <v>9.65</v>
+        <v>9.711</v>
       </c>
       <c r="E106" t="n">
-        <v>9.542999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="F106" t="n">
-        <v>20000</v>
+        <v>14029.7675</v>
       </c>
       <c r="G106" t="n">
-        <v>-9113051.807825198</v>
+        <v>-9002363.682496568</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4459,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,28 +4569,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="C107" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="D107" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="E107" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>54.4444</v>
+        <v>15112</v>
       </c>
       <c r="G107" t="n">
-        <v>-9112997.363425199</v>
+        <v>-9002363.682496568</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4498,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,28 +4611,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="C108" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="D108" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="E108" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="F108" t="n">
-        <v>9897.331399999999</v>
+        <v>34234.7078</v>
       </c>
       <c r="G108" t="n">
-        <v>-9112997.363425199</v>
+        <v>-9002363.682496568</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4537,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,28 +4653,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="C109" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="D109" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="E109" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>1714.6391</v>
       </c>
       <c r="G109" t="n">
-        <v>-9112997.363425199</v>
+        <v>-9002363.682496568</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4576,7 +4684,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4585,28 +4695,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="C110" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>9.683</v>
+        <v>9.711</v>
       </c>
       <c r="E110" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>515.0328</v>
+        <v>13479.1316</v>
       </c>
       <c r="G110" t="n">
-        <v>-9112997.363425199</v>
+        <v>-9015842.814096568</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4615,7 +4726,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,28 +4737,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>9.683</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>2410.1086</v>
+        <v>6283.783</v>
       </c>
       <c r="G111" t="n">
-        <v>-9112997.363425199</v>
+        <v>-9015842.814096568</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4654,7 +4768,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,28 +4779,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>9.74</v>
+        <v>9.683</v>
       </c>
       <c r="D112" t="n">
-        <v>9.74</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>9.699999999999999</v>
+        <v>9.683</v>
       </c>
       <c r="F112" t="n">
-        <v>7529.5543</v>
+        <v>20865.6851</v>
       </c>
       <c r="G112" t="n">
-        <v>-9105467.809125198</v>
+        <v>-9036708.499196569</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4693,7 +4810,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,28 +4821,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.749000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>9.749000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>232808.7559</v>
+        <v>3000</v>
       </c>
       <c r="G113" t="n">
-        <v>-8872659.053225199</v>
+        <v>-9033708.499196569</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4732,7 +4852,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4741,28 +4863,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>9.869</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>9.868</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>9873.3254</v>
+        <v>120</v>
       </c>
       <c r="G114" t="n">
-        <v>-8872659.053225199</v>
+        <v>-9033828.499196569</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4771,7 +4894,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,28 +4905,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.868</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>9.868</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>49907.0929</v>
+        <v>51</v>
       </c>
       <c r="G115" t="n">
-        <v>-8872659.053225199</v>
+        <v>-9033777.499196569</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4810,7 +4936,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,28 +4947,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>9.869</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>11959.7823</v>
+        <v>247.835</v>
       </c>
       <c r="G116" t="n">
-        <v>-8872659.053225199</v>
+        <v>-9033777.499196569</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4849,7 +4978,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,28 +4989,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.73</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>9.711</v>
+        <v>9.67</v>
       </c>
       <c r="D117" t="n">
-        <v>9.73</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>9.711</v>
+        <v>9.67</v>
       </c>
       <c r="F117" t="n">
-        <v>16939.2127</v>
+        <v>42101.1107</v>
       </c>
       <c r="G117" t="n">
-        <v>-8889598.265925199</v>
+        <v>-9075878.609896569</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4888,7 +5020,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,28 +5031,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.866</v>
+        <v>9.67</v>
       </c>
       <c r="C118" t="n">
-        <v>9.866</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>9.866</v>
+        <v>9.711</v>
       </c>
       <c r="E118" t="n">
-        <v>9.866</v>
+        <v>9.67</v>
       </c>
       <c r="F118" t="n">
-        <v>60</v>
+        <v>766017.7756000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-8889538.265925199</v>
+        <v>-8309860.834296568</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4927,7 +5062,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,28 +5073,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.855</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>9.763</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>9.855</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>9.763</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>112</v>
+        <v>52897.2745</v>
       </c>
       <c r="G119" t="n">
-        <v>-8889650.265925199</v>
+        <v>-8309860.834296568</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4966,7 +5104,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,28 +5115,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.855</v>
+        <v>9.69</v>
       </c>
       <c r="C120" t="n">
-        <v>9.855</v>
+        <v>9.69</v>
       </c>
       <c r="D120" t="n">
-        <v>9.855</v>
+        <v>9.69</v>
       </c>
       <c r="E120" t="n">
-        <v>9.855</v>
+        <v>9.69</v>
       </c>
       <c r="F120" t="n">
-        <v>2809.9759</v>
+        <v>10000</v>
       </c>
       <c r="G120" t="n">
-        <v>-8886840.290025199</v>
+        <v>-8299860.834296568</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5005,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,28 +5157,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.779999999999999</v>
+        <v>9.849</v>
       </c>
       <c r="C121" t="n">
-        <v>9.77</v>
+        <v>9.849</v>
       </c>
       <c r="D121" t="n">
-        <v>9.779999999999999</v>
+        <v>9.849</v>
       </c>
       <c r="E121" t="n">
-        <v>9.77</v>
+        <v>9.849</v>
       </c>
       <c r="F121" t="n">
-        <v>18722.2876</v>
+        <v>51</v>
       </c>
       <c r="G121" t="n">
-        <v>-8905562.577625198</v>
+        <v>-8299809.834296568</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5044,7 +5188,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5053,28 +5199,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.779999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="C122" t="n">
-        <v>9.77</v>
+        <v>9.711</v>
       </c>
       <c r="D122" t="n">
-        <v>9.779999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="E122" t="n">
-        <v>9.77</v>
+        <v>9.711</v>
       </c>
       <c r="F122" t="n">
-        <v>53000</v>
+        <v>10000</v>
       </c>
       <c r="G122" t="n">
-        <v>-8905562.577625198</v>
+        <v>-8309809.834296568</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5083,7 +5230,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5092,28 +5241,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.77</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>9.76</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>9.77</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>9.76</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>7400</v>
+        <v>51</v>
       </c>
       <c r="G123" t="n">
-        <v>-8912962.577625198</v>
+        <v>-8309758.834296568</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5122,7 +5272,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,28 +5283,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.84</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>9.84</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>9.84</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>9.84</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>52.4444</v>
+        <v>16597.444</v>
       </c>
       <c r="G124" t="n">
-        <v>-8912910.133225199</v>
+        <v>-8309758.834296568</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5161,7 +5314,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,28 +5325,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.712</v>
+        <v>9.85</v>
       </c>
       <c r="C125" t="n">
-        <v>9.683</v>
+        <v>9.85</v>
       </c>
       <c r="D125" t="n">
-        <v>9.712</v>
+        <v>9.85</v>
       </c>
       <c r="E125" t="n">
-        <v>9.683</v>
+        <v>9.85</v>
       </c>
       <c r="F125" t="n">
-        <v>100000</v>
+        <v>44659.6736</v>
       </c>
       <c r="G125" t="n">
-        <v>-9012910.133225199</v>
+        <v>-8265099.160696568</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5200,7 +5356,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,28 +5367,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.683</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>9.683</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>9.683</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>9.683</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>11959.7823</v>
+        <v>110737.6284</v>
       </c>
       <c r="G126" t="n">
-        <v>-9012910.133225199</v>
+        <v>-8375836.789096568</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5239,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,28 +5409,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.683</v>
+        <v>9.855</v>
       </c>
       <c r="C127" t="n">
-        <v>9.683</v>
+        <v>9.855</v>
       </c>
       <c r="D127" t="n">
-        <v>9.683</v>
+        <v>9.855</v>
       </c>
       <c r="E127" t="n">
-        <v>9.683</v>
+        <v>9.855</v>
       </c>
       <c r="F127" t="n">
-        <v>47489.9219</v>
+        <v>51</v>
       </c>
       <c r="G127" t="n">
-        <v>-9012910.133225199</v>
+        <v>-8375785.789096568</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5278,7 +5440,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,28 +5451,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.683</v>
+        <v>9.85</v>
       </c>
       <c r="C128" t="n">
-        <v>9.789</v>
+        <v>9.855</v>
       </c>
       <c r="D128" t="n">
-        <v>9.789</v>
+        <v>9.855</v>
       </c>
       <c r="E128" t="n">
-        <v>9.683</v>
+        <v>9.85</v>
       </c>
       <c r="F128" t="n">
-        <v>17375.976</v>
+        <v>42217.7451</v>
       </c>
       <c r="G128" t="n">
-        <v>-8995534.157225199</v>
+        <v>-8375785.789096568</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5317,7 +5482,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9.683</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,1644 +5493,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="F129" t="n">
-        <v>51671.43807136752</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-9047205.595296567</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="F130" t="n">
-        <v>60</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-9047145.595296567</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9.837999999999999</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9.837999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>65186.858</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-8981958.737296568</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="F132" t="n">
-        <v>70920.4546</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-8981958.737296568</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="F133" t="n">
-        <v>53940.3925</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-9035899.129796568</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9.829000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9.829000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>29105.6424</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-9035899.129796568</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="F135" t="n">
-        <v>58962.279</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-8976936.850796569</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="D136" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="F136" t="n">
-        <v>54.4545</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-8976882.396296568</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="F137" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-8993882.396296568</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="C138" t="n">
-        <v>9.859</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9.859</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>99852.5177</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-8894029.878596568</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-8904029.878596568</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1676</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-8902353.878596568</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="F141" t="n">
-        <v>54.4545</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-8902299.424096568</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1621.5455</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-8902299.424096568</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="F143" t="n">
-        <v>11137.1566</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-8902299.424096568</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7390</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-8909689.424096568</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="F145" t="n">
-        <v>50815.5338</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-8960504.957896568</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="F146" t="n">
-        <v>186878.9427</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-8773626.015196567</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="F147" t="n">
-        <v>242767.4348</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-9016393.449996568</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D148" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="F148" t="n">
-        <v>14029.7675</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D149" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E149" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="F149" t="n">
-        <v>15112</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E150" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="F150" t="n">
-        <v>34234.7078</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C151" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E151" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1714.6391</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="D152" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E152" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="F152" t="n">
-        <v>13479.1316</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-9015842.814096568</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6283.783</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-9015842.814096568</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="C154" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="D154" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="E154" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="F154" t="n">
-        <v>20865.6851</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-9036708.499196569</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-9033708.499196569</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="D156" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>120</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-9033828.499196569</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C157" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>51</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-9033777.499196569</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>247.835</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-9033777.499196569</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F159" t="n">
-        <v>42101.1107</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-9075878.609896569</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F160" t="n">
-        <v>766017.7756000001</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-8309860.834296568</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>52897.2745</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-8309860.834296568</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-8299860.834296568</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="F163" t="n">
-        <v>51</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-8299809.834296568</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-8309809.834296568</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="F165" t="n">
-        <v>51</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-8309758.834296568</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="F166" t="n">
-        <v>16597.444</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-8309758.834296568</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F167" t="n">
-        <v>44659.6736</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-8265099.160696568</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>110737.6284</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-8375836.789096568</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="F169" t="n">
-        <v>51</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-8375785.789096568</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F170" t="n">
-        <v>42217.7451</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-8375785.789096568</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
+      <c r="N128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.35</v>
+        <v>10.8</v>
       </c>
       <c r="C2" t="n">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="E2" t="n">
-        <v>9.35</v>
+        <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>113176.5318</v>
+        <v>14125.5503</v>
       </c>
       <c r="G2" t="n">
-        <v>-8754736.887911193</v>
+        <v>-719188.2168000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="C3" t="n">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="D3" t="n">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="E3" t="n">
-        <v>9.390000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="F3" t="n">
-        <v>32280.3886</v>
+        <v>159214.4493</v>
       </c>
       <c r="G3" t="n">
-        <v>-8754736.887911193</v>
+        <v>-878402.6661000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="C4" t="n">
-        <v>9.443</v>
+        <v>10.65</v>
       </c>
       <c r="D4" t="n">
-        <v>9.443</v>
+        <v>10.7</v>
       </c>
       <c r="E4" t="n">
-        <v>9.4</v>
+        <v>10.65</v>
       </c>
       <c r="F4" t="n">
-        <v>68600.33100000001</v>
+        <v>109599.8819</v>
       </c>
       <c r="G4" t="n">
-        <v>-8686136.556911193</v>
+        <v>-988002.5480000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.443</v>
+        <v>10.7</v>
       </c>
       <c r="C5" t="n">
-        <v>9.443</v>
+        <v>10.62</v>
       </c>
       <c r="D5" t="n">
-        <v>9.443</v>
+        <v>10.7</v>
       </c>
       <c r="E5" t="n">
-        <v>9.443</v>
+        <v>10.62</v>
       </c>
       <c r="F5" t="n">
-        <v>13759.381</v>
+        <v>104226.0123</v>
       </c>
       <c r="G5" t="n">
-        <v>-8686136.556911193</v>
+        <v>-1092228.5603</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.443</v>
+        <v>10.8</v>
       </c>
       <c r="C6" t="n">
-        <v>9.536</v>
+        <v>10.7</v>
       </c>
       <c r="D6" t="n">
-        <v>9.536</v>
+        <v>10.8</v>
       </c>
       <c r="E6" t="n">
-        <v>9.443</v>
+        <v>10.6</v>
       </c>
       <c r="F6" t="n">
-        <v>26235.0559</v>
+        <v>225156.0326</v>
       </c>
       <c r="G6" t="n">
-        <v>-8659901.501011193</v>
+        <v>-867072.5277000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="D7" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.449</v>
+        <v>10.6</v>
       </c>
       <c r="F7" t="n">
-        <v>85418.32670000001</v>
+        <v>79547.1382</v>
       </c>
       <c r="G7" t="n">
-        <v>-8745319.827711193</v>
+        <v>-946619.6659000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="C8" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="D8" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E8" t="n">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="F8" t="n">
-        <v>9966.491099999999</v>
+        <v>168821.3662</v>
       </c>
       <c r="G8" t="n">
-        <v>-8745319.827711193</v>
+        <v>-946619.6659000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.449999999999999</v>
+        <v>10.68</v>
       </c>
       <c r="C9" t="n">
-        <v>9.535</v>
+        <v>10.83</v>
       </c>
       <c r="D9" t="n">
-        <v>9.535</v>
+        <v>10.83</v>
       </c>
       <c r="E9" t="n">
-        <v>9.449999999999999</v>
+        <v>10.68</v>
       </c>
       <c r="F9" t="n">
-        <v>115645.4569445412</v>
+        <v>5292.16</v>
       </c>
       <c r="G9" t="n">
-        <v>-8629674.370766651</v>
+        <v>-941327.5059000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.449999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="C10" t="n">
-        <v>9.449999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="D10" t="n">
-        <v>9.449999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="E10" t="n">
-        <v>9.449999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="F10" t="n">
-        <v>5144.4784</v>
+        <v>1970.705</v>
       </c>
       <c r="G10" t="n">
-        <v>-8634818.84916665</v>
+        <v>-943298.2109000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.52</v>
+        <v>10.83</v>
       </c>
       <c r="C11" t="n">
-        <v>9.52</v>
+        <v>10.83</v>
       </c>
       <c r="D11" t="n">
-        <v>9.52</v>
+        <v>10.83</v>
       </c>
       <c r="E11" t="n">
-        <v>9.52</v>
+        <v>10.83</v>
       </c>
       <c r="F11" t="n">
-        <v>50053</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-8584765.84916665</v>
+        <v>-943248.2109000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.523999999999999</v>
+        <v>10.64</v>
       </c>
       <c r="C12" t="n">
-        <v>9.523999999999999</v>
+        <v>10.63</v>
       </c>
       <c r="D12" t="n">
-        <v>9.523999999999999</v>
+        <v>10.64</v>
       </c>
       <c r="E12" t="n">
-        <v>9.523999999999999</v>
+        <v>10.63</v>
       </c>
       <c r="F12" t="n">
-        <v>4180.3261</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>-8580585.523066651</v>
+        <v>-948248.2109000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.523</v>
+        <v>10.63</v>
       </c>
       <c r="C13" t="n">
-        <v>9.523</v>
+        <v>10.63</v>
       </c>
       <c r="D13" t="n">
-        <v>9.523</v>
+        <v>10.63</v>
       </c>
       <c r="E13" t="n">
-        <v>9.523</v>
+        <v>10.63</v>
       </c>
       <c r="F13" t="n">
-        <v>13836.7438</v>
+        <v>341.3107</v>
       </c>
       <c r="G13" t="n">
-        <v>-8594422.26686665</v>
+        <v>-948248.2109000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.513</v>
+        <v>10.62</v>
       </c>
       <c r="C14" t="n">
-        <v>9.411</v>
+        <v>10.62</v>
       </c>
       <c r="D14" t="n">
-        <v>9.513</v>
+        <v>10.62</v>
       </c>
       <c r="E14" t="n">
-        <v>9.411</v>
+        <v>10.62</v>
       </c>
       <c r="F14" t="n">
-        <v>125886.0815</v>
+        <v>7319.3276</v>
       </c>
       <c r="G14" t="n">
-        <v>-8720308.34836665</v>
+        <v>-955567.5385000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.42</v>
+        <v>10.82</v>
       </c>
       <c r="C15" t="n">
-        <v>9.52</v>
+        <v>10.82</v>
       </c>
       <c r="D15" t="n">
-        <v>9.52</v>
+        <v>10.82</v>
       </c>
       <c r="E15" t="n">
-        <v>9.4</v>
+        <v>10.82</v>
       </c>
       <c r="F15" t="n">
-        <v>59632.7767</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>-8660675.57166665</v>
+        <v>-955517.5385000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.519</v>
+        <v>10.7</v>
       </c>
       <c r="C16" t="n">
-        <v>9.529</v>
+        <v>10.7</v>
       </c>
       <c r="D16" t="n">
-        <v>9.532999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="E16" t="n">
-        <v>9.519</v>
+        <v>10.7</v>
       </c>
       <c r="F16" t="n">
-        <v>271178.960741456</v>
+        <v>4170.3613</v>
       </c>
       <c r="G16" t="n">
-        <v>-8389496.610925194</v>
+        <v>-959687.8998000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.526999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="C17" t="n">
-        <v>9.512</v>
+        <v>10.62</v>
       </c>
       <c r="D17" t="n">
-        <v>9.526999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="E17" t="n">
-        <v>9.512</v>
+        <v>10.62</v>
       </c>
       <c r="F17" t="n">
-        <v>62186.2311</v>
+        <v>3549.85</v>
       </c>
       <c r="G17" t="n">
-        <v>-8451682.842025194</v>
+        <v>-963237.7498000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.512</v>
+        <v>10.62</v>
       </c>
       <c r="C18" t="n">
-        <v>9.423999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="D18" t="n">
-        <v>9.512</v>
+        <v>10.62</v>
       </c>
       <c r="E18" t="n">
-        <v>9.423999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="F18" t="n">
-        <v>33245.4559</v>
+        <v>27614.8266</v>
       </c>
       <c r="G18" t="n">
-        <v>-8484928.297925195</v>
+        <v>-963237.7498000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.555</v>
+        <v>10.62</v>
       </c>
       <c r="C19" t="n">
-        <v>9.555</v>
+        <v>10.62</v>
       </c>
       <c r="D19" t="n">
-        <v>9.555</v>
+        <v>10.62</v>
       </c>
       <c r="E19" t="n">
-        <v>9.555</v>
+        <v>10.62</v>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>21972.6136</v>
       </c>
       <c r="G19" t="n">
-        <v>-8484875.297925195</v>
+        <v>-963237.7498000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.545999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="C20" t="n">
-        <v>9.545999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="D20" t="n">
-        <v>9.545999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="E20" t="n">
-        <v>9.545999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="F20" t="n">
-        <v>1778.4677</v>
+        <v>13834.588</v>
       </c>
       <c r="G20" t="n">
-        <v>-8486653.765625196</v>
+        <v>-977072.3378000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.545</v>
+        <v>10.6</v>
       </c>
       <c r="C21" t="n">
-        <v>9.548999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="D21" t="n">
-        <v>9.548999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E21" t="n">
-        <v>9.545</v>
+        <v>10.6</v>
       </c>
       <c r="F21" t="n">
-        <v>117524.517</v>
+        <v>43031.0837</v>
       </c>
       <c r="G21" t="n">
-        <v>-8369129.248625196</v>
+        <v>-977072.3378000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.548999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="C22" t="n">
-        <v>9.545999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="D22" t="n">
-        <v>9.548999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E22" t="n">
-        <v>9.545999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="F22" t="n">
-        <v>210016.9039</v>
+        <v>47546.4789</v>
       </c>
       <c r="G22" t="n">
-        <v>-8579146.152525196</v>
+        <v>-1024618.8167</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.545999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="C23" t="n">
-        <v>9.547000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="D23" t="n">
-        <v>9.547000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="E23" t="n">
-        <v>9.545999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="F23" t="n">
-        <v>54846.7997</v>
+        <v>2599.0668</v>
       </c>
       <c r="G23" t="n">
-        <v>-8524299.352825196</v>
+        <v>-1024618.8167</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="C24" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="D24" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="E24" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="F24" t="n">
-        <v>1738.8353</v>
+        <v>11743.7761</v>
       </c>
       <c r="G24" t="n">
-        <v>-8522560.517525196</v>
+        <v>-1036362.5928</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="C25" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="D25" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="E25" t="n">
-        <v>9.568</v>
+        <v>10.55</v>
       </c>
       <c r="F25" t="n">
-        <v>261.1647</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="n">
-        <v>-8522560.517525196</v>
+        <v>-1036362.5928</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.628</v>
+        <v>10.55</v>
       </c>
       <c r="C26" t="n">
-        <v>9.628</v>
+        <v>10.55</v>
       </c>
       <c r="D26" t="n">
-        <v>9.628</v>
+        <v>10.55</v>
       </c>
       <c r="E26" t="n">
-        <v>9.628</v>
+        <v>10.55</v>
       </c>
       <c r="F26" t="n">
-        <v>95.54940000000001</v>
+        <v>6833.1688</v>
       </c>
       <c r="G26" t="n">
-        <v>-8522464.968125196</v>
+        <v>-1036362.5928</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.618</v>
+        <v>10.75</v>
       </c>
       <c r="C27" t="n">
-        <v>9.618</v>
+        <v>10.81</v>
       </c>
       <c r="D27" t="n">
-        <v>9.618</v>
+        <v>10.81</v>
       </c>
       <c r="E27" t="n">
-        <v>9.618</v>
+        <v>10.75</v>
       </c>
       <c r="F27" t="n">
-        <v>83531.96920000001</v>
+        <v>14851.44768880666</v>
       </c>
       <c r="G27" t="n">
-        <v>-8605996.937325196</v>
+        <v>-1021511.145111193</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.628</v>
+        <v>10.59</v>
       </c>
       <c r="C28" t="n">
-        <v>9.648</v>
+        <v>10.56</v>
       </c>
       <c r="D28" t="n">
-        <v>9.648</v>
+        <v>10.59</v>
       </c>
       <c r="E28" t="n">
-        <v>9.628</v>
+        <v>10.56</v>
       </c>
       <c r="F28" t="n">
-        <v>80443.45699999999</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>-8525553.480325196</v>
+        <v>-1031511.145111193</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.648999999999999</v>
+        <v>10.58</v>
       </c>
       <c r="C29" t="n">
-        <v>9.638</v>
+        <v>11.05</v>
       </c>
       <c r="D29" t="n">
-        <v>9.648999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="E29" t="n">
-        <v>9.638</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>36028.8999</v>
+        <v>5114128.81</v>
       </c>
       <c r="G29" t="n">
-        <v>-8561582.380225196</v>
+        <v>4082617.664888806</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.638</v>
+        <v>10.1</v>
       </c>
       <c r="C30" t="n">
-        <v>9.628</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>9.638</v>
+        <v>10.1</v>
       </c>
       <c r="E30" t="n">
-        <v>9.628</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>473964.996</v>
+        <v>1942436.0036</v>
       </c>
       <c r="G30" t="n">
-        <v>-9035547.376225196</v>
+        <v>2140181.661288806</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.605</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>9.605</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>9.605</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>9.605</v>
+        <v>8.99</v>
       </c>
       <c r="F31" t="n">
-        <v>27339.3559</v>
+        <v>2469350.3565</v>
       </c>
       <c r="G31" t="n">
-        <v>-9062886.732125197</v>
+        <v>-329168.695211194</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.595000000000001</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>9.550000000000001</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>9.595000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>9.550000000000001</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>147875.2533</v>
+        <v>7648810.117</v>
       </c>
       <c r="G32" t="n">
-        <v>-9210761.985425197</v>
+        <v>-7977978.812211193</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.550000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="C33" t="n">
-        <v>9.550000000000001</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>9.550000000000001</v>
+        <v>8.999000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>9.550000000000001</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>94650.84510000001</v>
+        <v>930760.7343</v>
       </c>
       <c r="G33" t="n">
-        <v>-9210761.985425197</v>
+        <v>-7047218.077911193</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.460000000000001</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>9.456</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>9.460000000000001</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>9.456</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>13113.6028</v>
+        <v>248761.5081</v>
       </c>
       <c r="G34" t="n">
-        <v>-9223875.588225197</v>
+        <v>-6798456.569811193</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.58</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>9.58</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>9.58</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>9.58</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>658.9583</v>
       </c>
       <c r="G35" t="n">
-        <v>-9223822.588225197</v>
+        <v>-6799115.528111193</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.550000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>9.550000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D36" t="n">
-        <v>9.550000000000001</v>
+        <v>9.401</v>
       </c>
       <c r="E36" t="n">
-        <v>9.550000000000001</v>
+        <v>8.894</v>
       </c>
       <c r="F36" t="n">
-        <v>16913.7115</v>
+        <v>1096164.058</v>
       </c>
       <c r="G36" t="n">
-        <v>-9240736.299725197</v>
+        <v>-7895279.586111194</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.456</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>9.52</v>
+        <v>8.926</v>
       </c>
       <c r="D37" t="n">
-        <v>9.52</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>9.443</v>
+        <v>8.912000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>151726.4622</v>
+        <v>3220231.5663</v>
       </c>
       <c r="G37" t="n">
-        <v>-9392462.761925198</v>
+        <v>-4675048.019811193</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.52</v>
+        <v>8.99</v>
       </c>
       <c r="C38" t="n">
-        <v>9.52</v>
+        <v>9.09</v>
       </c>
       <c r="D38" t="n">
-        <v>9.52</v>
+        <v>9.24</v>
       </c>
       <c r="E38" t="n">
-        <v>9.52</v>
+        <v>8.99</v>
       </c>
       <c r="F38" t="n">
-        <v>19940.3211</v>
+        <v>965588.9238</v>
       </c>
       <c r="G38" t="n">
-        <v>-9392462.761925198</v>
+        <v>-3709459.096011193</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.539999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="C39" t="n">
-        <v>9.52</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>9.539999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="E39" t="n">
-        <v>9.52</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>47616.5755</v>
+        <v>1189565.0139</v>
       </c>
       <c r="G39" t="n">
-        <v>-9392462.761925198</v>
+        <v>-4899024.109911193</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.52</v>
+        <v>9.029</v>
       </c>
       <c r="C40" t="n">
-        <v>9.529999999999999</v>
+        <v>9.209</v>
       </c>
       <c r="D40" t="n">
-        <v>9.529999999999999</v>
+        <v>9.209</v>
       </c>
       <c r="E40" t="n">
-        <v>9.52</v>
+        <v>9.029</v>
       </c>
       <c r="F40" t="n">
-        <v>36304.4114</v>
+        <v>74274.82090000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-9356158.350525199</v>
+        <v>-4824749.289011193</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.57</v>
+        <v>9.208</v>
       </c>
       <c r="C41" t="n">
-        <v>9.57</v>
+        <v>9.19</v>
       </c>
       <c r="D41" t="n">
-        <v>9.57</v>
+        <v>9.44</v>
       </c>
       <c r="E41" t="n">
-        <v>9.57</v>
+        <v>9.19</v>
       </c>
       <c r="F41" t="n">
-        <v>53</v>
+        <v>1308667.3687</v>
       </c>
       <c r="G41" t="n">
-        <v>-9356105.350525199</v>
+        <v>-6133416.657711193</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.58</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>9.58</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>9.58</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>9.58</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>53</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>-9356052.350525199</v>
+        <v>-6134416.657711193</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.58</v>
+        <v>9.122</v>
       </c>
       <c r="C43" t="n">
-        <v>9.627000000000001</v>
+        <v>9.122</v>
       </c>
       <c r="D43" t="n">
-        <v>9.627000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="E43" t="n">
-        <v>9.58</v>
+        <v>9.121</v>
       </c>
       <c r="F43" t="n">
-        <v>249398.2851</v>
+        <v>146017.4126</v>
       </c>
       <c r="G43" t="n">
-        <v>-9106654.065425199</v>
+        <v>-6280434.070311193</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.605</v>
+        <v>9.24</v>
       </c>
       <c r="C44" t="n">
-        <v>9.699999999999999</v>
+        <v>9.243</v>
       </c>
       <c r="D44" t="n">
-        <v>9.699999999999999</v>
+        <v>9.243</v>
       </c>
       <c r="E44" t="n">
-        <v>9.605</v>
+        <v>9.24</v>
       </c>
       <c r="F44" t="n">
-        <v>10052</v>
+        <v>4654.0812</v>
       </c>
       <c r="G44" t="n">
-        <v>-9096602.065425199</v>
+        <v>-6275779.989111193</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.605</v>
+        <v>9.243</v>
       </c>
       <c r="C45" t="n">
-        <v>9.605</v>
+        <v>9.23</v>
       </c>
       <c r="D45" t="n">
-        <v>9.605</v>
+        <v>9.243</v>
       </c>
       <c r="E45" t="n">
-        <v>9.605</v>
+        <v>9.23</v>
       </c>
       <c r="F45" t="n">
-        <v>99.3266</v>
+        <v>37590.5496</v>
       </c>
       <c r="G45" t="n">
-        <v>-9096701.392025199</v>
+        <v>-6313370.538711193</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.696999999999999</v>
+        <v>9.244</v>
       </c>
       <c r="C46" t="n">
-        <v>9.696999999999999</v>
+        <v>9.381</v>
       </c>
       <c r="D46" t="n">
-        <v>9.696999999999999</v>
+        <v>9.381</v>
       </c>
       <c r="E46" t="n">
-        <v>9.696999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="F46" t="n">
-        <v>52</v>
+        <v>251764.823</v>
       </c>
       <c r="G46" t="n">
-        <v>-9096649.392025199</v>
+        <v>-6061605.715711193</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.689</v>
+        <v>9.381</v>
       </c>
       <c r="C47" t="n">
-        <v>9.685</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>9.689</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>9.685</v>
+        <v>9.381</v>
       </c>
       <c r="F47" t="n">
-        <v>2620.102</v>
+        <v>186517.7178</v>
       </c>
       <c r="G47" t="n">
-        <v>-9099269.494025199</v>
+        <v>-5875087.997911193</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.630000000000001</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9.616</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>9.630000000000001</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>9.616</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>19531.9692</v>
+        <v>8920.7117</v>
       </c>
       <c r="G48" t="n">
-        <v>-9118801.463225199</v>
+        <v>-5866167.286211194</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.616</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>9.616</v>
+        <v>9.632</v>
       </c>
       <c r="D49" t="n">
-        <v>9.616</v>
+        <v>9.632</v>
       </c>
       <c r="E49" t="n">
-        <v>9.616</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>1750.2633</v>
+        <v>76344.27439999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-9118801.463225199</v>
+        <v>-5942511.560611194</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.616</v>
+        <v>9.654</v>
       </c>
       <c r="C50" t="n">
-        <v>9.616</v>
+        <v>9.583</v>
       </c>
       <c r="D50" t="n">
-        <v>9.616</v>
+        <v>9.654</v>
       </c>
       <c r="E50" t="n">
-        <v>9.616</v>
+        <v>9.32</v>
       </c>
       <c r="F50" t="n">
-        <v>10489.6217</v>
+        <v>123044.4117</v>
       </c>
       <c r="G50" t="n">
-        <v>-9118801.463225199</v>
+        <v>-6065555.972311194</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.616</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>9.616</v>
+        <v>9.33</v>
       </c>
       <c r="D51" t="n">
-        <v>9.616</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>9.616</v>
+        <v>9.33</v>
       </c>
       <c r="F51" t="n">
-        <v>1272.6458</v>
+        <v>138113.6107</v>
       </c>
       <c r="G51" t="n">
-        <v>-9118801.463225199</v>
+        <v>-6203669.583011194</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.611000000000001</v>
+        <v>9.535</v>
       </c>
       <c r="C52" t="n">
-        <v>9.616</v>
+        <v>9.535</v>
       </c>
       <c r="D52" t="n">
-        <v>9.616</v>
+        <v>9.535</v>
       </c>
       <c r="E52" t="n">
-        <v>9.541</v>
+        <v>9.535</v>
       </c>
       <c r="F52" t="n">
-        <v>52950.716</v>
+        <v>53</v>
       </c>
       <c r="G52" t="n">
-        <v>-9118801.463225199</v>
+        <v>-6203616.583011194</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.542999999999999</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9.542999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>9.542999999999999</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>9.542999999999999</v>
+        <v>9.298999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1283.9168</v>
+        <v>150706.3308</v>
       </c>
       <c r="G53" t="n">
-        <v>-9120085.380025199</v>
+        <v>-6354322.913811194</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.640000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>9.640000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>9.640000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>9.640000000000001</v>
+        <v>9.173</v>
       </c>
       <c r="F54" t="n">
-        <v>1196.7605</v>
+        <v>305156.5432</v>
       </c>
       <c r="G54" t="n">
-        <v>-9118888.619525198</v>
+        <v>-6354322.913811194</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.640000000000001</v>
+        <v>9.301</v>
       </c>
       <c r="C55" t="n">
-        <v>9.640000000000001</v>
+        <v>9.301</v>
       </c>
       <c r="D55" t="n">
-        <v>9.640000000000001</v>
+        <v>9.301</v>
       </c>
       <c r="E55" t="n">
-        <v>9.640000000000001</v>
+        <v>9.301</v>
       </c>
       <c r="F55" t="n">
-        <v>9150.8145</v>
+        <v>17269.8485</v>
       </c>
       <c r="G55" t="n">
-        <v>-9118888.619525198</v>
+        <v>-6337053.065311193</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.638999999999999</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9.638999999999999</v>
+        <v>9.321</v>
       </c>
       <c r="D56" t="n">
-        <v>9.638999999999999</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>9.638999999999999</v>
+        <v>9.321</v>
       </c>
       <c r="F56" t="n">
-        <v>28021.8646</v>
+        <v>124967.3003</v>
       </c>
       <c r="G56" t="n">
-        <v>-9146910.484125199</v>
+        <v>-6212085.765011193</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.640000000000001</v>
+        <v>9.359</v>
       </c>
       <c r="C57" t="n">
-        <v>9.640000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="D57" t="n">
-        <v>9.640000000000001</v>
+        <v>9.359</v>
       </c>
       <c r="E57" t="n">
-        <v>9.640000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="F57" t="n">
-        <v>55</v>
+        <v>159283.0867</v>
       </c>
       <c r="G57" t="n">
-        <v>-9146855.484125199</v>
+        <v>-6371368.851711193</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,35 +2454,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.640000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>9.640000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="D58" t="n">
-        <v>9.640000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>9.640000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="F58" t="n">
-        <v>5130.9621</v>
+        <v>143368.4596</v>
       </c>
       <c r="G58" t="n">
-        <v>-9146855.484125199</v>
+        <v>-6371368.851711193</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9.640000000000001</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2494,40 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.65</v>
+        <v>9.462</v>
       </c>
       <c r="C59" t="n">
-        <v>9.65</v>
+        <v>9.462</v>
       </c>
       <c r="D59" t="n">
-        <v>9.65</v>
+        <v>9.462</v>
       </c>
       <c r="E59" t="n">
-        <v>9.65</v>
+        <v>9.462</v>
       </c>
       <c r="F59" t="n">
-        <v>54050.3631</v>
+        <v>33950.3005</v>
       </c>
       <c r="G59" t="n">
-        <v>-9092805.121025199</v>
+        <v>-6337418.551211193</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2538,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.683</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9.683</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>9.683</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>9.683</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>3302.3821</v>
       </c>
       <c r="G60" t="n">
-        <v>-9092750.121025199</v>
+        <v>-6340720.933311193</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2582,35 +2562,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>9.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>9.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>9.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>356.6868</v>
+        <v>23318.741</v>
       </c>
       <c r="G61" t="n">
-        <v>-9093106.807825198</v>
+        <v>-6364039.674311194</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K61" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2622,40 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.683</v>
+        <v>9.439</v>
       </c>
       <c r="C62" t="n">
-        <v>9.683</v>
+        <v>9.439</v>
       </c>
       <c r="D62" t="n">
-        <v>9.683</v>
+        <v>9.439</v>
       </c>
       <c r="E62" t="n">
-        <v>9.683</v>
+        <v>9.439</v>
       </c>
       <c r="F62" t="n">
-        <v>55</v>
+        <v>6843.251</v>
       </c>
       <c r="G62" t="n">
-        <v>-9093051.807825198</v>
+        <v>-6357196.423311193</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K62" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2666,40 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.683</v>
+        <v>9.439</v>
       </c>
       <c r="C63" t="n">
-        <v>9.683</v>
+        <v>9.32</v>
       </c>
       <c r="D63" t="n">
-        <v>9.683</v>
+        <v>9.439</v>
       </c>
       <c r="E63" t="n">
-        <v>9.683</v>
+        <v>9.32</v>
       </c>
       <c r="F63" t="n">
-        <v>10272.3769</v>
+        <v>664189.6744</v>
       </c>
       <c r="G63" t="n">
-        <v>-9093051.807825198</v>
+        <v>-7021386.097711193</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2710,40 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.65</v>
+        <v>9.32</v>
       </c>
       <c r="C64" t="n">
-        <v>9.542999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="D64" t="n">
-        <v>9.65</v>
+        <v>9.439</v>
       </c>
       <c r="E64" t="n">
-        <v>9.542999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>158705.9668</v>
       </c>
       <c r="G64" t="n">
-        <v>-9113051.807825198</v>
+        <v>-7021386.097711193</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2754,40 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.683</v>
+        <v>9.44</v>
       </c>
       <c r="C65" t="n">
-        <v>9.683</v>
+        <v>9.44</v>
       </c>
       <c r="D65" t="n">
-        <v>9.683</v>
+        <v>9.44</v>
       </c>
       <c r="E65" t="n">
-        <v>9.683</v>
+        <v>9.44</v>
       </c>
       <c r="F65" t="n">
-        <v>54.4444</v>
+        <v>53</v>
       </c>
       <c r="G65" t="n">
-        <v>-9112997.363425199</v>
+        <v>-7021333.097711193</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="K65" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2798,40 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.683</v>
+        <v>9.472</v>
       </c>
       <c r="C66" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>9.683</v>
+        <v>9.472</v>
       </c>
       <c r="E66" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>9897.331399999999</v>
+        <v>23866.9874</v>
       </c>
       <c r="G66" t="n">
-        <v>-9112997.363425199</v>
+        <v>-6997466.110311193</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2842,40 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>9.683</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>2000</v>
+        <v>281027.1889</v>
       </c>
       <c r="G67" t="n">
-        <v>-9112997.363425199</v>
+        <v>-6997466.110311193</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2886,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.683</v>
+        <v>9.449</v>
       </c>
       <c r="C68" t="n">
-        <v>9.683</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>9.683</v>
+        <v>9.49</v>
       </c>
       <c r="E68" t="n">
-        <v>9.683</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>515.0328</v>
+        <v>355918.0551</v>
       </c>
       <c r="G68" t="n">
-        <v>-9112997.363425199</v>
+        <v>-7353384.165411193</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K68" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2930,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.683</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>9.683</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>9.683</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>9.683</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>2410.1086</v>
+        <v>53</v>
       </c>
       <c r="G69" t="n">
-        <v>-9112997.363425199</v>
+        <v>-7353331.165411193</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2974,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.699999999999999</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>9.74</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>9.74</v>
+        <v>9.49</v>
       </c>
       <c r="E70" t="n">
-        <v>9.699999999999999</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>7529.5543</v>
+        <v>337744.0919</v>
       </c>
       <c r="G70" t="n">
-        <v>-9105467.809125198</v>
+        <v>-7691075.257311193</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3018,40 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.749000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="C71" t="n">
-        <v>9.869</v>
+        <v>9.41</v>
       </c>
       <c r="D71" t="n">
-        <v>9.869</v>
+        <v>9.558</v>
       </c>
       <c r="E71" t="n">
-        <v>9.749000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F71" t="n">
-        <v>232808.7559</v>
+        <v>396182.1611</v>
       </c>
       <c r="G71" t="n">
-        <v>-8872659.053225199</v>
+        <v>-8087257.418411193</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3062,40 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.869</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>9.869</v>
+        <v>9.35</v>
       </c>
       <c r="D72" t="n">
-        <v>9.869</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>9.868</v>
+        <v>9.35</v>
       </c>
       <c r="F72" t="n">
-        <v>9873.3254</v>
+        <v>780656.0013</v>
       </c>
       <c r="G72" t="n">
-        <v>-8872659.053225199</v>
+        <v>-8867913.419711193</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3106,40 +2994,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.868</v>
+        <v>9.35</v>
       </c>
       <c r="C73" t="n">
-        <v>9.869</v>
+        <v>9.4</v>
       </c>
       <c r="D73" t="n">
-        <v>9.869</v>
+        <v>9.4</v>
       </c>
       <c r="E73" t="n">
-        <v>9.868</v>
+        <v>9.35</v>
       </c>
       <c r="F73" t="n">
-        <v>49907.0929</v>
+        <v>113176.5318</v>
       </c>
       <c r="G73" t="n">
-        <v>-8872659.053225199</v>
+        <v>-8754736.887911193</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3150,40 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.869</v>
+        <v>9.4</v>
       </c>
       <c r="C74" t="n">
-        <v>9.869</v>
+        <v>9.4</v>
       </c>
       <c r="D74" t="n">
-        <v>9.869</v>
+        <v>9.4</v>
       </c>
       <c r="E74" t="n">
-        <v>9.869</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>11959.7823</v>
+        <v>32280.3886</v>
       </c>
       <c r="G74" t="n">
-        <v>-8872659.053225199</v>
+        <v>-8754736.887911193</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3194,40 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.73</v>
+        <v>9.4</v>
       </c>
       <c r="C75" t="n">
-        <v>9.711</v>
+        <v>9.443</v>
       </c>
       <c r="D75" t="n">
-        <v>9.73</v>
+        <v>9.443</v>
       </c>
       <c r="E75" t="n">
-        <v>9.711</v>
+        <v>9.4</v>
       </c>
       <c r="F75" t="n">
-        <v>16939.2127</v>
+        <v>68600.33100000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-8889598.265925199</v>
+        <v>-8686136.556911193</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K75" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3238,40 +3102,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.866</v>
+        <v>9.443</v>
       </c>
       <c r="C76" t="n">
-        <v>9.866</v>
+        <v>9.443</v>
       </c>
       <c r="D76" t="n">
-        <v>9.866</v>
+        <v>9.443</v>
       </c>
       <c r="E76" t="n">
-        <v>9.866</v>
+        <v>9.443</v>
       </c>
       <c r="F76" t="n">
-        <v>60</v>
+        <v>13759.381</v>
       </c>
       <c r="G76" t="n">
-        <v>-8889538.265925199</v>
+        <v>-8686136.556911193</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K76" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3282,40 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.855</v>
+        <v>9.443</v>
       </c>
       <c r="C77" t="n">
-        <v>9.763</v>
+        <v>9.536</v>
       </c>
       <c r="D77" t="n">
-        <v>9.855</v>
+        <v>9.536</v>
       </c>
       <c r="E77" t="n">
-        <v>9.763</v>
+        <v>9.443</v>
       </c>
       <c r="F77" t="n">
-        <v>112</v>
+        <v>26235.0559</v>
       </c>
       <c r="G77" t="n">
-        <v>-8889650.265925199</v>
+        <v>-8659901.501011193</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>9.866</v>
-      </c>
-      <c r="K77" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3326,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.855</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>9.855</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>9.855</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>9.855</v>
+        <v>9.449</v>
       </c>
       <c r="F78" t="n">
-        <v>2809.9759</v>
+        <v>85418.32670000001</v>
       </c>
       <c r="G78" t="n">
-        <v>-8886840.290025199</v>
+        <v>-8745319.827711193</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>9.763</v>
-      </c>
-      <c r="K78" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3370,40 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.779999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>9.77</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>9.779999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>9.77</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>18722.2876</v>
+        <v>9966.491099999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-8905562.577625198</v>
+        <v>-8745319.827711193</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="K79" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3414,40 +3246,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.779999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>9.77</v>
+        <v>9.535</v>
       </c>
       <c r="D80" t="n">
-        <v>9.779999999999999</v>
+        <v>9.535</v>
       </c>
       <c r="E80" t="n">
-        <v>9.77</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>53000</v>
+        <v>115645.4569445412</v>
       </c>
       <c r="G80" t="n">
-        <v>-8905562.577625198</v>
+        <v>-8629674.370766651</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K80" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3458,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.77</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>9.76</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>9.77</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>9.76</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>7400</v>
+        <v>5144.4784</v>
       </c>
       <c r="G81" t="n">
-        <v>-8912962.577625198</v>
+        <v>-8634818.84916665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3482,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3500,40 +3318,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.84</v>
+        <v>9.52</v>
       </c>
       <c r="C82" t="n">
-        <v>9.84</v>
+        <v>9.52</v>
       </c>
       <c r="D82" t="n">
-        <v>9.84</v>
+        <v>9.52</v>
       </c>
       <c r="E82" t="n">
-        <v>9.84</v>
+        <v>9.52</v>
       </c>
       <c r="F82" t="n">
-        <v>52.4444</v>
+        <v>50053</v>
       </c>
       <c r="G82" t="n">
-        <v>-8912910.133225199</v>
+        <v>-8584765.84916665</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="K82" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3544,40 +3354,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.712</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>9.683</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>9.712</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>9.683</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>100000</v>
+        <v>4180.3261</v>
       </c>
       <c r="G83" t="n">
-        <v>-9012910.133225199</v>
+        <v>-8580585.523066651</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3588,40 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.683</v>
+        <v>9.523</v>
       </c>
       <c r="C84" t="n">
-        <v>9.683</v>
+        <v>9.523</v>
       </c>
       <c r="D84" t="n">
-        <v>9.683</v>
+        <v>9.523</v>
       </c>
       <c r="E84" t="n">
-        <v>9.683</v>
+        <v>9.523</v>
       </c>
       <c r="F84" t="n">
-        <v>11959.7823</v>
+        <v>13836.7438</v>
       </c>
       <c r="G84" t="n">
-        <v>-9012910.133225199</v>
+        <v>-8594422.26686665</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3632,40 +3426,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.683</v>
+        <v>9.513</v>
       </c>
       <c r="C85" t="n">
-        <v>9.683</v>
+        <v>9.411</v>
       </c>
       <c r="D85" t="n">
-        <v>9.683</v>
+        <v>9.513</v>
       </c>
       <c r="E85" t="n">
-        <v>9.683</v>
+        <v>9.411</v>
       </c>
       <c r="F85" t="n">
-        <v>47489.9219</v>
+        <v>125886.0815</v>
       </c>
       <c r="G85" t="n">
-        <v>-9012910.133225199</v>
+        <v>-8720308.34836665</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K85" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3676,40 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.683</v>
+        <v>9.42</v>
       </c>
       <c r="C86" t="n">
-        <v>9.789</v>
+        <v>9.52</v>
       </c>
       <c r="D86" t="n">
-        <v>9.789</v>
+        <v>9.52</v>
       </c>
       <c r="E86" t="n">
-        <v>9.683</v>
+        <v>9.4</v>
       </c>
       <c r="F86" t="n">
-        <v>17375.976</v>
+        <v>59632.7767</v>
       </c>
       <c r="G86" t="n">
-        <v>-8995534.157225199</v>
+        <v>-8660675.57166665</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3720,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.683</v>
+        <v>9.519</v>
       </c>
       <c r="C87" t="n">
-        <v>9.683</v>
+        <v>9.529</v>
       </c>
       <c r="D87" t="n">
-        <v>9.827999999999999</v>
+        <v>9.532999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>9.683</v>
+        <v>9.519</v>
       </c>
       <c r="F87" t="n">
-        <v>51671.43807136752</v>
+        <v>271178.960741456</v>
       </c>
       <c r="G87" t="n">
-        <v>-9047205.595296567</v>
+        <v>-8389496.610925194</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3744,14 +3522,12 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="K87" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.52</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3764,22 +3540,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.827999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>9.827999999999999</v>
+        <v>9.512</v>
       </c>
       <c r="D88" t="n">
-        <v>9.827999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>9.827999999999999</v>
+        <v>9.512</v>
       </c>
       <c r="F88" t="n">
-        <v>60</v>
+        <v>62186.2311</v>
       </c>
       <c r="G88" t="n">
-        <v>-9047145.595296567</v>
+        <v>-8451682.842025194</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -3788,11 +3564,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K88" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.529</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,33 +3582,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.837999999999999</v>
+        <v>9.512</v>
       </c>
       <c r="C89" t="n">
-        <v>9.84</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>9.84</v>
+        <v>9.512</v>
       </c>
       <c r="E89" t="n">
-        <v>9.837999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>65186.858</v>
+        <v>33245.4559</v>
       </c>
       <c r="G89" t="n">
-        <v>-8981958.737296568</v>
+        <v>-8484928.297925195</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J89" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,33 +3624,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.83</v>
+        <v>9.555</v>
       </c>
       <c r="C90" t="n">
-        <v>9.84</v>
+        <v>9.555</v>
       </c>
       <c r="D90" t="n">
-        <v>9.84</v>
+        <v>9.555</v>
       </c>
       <c r="E90" t="n">
-        <v>9.83</v>
+        <v>9.555</v>
       </c>
       <c r="F90" t="n">
-        <v>70920.4546</v>
+        <v>53</v>
       </c>
       <c r="G90" t="n">
-        <v>-8981958.737296568</v>
+        <v>-8484875.297925195</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J90" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3892,33 +3666,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.83</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>9.83</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>9.83</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>9.83</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>53940.3925</v>
+        <v>1778.4677</v>
       </c>
       <c r="G91" t="n">
-        <v>-9035899.129796568</v>
+        <v>-8486653.765625196</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J91" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,33 +3708,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.829000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="C92" t="n">
-        <v>9.83</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>9.83</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>9.829000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="F92" t="n">
-        <v>29105.6424</v>
+        <v>117524.517</v>
       </c>
       <c r="G92" t="n">
-        <v>-9035899.129796568</v>
+        <v>-8369129.248625196</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J92" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,22 +3750,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.85</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>9.848000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>9.858000000000001</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>9.848000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>58962.279</v>
+        <v>210016.9039</v>
       </c>
       <c r="G93" t="n">
-        <v>-8976936.850796569</v>
+        <v>-8579146.152525196</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -4000,11 +3774,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="K93" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.548999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,33 +3792,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.858000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>9.858000000000001</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>9.858000000000001</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>9.858000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>54.4545</v>
+        <v>54846.7997</v>
       </c>
       <c r="G94" t="n">
-        <v>-8976882.396296568</v>
+        <v>-8524299.352825196</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J94" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4062,33 +3834,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.848000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="C95" t="n">
-        <v>9.848000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="D95" t="n">
-        <v>9.848000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="E95" t="n">
-        <v>9.848000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="F95" t="n">
-        <v>17000</v>
+        <v>1738.8353</v>
       </c>
       <c r="G95" t="n">
-        <v>-8993882.396296568</v>
+        <v>-8522560.517525196</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J95" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,22 +3876,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.848000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="C96" t="n">
-        <v>9.859</v>
+        <v>9.568</v>
       </c>
       <c r="D96" t="n">
-        <v>9.859</v>
+        <v>9.568</v>
       </c>
       <c r="E96" t="n">
-        <v>9.800000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="F96" t="n">
-        <v>99852.5177</v>
+        <v>261.1647</v>
       </c>
       <c r="G96" t="n">
-        <v>-8894029.878596568</v>
+        <v>-8522560.517525196</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4128,11 +3900,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.568</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,33 +3918,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.800000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="C97" t="n">
-        <v>9.69</v>
+        <v>9.628</v>
       </c>
       <c r="D97" t="n">
-        <v>9.800000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="E97" t="n">
-        <v>9.69</v>
+        <v>9.628</v>
       </c>
       <c r="F97" t="n">
-        <v>10000</v>
+        <v>95.54940000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-8904029.878596568</v>
+        <v>-8522464.968125196</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J97" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,22 +3960,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.693</v>
+        <v>9.618</v>
       </c>
       <c r="C98" t="n">
-        <v>9.693</v>
+        <v>9.618</v>
       </c>
       <c r="D98" t="n">
-        <v>9.693</v>
+        <v>9.618</v>
       </c>
       <c r="E98" t="n">
-        <v>9.693</v>
+        <v>9.618</v>
       </c>
       <c r="F98" t="n">
-        <v>1676</v>
+        <v>83531.96920000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-8902353.878596568</v>
+        <v>-8605996.937325196</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4214,11 +3984,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="K98" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.628</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,22 +4002,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.858000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="C99" t="n">
-        <v>9.858000000000001</v>
+        <v>9.648</v>
       </c>
       <c r="D99" t="n">
-        <v>9.858000000000001</v>
+        <v>9.648</v>
       </c>
       <c r="E99" t="n">
-        <v>9.858000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="F99" t="n">
-        <v>54.4545</v>
+        <v>80443.45699999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-8902299.424096568</v>
+        <v>-8525553.480325196</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4258,11 +4026,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="K99" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.618</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,22 +4044,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.858000000000001</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>9.858000000000001</v>
+        <v>9.638</v>
       </c>
       <c r="D100" t="n">
-        <v>9.858000000000001</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>9.858000000000001</v>
+        <v>9.638</v>
       </c>
       <c r="F100" t="n">
-        <v>1621.5455</v>
+        <v>36028.8999</v>
       </c>
       <c r="G100" t="n">
-        <v>-8902299.424096568</v>
+        <v>-8561582.380225196</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4302,11 +4068,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.648</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,33 +4086,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.859999999999999</v>
+        <v>9.638</v>
       </c>
       <c r="C101" t="n">
-        <v>9.858000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="D101" t="n">
-        <v>9.859999999999999</v>
+        <v>9.638</v>
       </c>
       <c r="E101" t="n">
-        <v>9.858000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="F101" t="n">
-        <v>11137.1566</v>
+        <v>473964.996</v>
       </c>
       <c r="G101" t="n">
-        <v>-8902299.424096568</v>
+        <v>-9035547.376225196</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J101" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,33 +4128,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.858000000000001</v>
+        <v>9.605</v>
       </c>
       <c r="C102" t="n">
-        <v>9.721</v>
+        <v>9.605</v>
       </c>
       <c r="D102" t="n">
-        <v>9.858000000000001</v>
+        <v>9.605</v>
       </c>
       <c r="E102" t="n">
-        <v>9.721</v>
+        <v>9.605</v>
       </c>
       <c r="F102" t="n">
-        <v>7390</v>
+        <v>27339.3559</v>
       </c>
       <c r="G102" t="n">
-        <v>-8909689.424096568</v>
+        <v>-9062886.732125197</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J102" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,33 +4170,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.698</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>9.698</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>9.698</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>9.698</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>50815.5338</v>
+        <v>147875.2533</v>
       </c>
       <c r="G103" t="n">
-        <v>-8960504.957896568</v>
+        <v>-9210761.985425197</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J103" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,22 +4212,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.698</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>9.711</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>9.711</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>9.698</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>186878.9427</v>
+        <v>94650.84510000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-8773626.015196567</v>
+        <v>-9210761.985425197</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4472,11 +4236,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="K104" t="n">
-        <v>9.683</v>
-      </c>
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,33 +4254,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.711</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>9.683</v>
+        <v>9.456</v>
       </c>
       <c r="D105" t="n">
-        <v>9.711</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>9.683</v>
+        <v>9.456</v>
       </c>
       <c r="F105" t="n">
-        <v>242767.4348</v>
+        <v>13113.6028</v>
       </c>
       <c r="G105" t="n">
-        <v>-9016393.449996568</v>
+        <v>-9223875.588225197</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J105" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,33 +4296,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.711</v>
+        <v>9.58</v>
       </c>
       <c r="C106" t="n">
-        <v>9.711</v>
+        <v>9.58</v>
       </c>
       <c r="D106" t="n">
-        <v>9.711</v>
+        <v>9.58</v>
       </c>
       <c r="E106" t="n">
-        <v>9.711</v>
+        <v>9.58</v>
       </c>
       <c r="F106" t="n">
-        <v>14029.7675</v>
+        <v>53</v>
       </c>
       <c r="G106" t="n">
-        <v>-9002363.682496568</v>
+        <v>-9223822.588225197</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J106" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,33 +4338,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.711</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>9.711</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>9.711</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>9.683999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>15112</v>
+        <v>16913.7115</v>
       </c>
       <c r="G107" t="n">
-        <v>-9002363.682496568</v>
+        <v>-9240736.299725197</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J107" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,33 +4380,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.711</v>
+        <v>9.456</v>
       </c>
       <c r="C108" t="n">
-        <v>9.711</v>
+        <v>9.52</v>
       </c>
       <c r="D108" t="n">
-        <v>9.711</v>
+        <v>9.52</v>
       </c>
       <c r="E108" t="n">
-        <v>9.711</v>
+        <v>9.443</v>
       </c>
       <c r="F108" t="n">
-        <v>34234.7078</v>
+        <v>151726.4622</v>
       </c>
       <c r="G108" t="n">
-        <v>-9002363.682496568</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J108" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,33 +4422,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.711</v>
+        <v>9.52</v>
       </c>
       <c r="C109" t="n">
-        <v>9.711</v>
+        <v>9.52</v>
       </c>
       <c r="D109" t="n">
-        <v>9.711</v>
+        <v>9.52</v>
       </c>
       <c r="E109" t="n">
-        <v>9.711</v>
+        <v>9.52</v>
       </c>
       <c r="F109" t="n">
-        <v>1714.6391</v>
+        <v>19940.3211</v>
       </c>
       <c r="G109" t="n">
-        <v>-9002363.682496568</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J109" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,33 +4464,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.711</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>9.683999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="D110" t="n">
-        <v>9.711</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>9.683999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="F110" t="n">
-        <v>13479.1316</v>
+        <v>47616.5755</v>
       </c>
       <c r="G110" t="n">
-        <v>-9015842.814096568</v>
+        <v>-9392462.761925198</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J110" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,33 +4506,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.683999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="C111" t="n">
-        <v>9.683999999999999</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>9.683999999999999</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>9.683999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="F111" t="n">
-        <v>6283.783</v>
+        <v>36304.4114</v>
       </c>
       <c r="G111" t="n">
-        <v>-9015842.814096568</v>
+        <v>-9356158.350525199</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J111" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,33 +4548,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.683999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C112" t="n">
-        <v>9.683</v>
+        <v>9.57</v>
       </c>
       <c r="D112" t="n">
-        <v>9.683999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="E112" t="n">
-        <v>9.683</v>
+        <v>9.57</v>
       </c>
       <c r="F112" t="n">
-        <v>20865.6851</v>
+        <v>53</v>
       </c>
       <c r="G112" t="n">
-        <v>-9036708.499196569</v>
+        <v>-9356105.350525199</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J112" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4828,33 +4590,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.699999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="C113" t="n">
-        <v>9.699999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="D113" t="n">
-        <v>9.699999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="E113" t="n">
-        <v>9.699999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="F113" t="n">
-        <v>3000</v>
+        <v>53</v>
       </c>
       <c r="G113" t="n">
-        <v>-9033708.499196569</v>
+        <v>-9356052.350525199</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J113" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,33 +4632,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.699999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="C114" t="n">
-        <v>9.683999999999999</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>9.699999999999999</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>9.683999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="F114" t="n">
-        <v>120</v>
+        <v>249398.2851</v>
       </c>
       <c r="G114" t="n">
-        <v>-9033828.499196569</v>
+        <v>-9106654.065425199</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J114" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4912,7 +4674,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.699999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="C115" t="n">
         <v>9.699999999999999</v>
@@ -4921,24 +4683,24 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>9.699999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="F115" t="n">
-        <v>51</v>
+        <v>10052</v>
       </c>
       <c r="G115" t="n">
-        <v>-9033777.499196569</v>
+        <v>-9096602.065425199</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J115" t="n">
+        <v>9.627000000000001</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,33 +4716,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="F116" t="n">
+        <v>99.3266</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-9096701.392025199</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="C116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F116" t="n">
-        <v>247.835</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-9033777.499196569</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,33 +4758,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.699999999999999</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>9.67</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>9.699999999999999</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>9.67</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>42101.1107</v>
+        <v>52</v>
       </c>
       <c r="G117" t="n">
-        <v>-9075878.609896569</v>
+        <v>-9096649.392025199</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J117" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,33 +4800,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.67</v>
+        <v>9.689</v>
       </c>
       <c r="C118" t="n">
-        <v>9.680999999999999</v>
+        <v>9.685</v>
       </c>
       <c r="D118" t="n">
-        <v>9.711</v>
+        <v>9.689</v>
       </c>
       <c r="E118" t="n">
-        <v>9.67</v>
+        <v>9.685</v>
       </c>
       <c r="F118" t="n">
-        <v>766017.7756000001</v>
+        <v>2620.102</v>
       </c>
       <c r="G118" t="n">
-        <v>-8309860.834296568</v>
+        <v>-9099269.494025199</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J118" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,33 +4842,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.680999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>9.680999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="D119" t="n">
-        <v>9.680999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>9.680999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="F119" t="n">
-        <v>52897.2745</v>
+        <v>19531.9692</v>
       </c>
       <c r="G119" t="n">
-        <v>-8309860.834296568</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J119" t="n">
+        <v>9.685</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,33 +4884,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.69</v>
+        <v>9.616</v>
       </c>
       <c r="C120" t="n">
-        <v>9.69</v>
+        <v>9.616</v>
       </c>
       <c r="D120" t="n">
-        <v>9.69</v>
+        <v>9.616</v>
       </c>
       <c r="E120" t="n">
-        <v>9.69</v>
+        <v>9.616</v>
       </c>
       <c r="F120" t="n">
-        <v>10000</v>
+        <v>1750.2633</v>
       </c>
       <c r="G120" t="n">
-        <v>-8299860.834296568</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J120" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,33 +4926,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.849</v>
+        <v>9.616</v>
       </c>
       <c r="C121" t="n">
-        <v>9.849</v>
+        <v>9.616</v>
       </c>
       <c r="D121" t="n">
-        <v>9.849</v>
+        <v>9.616</v>
       </c>
       <c r="E121" t="n">
-        <v>9.849</v>
+        <v>9.616</v>
       </c>
       <c r="F121" t="n">
-        <v>51</v>
+        <v>10489.6217</v>
       </c>
       <c r="G121" t="n">
-        <v>-8299809.834296568</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J121" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,33 +4968,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.711</v>
+        <v>9.616</v>
       </c>
       <c r="C122" t="n">
-        <v>9.711</v>
+        <v>9.616</v>
       </c>
       <c r="D122" t="n">
-        <v>9.711</v>
+        <v>9.616</v>
       </c>
       <c r="E122" t="n">
-        <v>9.711</v>
+        <v>9.616</v>
       </c>
       <c r="F122" t="n">
-        <v>10000</v>
+        <v>1272.6458</v>
       </c>
       <c r="G122" t="n">
-        <v>-8309809.834296568</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J122" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,33 +5010,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.848000000000001</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>9.848000000000001</v>
+        <v>9.616</v>
       </c>
       <c r="D123" t="n">
-        <v>9.848000000000001</v>
+        <v>9.616</v>
       </c>
       <c r="E123" t="n">
-        <v>9.848000000000001</v>
+        <v>9.541</v>
       </c>
       <c r="F123" t="n">
-        <v>51</v>
+        <v>52950.716</v>
       </c>
       <c r="G123" t="n">
-        <v>-8309758.834296568</v>
+        <v>-9118801.463225199</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J123" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5290,33 +5052,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.848000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>9.848000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>9.848000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>9.848000000000001</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>16597.444</v>
+        <v>1283.9168</v>
       </c>
       <c r="G124" t="n">
-        <v>-8309758.834296568</v>
+        <v>-9120085.380025199</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J124" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,33 +5094,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.85</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>9.85</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>9.85</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>9.85</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>44659.6736</v>
+        <v>1196.7605</v>
       </c>
       <c r="G125" t="n">
-        <v>-8265099.160696568</v>
+        <v>-9118888.619525198</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J125" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5374,33 +5136,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.848000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>9.848000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>9.848000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>9.848000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>110737.6284</v>
+        <v>9150.8145</v>
       </c>
       <c r="G126" t="n">
-        <v>-8375836.789096568</v>
+        <v>-9118888.619525198</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J126" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5416,33 +5178,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.855</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>9.855</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>9.855</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>9.855</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>51</v>
+        <v>28021.8646</v>
       </c>
       <c r="G127" t="n">
-        <v>-8375785.789096568</v>
+        <v>-9146910.484125199</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9.683</v>
-      </c>
+      <c r="J127" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5458,42 +5220,2996 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>55</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-9146855.484125199</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5130.9621</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-9146855.484125199</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F130" t="n">
+        <v>54050.3631</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-9092805.121025199</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F131" t="n">
+        <v>55</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-9092750.121025199</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F132" t="n">
+        <v>356.6868</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-9093106.807825198</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F133" t="n">
+        <v>55</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-9093051.807825198</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10272.3769</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-9093051.807825198</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-9113051.807825198</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F136" t="n">
+        <v>54.4444</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-9112997.363425199</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9897.331399999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-9112997.363425199</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-9112997.363425199</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F139" t="n">
+        <v>515.0328</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-9112997.363425199</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2410.1086</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-9112997.363425199</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>7529.5543</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-9105467.809125198</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>232808.7559</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-8872659.053225199</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9873.3254</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-8872659.053225199</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="F144" t="n">
+        <v>49907.0929</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-8872659.053225199</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11959.7823</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-8872659.053225199</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16939.2127</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-8889598.265925199</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>9.869</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="F147" t="n">
+        <v>60</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-8889538.265925199</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.763</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9.763</v>
+      </c>
+      <c r="F148" t="n">
+        <v>112</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-8889650.265925199</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2809.9759</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-8886840.290025199</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9.763</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18722.2876</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-8905562.577625198</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F151" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-8905562.577625198</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-8912962.577625198</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F153" t="n">
+        <v>52.4444</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-8912910.133225199</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-9012910.133225199</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11959.7823</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-9012910.133225199</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F156" t="n">
+        <v>47489.9219</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-9012910.133225199</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F157" t="n">
+        <v>17375.976</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-8995534.157225199</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.827999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F158" t="n">
+        <v>51671.43807136752</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-9047205.595296567</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.827999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.827999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.827999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.827999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>60</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-9047145.595296567</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.837999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.837999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>65186.858</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-8981958.737296568</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F161" t="n">
+        <v>70920.4546</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-8981958.737296568</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F162" t="n">
+        <v>53940.3925</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-9035899.129796568</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.829000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.829000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>29105.6424</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-9035899.129796568</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>9.85</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C164" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>58962.279</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-8976936.850796569</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>54.4545</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-8976882.396296568</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-8993882.396296568</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.859</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.859</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>99852.5177</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-8894029.878596568</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-8904029.878596568</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1676</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-8902353.878596568</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>54.4545</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-8902299.424096568</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9.693</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1621.5455</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-8902299.424096568</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11137.1566</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-8902299.424096568</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7390</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-8909689.424096568</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="F174" t="n">
+        <v>50815.5338</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-8960504.957896568</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="F175" t="n">
+        <v>186878.9427</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-8773626.015196567</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F176" t="n">
+        <v>242767.4348</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-9016393.449996568</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F177" t="n">
+        <v>14029.7675</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F178" t="n">
+        <v>15112</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F179" t="n">
+        <v>34234.7078</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1714.6391</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-9002363.682496568</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13479.1316</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-9015842.814096568</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6283.783</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-9015842.814096568</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F183" t="n">
+        <v>20865.6851</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-9036708.499196569</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-9033708.499196569</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="F185" t="n">
+        <v>120</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-9033828.499196569</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>51</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-9033777.499196569</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>247.835</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-9033777.499196569</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F188" t="n">
+        <v>42101.1107</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-9075878.609896569</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F189" t="n">
+        <v>766017.7756000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-8309860.834296568</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>52897.2745</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-8309860.834296568</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-8299860.834296568</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>9.680999999999999</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="F192" t="n">
+        <v>51</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-8299809.834296568</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-8309809.834296568</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>9.849</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>51</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-8309758.834296568</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16597.444</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-8309758.834296568</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F196" t="n">
+        <v>44659.6736</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-8265099.160696568</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>110737.6284</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-8375836.789096568</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>9.855</v>
       </c>
-      <c r="D128" t="n">
+      <c r="C198" t="n">
         <v>9.855</v>
       </c>
-      <c r="E128" t="n">
+      <c r="D198" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F198" t="n">
+        <v>51</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-8375785.789096568</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>9.85</v>
       </c>
-      <c r="F128" t="n">
+      <c r="C199" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F199" t="n">
         <v>42217.7451</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G199" t="n">
         <v>-8375785.789096568</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-719188.2168000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-878402.6661000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-988002.5480000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-1092228.5603</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-867072.5277000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-941327.5059000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-943298.2109000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-943248.2109000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-955567.5385000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-955517.5385000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-959687.8998000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-1021511.145111193</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-1031511.145111193</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>4082617.664888806</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>2140181.661288806</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-329168.695211194</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-7977978.812211193</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,19 @@
         <v>-8745319.827711193</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3029,23 @@
         <v>-8629674.370766651</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J80" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3070,23 @@
         <v>-8634818.84916665</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>9.535</v>
+      </c>
+      <c r="J81" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3111,23 @@
         <v>-8584765.84916665</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3152,23 @@
         <v>-8580585.523066651</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>9.52</v>
+      </c>
+      <c r="J83" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3195,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3234,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3271,23 @@
         <v>-8660675.57166665</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>9.411</v>
+      </c>
+      <c r="J86" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,24 +3312,23 @@
         <v>-8389496.610925194</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="J87" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3558,24 +3353,23 @@
         <v>-8451682.842025194</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>9.529</v>
       </c>
       <c r="J88" t="n">
-        <v>9.529</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3600,24 +3394,23 @@
         <v>-8484928.297925195</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>9.512</v>
       </c>
       <c r="J89" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,24 +3435,23 @@
         <v>-8484875.297925195</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3684,24 +3476,23 @@
         <v>-8486653.765625196</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>9.555</v>
       </c>
       <c r="J91" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3726,24 +3517,23 @@
         <v>-8369129.248625196</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3768,24 +3558,23 @@
         <v>-8579146.152525196</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="J93" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3810,24 +3599,23 @@
         <v>-8524299.352825196</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3852,24 +3640,23 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="J95" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3894,24 +3681,23 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>9.568</v>
       </c>
       <c r="J96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3936,24 +3722,23 @@
         <v>-8522464.968125196</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>9.568</v>
       </c>
       <c r="J97" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3978,24 +3763,23 @@
         <v>-8605996.937325196</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>9.628</v>
       </c>
       <c r="J98" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4020,24 +3804,23 @@
         <v>-8525553.480325196</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>9.618</v>
       </c>
       <c r="J99" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4062,24 +3845,23 @@
         <v>-8561582.380225196</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>9.648</v>
       </c>
       <c r="J100" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4104,24 +3886,21 @@
         <v>-9035547.376225196</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
         <v>0</v>
       </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4146,24 +3925,23 @@
         <v>-9062886.732125197</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>9.628</v>
       </c>
       <c r="J102" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4188,24 +3966,23 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>9.605</v>
       </c>
       <c r="J103" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4230,24 +4007,23 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4272,24 +4048,23 @@
         <v>-9223875.588225197</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4314,24 +4089,23 @@
         <v>-9223822.588225197</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>9.456</v>
       </c>
       <c r="J106" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4356,24 +4130,23 @@
         <v>-9240736.299725197</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>9.58</v>
       </c>
       <c r="J107" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4398,24 +4171,23 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J108" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4440,24 +4212,23 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="J109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4482,24 +4253,23 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="J110" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4524,24 +4294,23 @@
         <v>-9356158.350525199</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="J111" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4566,24 +4335,23 @@
         <v>-9356105.350525199</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J112" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4608,24 +4376,23 @@
         <v>-9356052.350525199</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>9.57</v>
       </c>
       <c r="J113" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4650,24 +4417,23 @@
         <v>-9106654.065425199</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>9.58</v>
       </c>
       <c r="J114" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4692,24 +4458,23 @@
         <v>-9096602.065425199</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="J115" t="n">
-        <v>9.627000000000001</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4734,24 +4499,23 @@
         <v>-9096701.392025199</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4776,24 +4540,23 @@
         <v>-9096649.392025199</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>9.605</v>
       </c>
       <c r="J117" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4818,24 +4581,23 @@
         <v>-9099269.494025199</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="J118" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4860,24 +4622,23 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>9.685</v>
       </c>
       <c r="J119" t="n">
-        <v>9.685</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4902,24 +4663,23 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>9.616</v>
       </c>
       <c r="J120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4944,24 +4704,23 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>9.616</v>
       </c>
       <c r="J121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4986,24 +4745,23 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>9.616</v>
       </c>
       <c r="J122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5028,24 +4786,23 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>9.616</v>
       </c>
       <c r="J123" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5070,24 +4827,23 @@
         <v>-9120085.380025199</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>9.616</v>
       </c>
       <c r="J124" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5112,24 +4868,23 @@
         <v>-9118888.619525198</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="J125" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5154,24 +4909,23 @@
         <v>-9118888.619525198</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5196,24 +4950,23 @@
         <v>-9146910.484125199</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5238,24 +4991,23 @@
         <v>-9146855.484125199</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="J128" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5280,24 +5032,23 @@
         <v>-9146855.484125199</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5322,24 +5073,23 @@
         <v>-9092805.121025199</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J130" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5364,24 +5114,23 @@
         <v>-9092750.121025199</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="J131" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5406,24 +5155,23 @@
         <v>-9093106.807825198</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J132" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5448,24 +5196,23 @@
         <v>-9093051.807825198</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="J133" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5490,24 +5237,23 @@
         <v>-9093051.807825198</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5532,24 +5278,23 @@
         <v>-9113051.807825198</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J135" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5574,24 +5319,23 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="J136" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5616,24 +5360,23 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J137" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5658,24 +5401,23 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J138" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5700,24 +5442,23 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J139" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5742,24 +5483,23 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J140" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5784,24 +5524,23 @@
         <v>-9105467.809125198</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J141" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5826,24 +5565,23 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>9.74</v>
       </c>
       <c r="J142" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5868,24 +5606,23 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>9.869</v>
       </c>
       <c r="J143" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5910,24 +5647,23 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>9.869</v>
       </c>
       <c r="J144" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5952,24 +5688,23 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>9.869</v>
       </c>
       <c r="J145" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5994,24 +5729,23 @@
         <v>-8889598.265925199</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>9.869</v>
       </c>
       <c r="J146" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6036,24 +5770,23 @@
         <v>-8889538.265925199</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J147" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6078,24 +5811,23 @@
         <v>-8889650.265925199</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>9.866</v>
       </c>
       <c r="J148" t="n">
-        <v>9.866</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6120,24 +5852,23 @@
         <v>-8886840.290025199</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>9.763</v>
       </c>
       <c r="J149" t="n">
-        <v>9.763</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6162,24 +5893,23 @@
         <v>-8905562.577625198</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>9.855</v>
       </c>
       <c r="J150" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6204,24 +5934,23 @@
         <v>-8905562.577625198</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="J151" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6246,24 +5975,23 @@
         <v>-8912962.577625198</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="J152" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6288,24 +6016,23 @@
         <v>-8912910.133225199</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>9.76</v>
       </c>
       <c r="J153" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6330,24 +6057,23 @@
         <v>-9012910.133225199</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>9.84</v>
       </c>
       <c r="J154" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6372,24 +6098,23 @@
         <v>-9012910.133225199</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J155" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6414,24 +6139,23 @@
         <v>-9012910.133225199</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J156" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6456,24 +6180,23 @@
         <v>-8995534.157225199</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J157" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6498,24 +6221,23 @@
         <v>-9047205.595296567</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>9.789</v>
       </c>
       <c r="J158" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6540,24 +6262,23 @@
         <v>-9047145.595296567</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J159" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6582,22 +6303,23 @@
         <v>-8981958.737296568</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>9.827999999999999</v>
+      </c>
+      <c r="J160" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6622,22 +6344,23 @@
         <v>-8981958.737296568</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>9.84</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6662,22 +6385,23 @@
         <v>-9035899.129796568</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>9.84</v>
+      </c>
+      <c r="J162" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6702,22 +6426,23 @@
         <v>-9035899.129796568</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>9.83</v>
+      </c>
+      <c r="J163" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6742,22 +6467,23 @@
         <v>-8976936.850796569</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>9.83</v>
+      </c>
+      <c r="J164" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6782,22 +6508,23 @@
         <v>-8976882.396296568</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>9.848000000000001</v>
+      </c>
+      <c r="J165" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6822,22 +6549,23 @@
         <v>-8993882.396296568</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>9.858000000000001</v>
+      </c>
+      <c r="J166" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6862,22 +6590,23 @@
         <v>-8894029.878596568</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>9.848000000000001</v>
+      </c>
+      <c r="J167" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6902,22 +6631,23 @@
         <v>-8904029.878596568</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>9.859</v>
+      </c>
+      <c r="J168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6942,24 +6672,23 @@
         <v>-8902353.878596568</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="J169" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6984,24 +6713,23 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>9.693</v>
       </c>
       <c r="J170" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7026,24 +6754,23 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>9.858000000000001</v>
       </c>
       <c r="J171" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7068,22 +6795,23 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>9.858000000000001</v>
+      </c>
+      <c r="J172" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7108,22 +6836,23 @@
         <v>-8909689.424096568</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>9.858000000000001</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7148,24 +6877,23 @@
         <v>-8960504.957896568</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>9.721</v>
       </c>
       <c r="J174" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7190,24 +6918,23 @@
         <v>-8773626.015196567</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>9.698</v>
       </c>
       <c r="J175" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7232,24 +6959,23 @@
         <v>-9016393.449996568</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J176" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7274,24 +7000,23 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J177" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7316,24 +7041,23 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J178" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7358,24 +7082,23 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J179" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7400,24 +7123,23 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J180" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7442,24 +7164,23 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J181" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7484,24 +7205,23 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="J182" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7526,24 +7246,23 @@
         <v>-9036708.499196569</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="J183" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7568,24 +7287,23 @@
         <v>-9033708.499196569</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>9.683</v>
       </c>
       <c r="J184" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7610,24 +7328,23 @@
         <v>-9033828.499196569</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J185" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7652,24 +7369,23 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="J186" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7694,24 +7410,23 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J187" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7736,24 +7451,23 @@
         <v>-9075878.609896569</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J188" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7778,24 +7492,23 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="J189" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7820,24 +7533,23 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="J190" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7862,24 +7574,23 @@
         <v>-8299860.834296568</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="J191" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7904,24 +7615,23 @@
         <v>-8299809.834296568</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="J192" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7946,24 +7656,23 @@
         <v>-8309809.834296568</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>9.849</v>
       </c>
       <c r="J193" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7988,24 +7697,23 @@
         <v>-8309758.834296568</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>9.711</v>
       </c>
       <c r="J194" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8030,24 +7738,21 @@
         <v>-8309758.834296568</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
         <v>0</v>
       </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8074,20 +7779,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8114,20 +7818,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8154,20 +7857,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8192,26 +7894,23 @@
         <v>-8375785.789096568</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
         <v>0</v>
       </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-719188.2168000003</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-878402.6661000003</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-988002.5480000003</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1092228.5603</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-867072.5277000002</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-941327.5059000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-943298.2109000002</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-943248.2109000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-955567.5385000001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-955517.5385000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-959687.8998000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1021511.145111193</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1031511.145111193</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4082617.664888806</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2140181.661288806</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-329168.695211194</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7977978.812211193</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7047218.077911193</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6798456.569811193</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6799115.528111193</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4675048.019811193</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2992,14 +2992,10 @@
         <v>-8745319.827711193</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3029,19 +3025,11 @@
         <v>-8629674.370766651</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J80" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3070,19 +3058,11 @@
         <v>-8634818.84916665</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="J81" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,19 +3091,11 @@
         <v>-8584765.84916665</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3152,19 +3124,11 @@
         <v>-8580585.523066651</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J83" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3235,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3271,19 +3223,11 @@
         <v>-8660675.57166665</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9.411</v>
-      </c>
-      <c r="J86" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3312,17 +3256,15 @@
         <v>-8389496.610925194</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>9.52</v>
       </c>
-      <c r="J87" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3353,14 +3295,10 @@
         <v>-8451682.842025194</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>9.529</v>
-      </c>
-      <c r="J88" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,14 +3332,12 @@
         <v>-8484928.297925195</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>9.512</v>
       </c>
-      <c r="J89" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,14 +3371,12 @@
         <v>-8484875.297925195</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>9.423999999999999</v>
       </c>
-      <c r="J90" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,14 +3410,12 @@
         <v>-8486653.765625196</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>9.555</v>
       </c>
-      <c r="J91" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,14 +3449,12 @@
         <v>-8369129.248625196</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>9.545999999999999</v>
       </c>
-      <c r="J92" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,14 +3488,12 @@
         <v>-8579146.152525196</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>9.548999999999999</v>
       </c>
-      <c r="J93" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,14 +3527,12 @@
         <v>-8524299.352825196</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>9.545999999999999</v>
       </c>
-      <c r="J94" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,14 +3566,12 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>9.547000000000001</v>
       </c>
-      <c r="J95" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,14 +3605,12 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>9.568</v>
       </c>
-      <c r="J96" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,14 +3644,12 @@
         <v>-8522464.968125196</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>9.568</v>
       </c>
-      <c r="J97" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,14 +3683,12 @@
         <v>-8605996.937325196</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>9.628</v>
       </c>
-      <c r="J98" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,14 +3722,12 @@
         <v>-8525553.480325196</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>9.618</v>
       </c>
-      <c r="J99" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3845,14 +3761,12 @@
         <v>-8561582.380225196</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>9.648</v>
       </c>
-      <c r="J100" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,12 +3800,12 @@
         <v>-9035547.376225196</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3925,14 +3839,12 @@
         <v>-9062886.732125197</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>9.628</v>
       </c>
-      <c r="J102" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3966,14 +3878,12 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>9.605</v>
       </c>
-      <c r="J103" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,14 +3917,12 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="J104" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4048,14 +3956,12 @@
         <v>-9223875.588225197</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="J105" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4089,14 +3995,12 @@
         <v>-9223822.588225197</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>9.456</v>
       </c>
-      <c r="J106" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,14 +4034,12 @@
         <v>-9240736.299725197</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>9.58</v>
       </c>
-      <c r="J107" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,14 +4073,12 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="J108" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,14 +4112,12 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>9.52</v>
       </c>
-      <c r="J109" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,14 +4151,12 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>9.52</v>
       </c>
-      <c r="J110" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,14 +4190,12 @@
         <v>-9356158.350525199</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>9.52</v>
       </c>
-      <c r="J111" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4335,14 +4229,12 @@
         <v>-9356105.350525199</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="J112" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,14 +4268,12 @@
         <v>-9356052.350525199</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>9.57</v>
       </c>
-      <c r="J113" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,14 +4307,12 @@
         <v>-9106654.065425199</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>9.58</v>
       </c>
-      <c r="J114" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,14 +4346,12 @@
         <v>-9096602.065425199</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>9.627000000000001</v>
       </c>
-      <c r="J115" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,14 +4385,12 @@
         <v>-9096701.392025199</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J116" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,14 +4424,12 @@
         <v>-9096649.392025199</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>9.605</v>
       </c>
-      <c r="J117" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,14 +4463,12 @@
         <v>-9099269.494025199</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>9.696999999999999</v>
       </c>
-      <c r="J118" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,14 +4502,12 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>9.685</v>
       </c>
-      <c r="J119" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,14 +4541,12 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>9.616</v>
       </c>
-      <c r="J120" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,14 +4580,12 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>9.616</v>
       </c>
-      <c r="J121" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,14 +4619,12 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>9.616</v>
       </c>
-      <c r="J122" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,14 +4658,12 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>9.616</v>
       </c>
-      <c r="J123" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,14 +4697,12 @@
         <v>-9120085.380025199</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>9.616</v>
       </c>
-      <c r="J124" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,14 +4736,12 @@
         <v>-9118888.619525198</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>9.542999999999999</v>
       </c>
-      <c r="J125" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,14 +4775,12 @@
         <v>-9118888.619525198</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="J126" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,14 +4814,12 @@
         <v>-9146910.484125199</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="J127" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,14 +4853,12 @@
         <v>-9146855.484125199</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>9.638999999999999</v>
       </c>
-      <c r="J128" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,14 +4892,12 @@
         <v>-9146855.484125199</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="J129" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,14 +4931,12 @@
         <v>-9092805.121025199</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="J130" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,14 +4970,12 @@
         <v>-9092750.121025199</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>9.65</v>
       </c>
-      <c r="J131" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,14 +5009,12 @@
         <v>-9093106.807825198</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>9.683</v>
       </c>
-      <c r="J132" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,14 +5048,12 @@
         <v>-9093051.807825198</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>9.65</v>
       </c>
-      <c r="J133" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,14 +5087,12 @@
         <v>-9093051.807825198</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>9.683</v>
       </c>
-      <c r="J134" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,14 +5126,12 @@
         <v>-9113051.807825198</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>9.683</v>
       </c>
-      <c r="J135" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,14 +5165,12 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>9.542999999999999</v>
       </c>
-      <c r="J136" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5360,14 +5204,12 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>9.683</v>
       </c>
-      <c r="J137" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5401,14 +5243,12 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>9.683</v>
       </c>
-      <c r="J138" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,14 +5282,12 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>9.683</v>
       </c>
-      <c r="J139" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5483,14 +5321,12 @@
         <v>-9112997.363425199</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>9.683</v>
       </c>
-      <c r="J140" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,14 +5360,12 @@
         <v>-9105467.809125198</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>9.683</v>
       </c>
-      <c r="J141" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5565,14 +5399,12 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>9.74</v>
       </c>
-      <c r="J142" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,14 +5438,12 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>9.869</v>
       </c>
-      <c r="J143" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5647,14 +5477,12 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>9.869</v>
       </c>
-      <c r="J144" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,14 +5516,12 @@
         <v>-8872659.053225199</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>9.869</v>
       </c>
-      <c r="J145" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,14 +5555,12 @@
         <v>-8889598.265925199</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>9.869</v>
       </c>
-      <c r="J146" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5770,14 +5594,12 @@
         <v>-8889538.265925199</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>9.711</v>
       </c>
-      <c r="J147" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5811,14 +5633,12 @@
         <v>-8889650.265925199</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>9.866</v>
       </c>
-      <c r="J148" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,14 +5672,12 @@
         <v>-8886840.290025199</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>9.763</v>
       </c>
-      <c r="J149" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,14 +5711,12 @@
         <v>-8905562.577625198</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>9.855</v>
       </c>
-      <c r="J150" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5934,14 +5750,12 @@
         <v>-8905562.577625198</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>9.77</v>
       </c>
-      <c r="J151" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5975,14 +5789,12 @@
         <v>-8912962.577625198</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>9.77</v>
       </c>
-      <c r="J152" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6016,14 +5828,12 @@
         <v>-8912910.133225199</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>9.76</v>
       </c>
-      <c r="J153" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6057,14 +5867,12 @@
         <v>-9012910.133225199</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>9.84</v>
       </c>
-      <c r="J154" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6098,14 +5906,12 @@
         <v>-9012910.133225199</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>9.683</v>
       </c>
-      <c r="J155" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,14 +5945,12 @@
         <v>-9012910.133225199</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>9.683</v>
       </c>
-      <c r="J156" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6180,14 +5984,12 @@
         <v>-8995534.157225199</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>9.683</v>
       </c>
-      <c r="J157" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6221,14 +6023,12 @@
         <v>-9047205.595296567</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>9.789</v>
       </c>
-      <c r="J158" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,14 +6062,12 @@
         <v>-9047145.595296567</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>9.683</v>
       </c>
-      <c r="J159" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6303,14 +6101,12 @@
         <v>-8981958.737296568</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>9.827999999999999</v>
       </c>
-      <c r="J160" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,14 +6140,12 @@
         <v>-8981958.737296568</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>9.84</v>
       </c>
-      <c r="J161" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,14 +6179,12 @@
         <v>-9035899.129796568</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>9.84</v>
       </c>
-      <c r="J162" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,14 +6218,12 @@
         <v>-9035899.129796568</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>9.83</v>
       </c>
-      <c r="J163" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,14 +6257,12 @@
         <v>-8976936.850796569</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>9.83</v>
       </c>
-      <c r="J164" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6508,14 +6296,12 @@
         <v>-8976882.396296568</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J165" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,14 +6335,12 @@
         <v>-8993882.396296568</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="J166" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6590,14 +6374,12 @@
         <v>-8894029.878596568</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J167" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,14 +6413,12 @@
         <v>-8904029.878596568</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>9.859</v>
       </c>
-      <c r="J168" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,14 +6452,12 @@
         <v>-8902353.878596568</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>9.69</v>
       </c>
-      <c r="J169" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,14 +6491,12 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>9.693</v>
       </c>
-      <c r="J170" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6754,14 +6530,12 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="J171" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,14 +6569,12 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="J172" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6836,14 +6608,12 @@
         <v>-8909689.424096568</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="J173" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,14 +6647,12 @@
         <v>-8960504.957896568</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>9.721</v>
       </c>
-      <c r="J174" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6918,14 +6686,12 @@
         <v>-8773626.015196567</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>9.698</v>
       </c>
-      <c r="J175" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,14 +6725,12 @@
         <v>-9016393.449996568</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>9.711</v>
       </c>
-      <c r="J176" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7000,14 +6764,12 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>9.683</v>
       </c>
-      <c r="J177" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,14 +6803,12 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>9.711</v>
       </c>
-      <c r="J178" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,14 +6842,12 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>9.711</v>
       </c>
-      <c r="J179" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7123,14 +6881,12 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>9.711</v>
       </c>
-      <c r="J180" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7164,14 +6920,12 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>9.711</v>
       </c>
-      <c r="J181" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7205,14 +6959,12 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>9.683999999999999</v>
       </c>
-      <c r="J182" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7246,14 +6998,12 @@
         <v>-9036708.499196569</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>9.683999999999999</v>
       </c>
-      <c r="J183" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,14 +7037,12 @@
         <v>-9033708.499196569</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>9.683</v>
       </c>
-      <c r="J184" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7328,14 +7076,12 @@
         <v>-9033828.499196569</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J185" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7369,14 +7115,12 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>9.683999999999999</v>
       </c>
-      <c r="J186" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,14 +7154,12 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J187" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,14 +7193,12 @@
         <v>-9075878.609896569</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J188" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,14 +7232,12 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>9.67</v>
       </c>
-      <c r="J189" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,14 +7271,12 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>9.680999999999999</v>
       </c>
-      <c r="J190" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,14 +7310,12 @@
         <v>-8299860.834296568</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>9.680999999999999</v>
       </c>
-      <c r="J191" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,14 +7349,12 @@
         <v>-8299809.834296568</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>9.69</v>
       </c>
-      <c r="J192" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,14 +7388,12 @@
         <v>-8309809.834296568</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>9.849</v>
       </c>
-      <c r="J193" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,14 +7427,12 @@
         <v>-8309758.834296568</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>9.711</v>
       </c>
-      <c r="J194" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,12 +7466,12 @@
         <v>-8309758.834296568</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,12 +7505,12 @@
         <v>-8265099.160696568</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,12 +7544,12 @@
         <v>-8375836.789096568</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,12 +7583,12 @@
         <v>-8375785.789096568</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,12 +7622,12 @@
         <v>-8375785.789096568</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>9.449999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7911,6 +7639,6 @@
       <c r="M199" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-719188.2168000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-878402.6661000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-988002.5480000003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1092228.5603</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-867072.5277000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-941327.5059000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-943298.2109000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-943248.2109000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-955567.5385000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-955517.5385000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-959687.8998000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1021511.145111193</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1031511.145111193</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4082617.664888806</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2140181.661288806</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-329168.695211194</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7977978.812211193</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7047218.077911193</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6798456.569811193</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6799115.528111193</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4675048.019811193</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6371368.851711193</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6340720.933311193</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8594422.26686665</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8720308.34836665</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-8660675.57166665</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,1887 +3256,1675 @@
         <v>-8389496.610925194</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="F88" t="n">
+        <v>62186.2311</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-8451682.842025194</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>33245.4559</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-8484928.297925195</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="F90" t="n">
+        <v>53</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-8484875.297925195</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1778.4677</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-8486653.765625196</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F92" t="n">
+        <v>117524.517</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-8369129.248625196</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>210016.9039</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-8579146.152525196</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>54846.7997</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-8524299.352825196</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1738.8353</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-8522560.517525196</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="E96" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="F96" t="n">
+        <v>261.1647</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-8522560.517525196</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="F97" t="n">
+        <v>95.54940000000001</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-8522464.968125196</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="C98" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="F98" t="n">
+        <v>83531.96920000001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-8605996.937325196</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9.648</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.648</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="F99" t="n">
+        <v>80443.45699999999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-8525553.480325196</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9.648999999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9.648999999999999</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="F100" t="n">
+        <v>36028.8999</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-8561582.380225196</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="F101" t="n">
+        <v>473964.996</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-9035547.376225196</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="F102" t="n">
+        <v>27339.3559</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-9062886.732125197</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>147875.2533</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-9210761.985425197</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F104" t="n">
+        <v>94650.84510000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-9210761.985425197</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13113.6028</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-9223875.588225197</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F106" t="n">
+        <v>53</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-9223822.588225197</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16913.7115</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-9240736.299725197</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="C108" t="n">
         <v>9.52</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+      <c r="D108" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="F108" t="n">
+        <v>151726.4622</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-9392462.761925198</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19940.3211</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-9392462.761925198</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F110" t="n">
+        <v>47616.5755</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-9392462.761925198</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F111" t="n">
+        <v>36304.4114</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-9356158.350525199</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="F112" t="n">
+        <v>53</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-9356105.350525199</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F113" t="n">
+        <v>53</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-9356052.350525199</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.627000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.627000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F114" t="n">
+        <v>249398.2851</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-9106654.065425199</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10052</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-9096602.065425199</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="F116" t="n">
+        <v>99.3266</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-9096701.392025199</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>52</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-9096649.392025199</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.689</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.685</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.689</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.685</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2620.102</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-9099269.494025199</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="F119" t="n">
+        <v>19531.9692</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-9118801.463225199</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1750.2633</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-9118801.463225199</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10489.6217</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-9118801.463225199</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1272.6458</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-9118801.463225199</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="F123" t="n">
+        <v>52950.716</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-9118801.463225199</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1283.9168</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-9120085.380025199</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1196.7605</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-9118888.619525198</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="J125" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9150.8145</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-9118888.619525198</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>28021.8646</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-9146910.484125199</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J127" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>55</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-9146855.484125199</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5130.9621</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-9146855.484125199</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F130" t="n">
+        <v>54050.3631</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-9092805.121025199</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F131" t="n">
+        <v>55</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-9092750.121025199</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F132" t="n">
+        <v>356.6868</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-9093106.807825198</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F133" t="n">
+        <v>55</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-9093051.807825198</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10272.3769</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-9093051.807825198</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-9113051.807825198</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="F88" t="n">
-        <v>62186.2311</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-8451682.842025194</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="C89" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="F89" t="n">
-        <v>33245.4559</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-8484928.297925195</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9.512</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="D90" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="F90" t="n">
-        <v>53</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-8484875.297925195</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C91" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D91" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1778.4677</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-8486653.765625196</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="C92" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="D92" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F92" t="n">
-        <v>117524.517</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-8369129.248625196</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="C93" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D93" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="E93" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F93" t="n">
-        <v>210016.9039</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-8579146.152525196</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C94" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="D94" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="E94" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>54846.7997</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-8524299.352825196</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="C95" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="D95" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="E95" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1738.8353</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-8522560.517525196</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="C96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="D96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="F96" t="n">
-        <v>261.1647</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-8522560.517525196</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="C97" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="D97" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="E97" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="F97" t="n">
-        <v>95.54940000000001</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-8522464.968125196</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="C98" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="D98" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="F98" t="n">
-        <v>83531.96920000001</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-8605996.937325196</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="C99" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="D99" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="F99" t="n">
-        <v>80443.45699999999</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-8525553.480325196</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>9.648999999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="D100" t="n">
-        <v>9.648999999999999</v>
-      </c>
-      <c r="E100" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="F100" t="n">
-        <v>36028.8999</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-8561582.380225196</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="C101" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="D101" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="E101" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="F101" t="n">
-        <v>473964.996</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-9035547.376225196</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="C102" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="D102" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="F102" t="n">
-        <v>27339.3559</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-9062886.732125197</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="C103" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D103" t="n">
-        <v>9.595000000000001</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F103" t="n">
-        <v>147875.2533</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-9210761.985425197</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F104" t="n">
-        <v>94650.84510000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-9210761.985425197</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="F105" t="n">
-        <v>13113.6028</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-9223875.588225197</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F106" t="n">
-        <v>53</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-9223822.588225197</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F107" t="n">
-        <v>16913.7115</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-9240736.299725197</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D108" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9.443</v>
-      </c>
-      <c r="F108" t="n">
-        <v>151726.4622</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-9392462.761925198</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F109" t="n">
-        <v>19940.3211</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-9392462.761925198</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F110" t="n">
-        <v>47616.5755</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-9392462.761925198</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F111" t="n">
-        <v>36304.4114</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-9356158.350525199</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="F112" t="n">
-        <v>53</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-9356105.350525199</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F113" t="n">
-        <v>53</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-9356052.350525199</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9.627000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9.627000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F114" t="n">
-        <v>249398.2851</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-9106654.065425199</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10052</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-9096602.065425199</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9.627000000000001</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="F116" t="n">
-        <v>99.3266</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-9096701.392025199</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="F117" t="n">
-        <v>52</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-9096649.392025199</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9.689</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9.685</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9.689</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.685</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2620.102</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-9099269.494025199</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="F119" t="n">
-        <v>19531.9692</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-9118801.463225199</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>9.685</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1750.2633</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-9118801.463225199</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10489.6217</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-9118801.463225199</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1272.6458</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-9118801.463225199</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9.611000000000001</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9.541</v>
-      </c>
-      <c r="F123" t="n">
-        <v>52950.716</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-9118801.463225199</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1283.9168</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-9120085.380025199</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1196.7605</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-9118888.619525198</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>9150.8145</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-9118888.619525198</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="F127" t="n">
-        <v>28021.8646</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-9146910.484125199</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F128" t="n">
-        <v>55</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-9146855.484125199</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>5130.9621</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-9146855.484125199</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F130" t="n">
-        <v>54050.3631</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-9092805.121025199</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="F131" t="n">
-        <v>55</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-9092750.121025199</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F132" t="n">
-        <v>356.6868</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-9093106.807825198</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="F133" t="n">
-        <v>55</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-9093051.807825198</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10272.3769</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-9093051.807825198</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E135" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-9113051.807825198</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5170,7 +4958,9 @@
       <c r="I136" t="n">
         <v>9.542999999999999</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,7 +4999,9 @@
       <c r="I137" t="n">
         <v>9.683</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,7 +5040,9 @@
       <c r="I138" t="n">
         <v>9.683</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,7 +5081,9 @@
       <c r="I139" t="n">
         <v>9.683</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,7 +5122,9 @@
       <c r="I140" t="n">
         <v>9.683</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,7 +5163,9 @@
       <c r="I141" t="n">
         <v>9.683</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,7 +5204,9 @@
       <c r="I142" t="n">
         <v>9.74</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,7 +5245,9 @@
       <c r="I143" t="n">
         <v>9.869</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,7 +5286,9 @@
       <c r="I144" t="n">
         <v>9.869</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,7 +5327,9 @@
       <c r="I145" t="n">
         <v>9.869</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,7 +5368,9 @@
       <c r="I146" t="n">
         <v>9.869</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,7 +5409,9 @@
       <c r="I147" t="n">
         <v>9.711</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,7 +5450,9 @@
       <c r="I148" t="n">
         <v>9.866</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5677,7 +5491,9 @@
       <c r="I149" t="n">
         <v>9.763</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,7 +5532,9 @@
       <c r="I150" t="n">
         <v>9.855</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,7 +5573,9 @@
       <c r="I151" t="n">
         <v>9.77</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,7 +5614,9 @@
       <c r="I152" t="n">
         <v>9.77</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,7 +5655,9 @@
       <c r="I153" t="n">
         <v>9.76</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5872,7 +5696,9 @@
       <c r="I154" t="n">
         <v>9.84</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,7 +5737,9 @@
       <c r="I155" t="n">
         <v>9.683</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,7 +5778,9 @@
       <c r="I156" t="n">
         <v>9.683</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,7 +5819,9 @@
       <c r="I157" t="n">
         <v>9.683</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,7 +5860,9 @@
       <c r="I158" t="n">
         <v>9.789</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,7 +5901,9 @@
       <c r="I159" t="n">
         <v>9.683</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,7 +5942,9 @@
       <c r="I160" t="n">
         <v>9.827999999999999</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,7 +5983,9 @@
       <c r="I161" t="n">
         <v>9.84</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,7 +6024,9 @@
       <c r="I162" t="n">
         <v>9.84</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,7 +6065,9 @@
       <c r="I163" t="n">
         <v>9.83</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,7 +6106,9 @@
       <c r="I164" t="n">
         <v>9.83</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,7 +6147,9 @@
       <c r="I165" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,7 +6188,9 @@
       <c r="I166" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,7 +6229,9 @@
       <c r="I167" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,7 +6270,9 @@
       <c r="I168" t="n">
         <v>9.859</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,7 +6311,9 @@
       <c r="I169" t="n">
         <v>9.69</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,7 +6352,9 @@
       <c r="I170" t="n">
         <v>9.693</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,7 +6393,9 @@
       <c r="I171" t="n">
         <v>9.858000000000001</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6569,19 +6429,19 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9.65</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>1.016554404145078</v>
       </c>
       <c r="M172" t="inlineStr"/>
     </row>
@@ -6608,17 +6468,11 @@
         <v>-8909689.424096568</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9.858000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6647,17 +6501,11 @@
         <v>-8960504.957896568</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>9.721</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6686,17 +6534,11 @@
         <v>-8773626.015196567</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>9.698</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6725,17 +6567,11 @@
         <v>-9016393.449996568</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>9.711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6764,17 +6600,11 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>9.683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6803,17 +6633,11 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>9.711</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6842,17 +6666,11 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>9.711</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6881,17 +6699,11 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>9.711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6920,17 +6732,11 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>9.711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6959,17 +6765,11 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>9.683999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6998,17 +6798,11 @@
         <v>-9036708.499196569</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>9.683999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7037,17 +6831,11 @@
         <v>-9033708.499196569</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>9.683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7076,17 +6864,11 @@
         <v>-9033828.499196569</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7115,17 +6897,11 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>9.683999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7159,12 +6935,10 @@
       <c r="I187" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7193,15 +6967,15 @@
         <v>-9075878.609896569</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -7232,12 +7006,12 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7276,7 +7050,9 @@
       <c r="I190" t="n">
         <v>9.680999999999999</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,7 +7091,9 @@
       <c r="I191" t="n">
         <v>9.680999999999999</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7349,12 +7127,12 @@
         <v>-8299809.834296568</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7388,12 +7166,12 @@
         <v>-8309809.834296568</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,7 +7210,9 @@
       <c r="I194" t="n">
         <v>9.711</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,7 +7251,9 @@
       <c r="I195" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,7 +7292,9 @@
       <c r="I196" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,7 +7333,9 @@
       <c r="I197" t="n">
         <v>9.85</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,7 +7374,9 @@
       <c r="I198" t="n">
         <v>9.848000000000001</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7627,7 +7415,9 @@
       <c r="I199" t="n">
         <v>9.855</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,6 +7429,6 @@
       <c r="M199" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -451,7 +451,7 @@
         <v>-719188.2168000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-878402.6661000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-988002.5480000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1092228.5603</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-867072.5277000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-946619.6659000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-941327.5059000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-943298.2109000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-943248.2109000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-948248.2109000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-955567.5385000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-955517.5385000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-959687.8998000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-963237.7498000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-977072.3378000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1024618.8167</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1036362.5928</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1021511.145111193</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1031511.145111193</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4082617.664888806</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2140181.661288806</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-329168.695211194</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6371368.851711193</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6340720.933311193</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8594422.26686665</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8720308.34836665</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-8660675.57166665</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-8389496.610925194</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-8451682.842025194</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-8484928.297925195</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,10 +3355,14 @@
         <v>-8484875.297925195</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9.423999999999999</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3388,11 +3392,19 @@
         <v>-8486653.765625196</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3433,19 @@
         <v>-8369129.248625196</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3474,19 @@
         <v>-8579146.152525196</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3515,19 @@
         <v>-8524299.352825196</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="J94" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3556,19 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3597,19 @@
         <v>-8522560.517525196</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3638,19 @@
         <v>-8522464.968125196</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9.568</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3679,19 @@
         <v>-8605996.937325196</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="J98" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3720,19 @@
         <v>-8525553.480325196</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.618</v>
+      </c>
+      <c r="J99" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3761,19 @@
         <v>-8561582.380225196</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9.648</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3802,19 @@
         <v>-9035547.376225196</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3843,19 @@
         <v>-9062886.732125197</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9.628</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3884,19 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3925,19 @@
         <v>-9210761.985425197</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J104" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3966,19 @@
         <v>-9223875.588225197</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4007,19 @@
         <v>-9223822.588225197</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>9.456</v>
+      </c>
+      <c r="J106" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4048,19 @@
         <v>-9240736.299725197</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4089,19 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J108" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4130,19 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4171,19 @@
         <v>-9392462.761925198</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4212,19 @@
         <v>-9356158.350525199</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4253,19 @@
         <v>-9356105.350525199</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="J112" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4294,19 @@
         <v>-9356052.350525199</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4335,19 @@
         <v>-9106654.065425199</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="J114" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4376,19 @@
         <v>-9096602.065425199</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9.627000000000001</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4417,19 @@
         <v>-9096701.392025199</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4458,19 @@
         <v>-9096649.392025199</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>9.605</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4499,19 @@
         <v>-9099269.494025199</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4540,19 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>9.685</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4581,19 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4622,19 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="J121" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4663,19 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4704,19 @@
         <v>-9118801.463225199</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9.616</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4483,9 +4751,13 @@
         <v>9.616</v>
       </c>
       <c r="J124" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4520,11 +4792,11 @@
         <v>9.542999999999999</v>
       </c>
       <c r="J125" t="n">
-        <v>9.616</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4561,11 +4833,11 @@
         <v>9.640000000000001</v>
       </c>
       <c r="J126" t="n">
-        <v>9.616</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4602,9 +4874,13 @@
         <v>9.640000000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4639,11 +4915,11 @@
         <v>9.638999999999999</v>
       </c>
       <c r="J128" t="n">
-        <v>9.640000000000001</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4680,11 +4956,11 @@
         <v>9.640000000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>9.640000000000001</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4721,9 +4997,13 @@
         <v>9.640000000000001</v>
       </c>
       <c r="J130" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4758,11 +5038,11 @@
         <v>9.65</v>
       </c>
       <c r="J131" t="n">
-        <v>9.640000000000001</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4799,11 +5079,11 @@
         <v>9.683</v>
       </c>
       <c r="J132" t="n">
-        <v>9.640000000000001</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4840,9 +5120,13 @@
         <v>9.65</v>
       </c>
       <c r="J133" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4877,11 +5161,11 @@
         <v>9.683</v>
       </c>
       <c r="J134" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4918,11 +5202,11 @@
         <v>9.683</v>
       </c>
       <c r="J135" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4959,7 +5243,7 @@
         <v>9.542999999999999</v>
       </c>
       <c r="J136" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5000,7 +5284,7 @@
         <v>9.683</v>
       </c>
       <c r="J137" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5041,7 +5325,7 @@
         <v>9.683</v>
       </c>
       <c r="J138" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5082,7 +5366,7 @@
         <v>9.683</v>
       </c>
       <c r="J139" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5123,7 +5407,7 @@
         <v>9.683</v>
       </c>
       <c r="J140" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5164,7 +5448,7 @@
         <v>9.683</v>
       </c>
       <c r="J141" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5205,7 +5489,7 @@
         <v>9.74</v>
       </c>
       <c r="J142" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5246,7 +5530,7 @@
         <v>9.869</v>
       </c>
       <c r="J143" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5287,7 +5571,7 @@
         <v>9.869</v>
       </c>
       <c r="J144" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5328,7 +5612,7 @@
         <v>9.869</v>
       </c>
       <c r="J145" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5369,7 +5653,7 @@
         <v>9.869</v>
       </c>
       <c r="J146" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5410,7 +5694,7 @@
         <v>9.711</v>
       </c>
       <c r="J147" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5451,7 +5735,7 @@
         <v>9.866</v>
       </c>
       <c r="J148" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5492,7 +5776,7 @@
         <v>9.763</v>
       </c>
       <c r="J149" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5533,7 +5817,7 @@
         <v>9.855</v>
       </c>
       <c r="J150" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5574,7 +5858,7 @@
         <v>9.77</v>
       </c>
       <c r="J151" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5615,7 +5899,7 @@
         <v>9.77</v>
       </c>
       <c r="J152" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5656,7 +5940,7 @@
         <v>9.76</v>
       </c>
       <c r="J153" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5697,7 +5981,7 @@
         <v>9.84</v>
       </c>
       <c r="J154" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5738,7 +6022,7 @@
         <v>9.683</v>
       </c>
       <c r="J155" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5779,7 +6063,7 @@
         <v>9.683</v>
       </c>
       <c r="J156" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5820,7 +6104,7 @@
         <v>9.683</v>
       </c>
       <c r="J157" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5861,7 +6145,7 @@
         <v>9.789</v>
       </c>
       <c r="J158" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5902,7 +6186,7 @@
         <v>9.683</v>
       </c>
       <c r="J159" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5943,7 +6227,7 @@
         <v>9.827999999999999</v>
       </c>
       <c r="J160" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5984,7 +6268,7 @@
         <v>9.84</v>
       </c>
       <c r="J161" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6025,7 +6309,7 @@
         <v>9.84</v>
       </c>
       <c r="J162" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6066,7 +6350,7 @@
         <v>9.83</v>
       </c>
       <c r="J163" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6107,7 +6391,7 @@
         <v>9.83</v>
       </c>
       <c r="J164" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6148,7 +6432,7 @@
         <v>9.848000000000001</v>
       </c>
       <c r="J165" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6189,7 +6473,7 @@
         <v>9.858000000000001</v>
       </c>
       <c r="J166" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6230,7 +6514,7 @@
         <v>9.848000000000001</v>
       </c>
       <c r="J167" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6271,7 +6555,7 @@
         <v>9.859</v>
       </c>
       <c r="J168" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6312,7 +6596,7 @@
         <v>9.69</v>
       </c>
       <c r="J169" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6353,7 +6637,7 @@
         <v>9.693</v>
       </c>
       <c r="J170" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6394,7 +6678,7 @@
         <v>9.858000000000001</v>
       </c>
       <c r="J171" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6429,19 +6713,21 @@
         <v>-8902299.424096568</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>9.858000000000001</v>
+      </c>
       <c r="J172" t="n">
-        <v>9.65</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.016554404145078</v>
+        <v>1</v>
       </c>
       <c r="M172" t="inlineStr"/>
     </row>
@@ -6468,11 +6754,19 @@
         <v>-8909689.424096568</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6795,19 @@
         <v>-8960504.957896568</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +6836,19 @@
         <v>-8773626.015196567</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>9.698</v>
+      </c>
+      <c r="J175" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6877,19 @@
         <v>-9016393.449996568</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +6918,19 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="J177" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6633,11 +6959,19 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="J178" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6666,11 +7000,19 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6699,11 +7041,19 @@
         <v>-9002363.682496568</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6732,11 +7082,19 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9.711</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +7123,19 @@
         <v>-9015842.814096568</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="J182" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6798,11 +7164,19 @@
         <v>-9036708.499196569</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="J183" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +7205,19 @@
         <v>-9033708.499196569</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6864,11 +7246,19 @@
         <v>-9033828.499196569</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J185" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +7287,19 @@
         <v>-9033777.499196569</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6936,9 +7334,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="J187" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+        <v>9.423999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6967,15 +7369,17 @@
         <v>-9075878.609896569</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J188" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -7006,11 +7410,13 @@
         <v>-8309860.834296568</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J189" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7051,7 +7457,7 @@
         <v>9.680999999999999</v>
       </c>
       <c r="J190" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7092,7 +7498,7 @@
         <v>9.680999999999999</v>
       </c>
       <c r="J191" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7127,11 +7533,13 @@
         <v>-8299809.834296568</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>9.69</v>
+      </c>
       <c r="J192" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7166,11 +7574,13 @@
         <v>-8309809.834296568</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>9.849</v>
+      </c>
       <c r="J193" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7211,7 +7621,7 @@
         <v>9.711</v>
       </c>
       <c r="J194" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7252,7 +7662,7 @@
         <v>9.848000000000001</v>
       </c>
       <c r="J195" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7293,7 +7703,7 @@
         <v>9.848000000000001</v>
       </c>
       <c r="J196" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7334,7 +7744,7 @@
         <v>9.85</v>
       </c>
       <c r="J197" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7375,7 +7785,7 @@
         <v>9.848000000000001</v>
       </c>
       <c r="J198" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7416,7 +7826,7 @@
         <v>9.855</v>
       </c>
       <c r="J199" t="n">
-        <v>9.699999999999999</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>

--- a/BackTest/2020-01-14 BackTest RNT.xlsx
+++ b/BackTest/2020-01-14 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>14125.5503</v>
       </c>
       <c r="G2" t="n">
-        <v>-719188.2168000003</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>159214.4493</v>
       </c>
       <c r="G3" t="n">
-        <v>-878402.6661000003</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>109599.8819</v>
       </c>
       <c r="G4" t="n">
-        <v>-988002.5480000003</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>104226.0123</v>
       </c>
       <c r="G5" t="n">
-        <v>-1092228.5603</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>225156.0326</v>
       </c>
       <c r="G6" t="n">
-        <v>-867072.5277000002</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>79547.1382</v>
       </c>
       <c r="G7" t="n">
-        <v>-946619.6659000003</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>168821.3662</v>
       </c>
       <c r="G8" t="n">
-        <v>-946619.6659000003</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>5292.16</v>
       </c>
       <c r="G9" t="n">
-        <v>-941327.5059000002</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1970.705</v>
       </c>
       <c r="G10" t="n">
-        <v>-943298.2109000002</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-943248.2109000002</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>-948248.2109000002</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>341.3107</v>
       </c>
       <c r="G13" t="n">
-        <v>-948248.2109000002</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>7319.3276</v>
       </c>
       <c r="G14" t="n">
-        <v>-955567.5385000001</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>-955517.5385000001</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>4170.3613</v>
       </c>
       <c r="G16" t="n">
-        <v>-959687.8998000001</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3549.85</v>
       </c>
       <c r="G17" t="n">
-        <v>-963237.7498000001</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>27614.8266</v>
       </c>
       <c r="G18" t="n">
-        <v>-963237.7498000001</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>21972.6136</v>
       </c>
       <c r="G19" t="n">
-        <v>-963237.7498000001</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>13834.588</v>
       </c>
       <c r="G20" t="n">
-        <v>-977072.3378000001</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>43031.0837</v>
       </c>
       <c r="G21" t="n">
-        <v>-977072.3378000001</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>47546.4789</v>
       </c>
       <c r="G22" t="n">
-        <v>-1024618.8167</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2599.0668</v>
       </c>
       <c r="G23" t="n">
-        <v>-1024618.8167</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>11743.7761</v>
       </c>
       <c r="G24" t="n">
-        <v>-1036362.5928</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>100000</v>
       </c>
       <c r="G25" t="n">
-        <v>-1036362.5928</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>6833.1688</v>
       </c>
       <c r="G26" t="n">
-        <v>-1036362.5928</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>14851.44768880666</v>
       </c>
       <c r="G27" t="n">
-        <v>-1021511.145111193</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>-1031511.145111193</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>5114128.81</v>
       </c>
       <c r="G29" t="n">
-        <v>4082617.664888806</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1942436.0036</v>
       </c>
       <c r="G30" t="n">
-        <v>2140181.661288806</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2469350.3565</v>
       </c>
       <c r="G31" t="n">
-        <v>-329168.695211194</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>7648810.117</v>
       </c>
       <c r="G32" t="n">
-        <v>-7977978.812211193</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>930760.7343</v>
       </c>
       <c r="G33" t="n">
-        <v>-7047218.077911193</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>248761.5081</v>
       </c>
       <c r="G34" t="n">
-        <v>-6798456.569811193</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>658.9583</v>
       </c>
       <c r="G35" t="n">
-        <v>-6799115.528111193</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1096164.058</v>
       </c>
       <c r="G36" t="n">
-        <v>-7895279.586111194</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3220231.5663</v>
       </c>
       <c r="G37" t="n">
-        <v>-4675048.019811193</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>965588.9238</v>
       </c>
       <c r="G38" t="n">
-        <v>-3709459.096011193</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1189565.0139</v>
       </c>
       <c r="G39" t="n">
-        <v>-4899024.109911193</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>74274.82090000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-4824749.289011193</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1308667.3687</v>
       </c>
       <c r="G41" t="n">
-        <v>-6133416.657711193</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>-6134416.657711193</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>146017.4126</v>
       </c>
       <c r="G43" t="n">
-        <v>-6280434.070311193</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4654.0812</v>
       </c>
       <c r="G44" t="n">
-        <v>-6275779.989111193</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>37590.5496</v>
       </c>
       <c r="G45" t="n">
-        <v>-6313370.538711193</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>251764.823</v>
       </c>
       <c r="G46" t="n">
-        <v>-6061605.715711193</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>186517.7178</v>
       </c>
       <c r="G47" t="n">
-        <v>-5875087.997911193</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>8920.7117</v>
       </c>
       <c r="G48" t="n">
-        <v>-5866167.286211194</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>76344.27439999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-5942511.560611194</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>123044.4117</v>
       </c>
       <c r="G50" t="n">
-        <v>-6065555.972311194</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>138113.6107</v>
       </c>
       <c r="G51" t="n">
-        <v>-6203669.583011194</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>53</v>
       </c>
       <c r="G52" t="n">
-        <v>-6203616.583011194</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>150706.3308</v>
       </c>
       <c r="G53" t="n">
-        <v>-6354322.913811194</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>305156.5432</v>
       </c>
       <c r="G54" t="n">
-        <v>-6354322.913811194</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>17269.8485</v>
       </c>
       <c r="G55" t="n">
-        <v>-6337053.065311193</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>124967.3003</v>
       </c>
       <c r="G56" t="n">
-        <v>-6212085.765011193</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>159283.0867</v>
       </c>
       <c r="G57" t="n">
-        <v>-6371368.851711193</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>143368.4596</v>
       </c>
       <c r="G58" t="n">
-        <v>-6371368.851711193</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>33950.3005</v>
       </c>
       <c r="G59" t="n">
-        <v>-6337418.551211193</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3302.3821</v>
       </c>
       <c r="G60" t="n">
-        <v>-6340720.933311193</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>23318.741</v>
       </c>
       <c r="G61" t="n">
-        <v>-6364039.674311194</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6843.251</v>
       </c>
       <c r="G62" t="n">
-        <v>-6357196.423311193</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>664189.6744</v>
       </c>
       <c r="G63" t="n">
-        <v>-7021386.097711193</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>158705.9668</v>
       </c>
       <c r="G64" t="n">
-        <v>-7021386.097711193</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>53</v>
       </c>
       <c r="G65" t="n">
-        <v>-7021333.097711193</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>23866.9874</v>
       </c>
       <c r="G66" t="n">
-        <v>-6997466.110311193</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>281027.1889</v>
       </c>
       <c r="G67" t="n">
-        <v>-6997466.110311193</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>355918.0551</v>
       </c>
       <c r="G68" t="n">
-        <v>-7353384.165411193</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>53</v>
       </c>
       <c r="G69" t="n">
-        <v>-7353331.165411193</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>337744.0919</v>
       </c>
       <c r="G70" t="n">
-        <v>-7691075.257311193</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>396182.1611</v>
       </c>
       <c r="G71" t="n">
-        <v>-8087257.418411193</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>780656.0013</v>
       </c>
       <c r="G72" t="n">
-        <v>-8867913.419711193</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>113176.5318</v>
       </c>
       <c r="G73" t="n">
-        <v>-8754736.887911193</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>32280.3886</v>
       </c>
       <c r="G74" t="n">
-        <v>-8754736.887911193</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>68600.33100000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-8686136.556911193</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,19 @@
         <v>13759.381</v>
       </c>
       <c r="G76" t="n">
-        <v>-8686136.556911193</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.443</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2697,23 @@
         <v>26235.0559</v>
       </c>
       <c r="G77" t="n">
-        <v>-8659901.501011193</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2735,23 @@
         <v>85418.32670000001</v>
       </c>
       <c r="G78" t="n">
-        <v>-8745319.827711193</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>9.536</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2773,23 @@
         <v>9966.491099999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-8745319.827711193</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2811,23 @@
         <v>115645.4569445412</v>
       </c>
       <c r="G80" t="n">
-        <v>-8629674.370766651</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2849,21 @@
         <v>5144.4784</v>
       </c>
       <c r="G81" t="n">
-        <v>-8634818.84916665</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2885,21 @@
         <v>50053</v>
       </c>
       <c r="G82" t="n">
-        <v>-8584765.84916665</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2921,21 @@
         <v>4180.3261</v>
       </c>
       <c r="G83" t="n">
-        <v>-8580585.523066651</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2957,21 @@
         <v>13836.7438</v>
       </c>
       <c r="G84" t="n">
-        <v>-8594422.26686665</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2993,21 @@
         <v>125886.0815</v>
       </c>
       <c r="G85" t="n">
-        <v>-8720308.34836665</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3029,21 @@
         <v>59632.7767</v>
       </c>
       <c r="G86" t="n">
-        <v>-8660675.57166665</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3065,23 @@
         <v>271178.960741456</v>
       </c>
       <c r="G87" t="n">
-        <v>-8389496.610925194</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>9.52</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3103,23 @@
         <v>62186.2311</v>
       </c>
       <c r="G88" t="n">
-        <v>-8451682.842025194</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>9.529</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3141,23 @@
         <v>33245.4559</v>
       </c>
       <c r="G89" t="n">
-        <v>-8484928.297925195</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>9.512</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.443</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,22 +3179,23 @@
         <v>53</v>
       </c>
       <c r="G90" t="n">
-        <v>-8484875.297925195</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3389,26 +3217,23 @@
         <v>1778.4677</v>
       </c>
       <c r="G91" t="n">
-        <v>-8486653.765625196</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>9.555</v>
       </c>
       <c r="I91" t="n">
-        <v>9.555</v>
-      </c>
-      <c r="J91" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3430,26 +3255,23 @@
         <v>117524.517</v>
       </c>
       <c r="G92" t="n">
-        <v>-8369129.248625196</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3471,26 +3293,21 @@
         <v>210016.9039</v>
       </c>
       <c r="G93" t="n">
-        <v>-8579146.152525196</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>9.548999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3512,26 +3329,23 @@
         <v>54846.7997</v>
       </c>
       <c r="G94" t="n">
-        <v>-8524299.352825196</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="I94" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="J94" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3553,26 +3367,23 @@
         <v>1738.8353</v>
       </c>
       <c r="G95" t="n">
-        <v>-8522560.517525196</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3594,26 +3405,23 @@
         <v>261.1647</v>
       </c>
       <c r="G96" t="n">
-        <v>-8522560.517525196</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>9.568</v>
       </c>
       <c r="I96" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="J96" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3635,26 +3443,23 @@
         <v>95.54940000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-8522464.968125196</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>9.568</v>
       </c>
       <c r="I97" t="n">
-        <v>9.568</v>
-      </c>
-      <c r="J97" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3676,26 +3481,23 @@
         <v>83531.96920000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-8605996.937325196</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>9.628</v>
       </c>
       <c r="I98" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="J98" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3717,26 +3519,23 @@
         <v>80443.45699999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-8525553.480325196</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>9.618</v>
       </c>
       <c r="I99" t="n">
-        <v>9.618</v>
-      </c>
-      <c r="J99" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3758,26 +3557,23 @@
         <v>36028.8999</v>
       </c>
       <c r="G100" t="n">
-        <v>-8561582.380225196</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>9.648</v>
       </c>
       <c r="I100" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3799,26 +3595,23 @@
         <v>473964.996</v>
       </c>
       <c r="G101" t="n">
-        <v>-9035547.376225196</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>9.638</v>
       </c>
       <c r="I101" t="n">
-        <v>9.638</v>
-      </c>
-      <c r="J101" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3840,26 +3633,23 @@
         <v>27339.3559</v>
       </c>
       <c r="G102" t="n">
-        <v>-9062886.732125197</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>9.628</v>
       </c>
       <c r="I102" t="n">
-        <v>9.628</v>
-      </c>
-      <c r="J102" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3881,26 +3671,23 @@
         <v>147875.2533</v>
       </c>
       <c r="G103" t="n">
-        <v>-9210761.985425197</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>9.605</v>
       </c>
       <c r="I103" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="J103" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3922,26 +3709,23 @@
         <v>94650.84510000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-9210761.985425197</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3963,26 +3747,23 @@
         <v>13113.6028</v>
       </c>
       <c r="G105" t="n">
-        <v>-9223875.588225197</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I105" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J105" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4004,26 +3785,23 @@
         <v>53</v>
       </c>
       <c r="G106" t="n">
-        <v>-9223822.588225197</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>9.456</v>
       </c>
       <c r="I106" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="J106" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4045,26 +3823,23 @@
         <v>16913.7115</v>
       </c>
       <c r="G107" t="n">
-        <v>-9240736.299725197</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>9.58</v>
       </c>
       <c r="I107" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="J107" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4086,26 +3861,23 @@
         <v>151726.4622</v>
       </c>
       <c r="G108" t="n">
-        <v>-9392462.761925198</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J108" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4127,26 +3899,23 @@
         <v>19940.3211</v>
       </c>
       <c r="G109" t="n">
-        <v>-9392462.761925198</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>9.52</v>
       </c>
       <c r="I109" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4168,26 +3937,23 @@
         <v>47616.5755</v>
       </c>
       <c r="G110" t="n">
-        <v>-9392462.761925198</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>9.52</v>
       </c>
       <c r="I110" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4209,26 +3975,23 @@
         <v>36304.4114</v>
       </c>
       <c r="G111" t="n">
-        <v>-9356158.350525199</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>9.52</v>
       </c>
       <c r="I111" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4250,26 +4013,23 @@
         <v>53</v>
       </c>
       <c r="G112" t="n">
-        <v>-9356105.350525199</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I112" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="J112" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4291,26 +4051,23 @@
         <v>53</v>
       </c>
       <c r="G113" t="n">
-        <v>-9356052.350525199</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>9.57</v>
       </c>
       <c r="I113" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="J113" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4332,26 +4089,23 @@
         <v>249398.2851</v>
       </c>
       <c r="G114" t="n">
-        <v>-9106654.065425199</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>9.58</v>
       </c>
       <c r="I114" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="J114" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4373,26 +4127,23 @@
         <v>10052</v>
       </c>
       <c r="G115" t="n">
-        <v>-9096602.065425199</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="I115" t="n">
-        <v>9.627000000000001</v>
-      </c>
-      <c r="J115" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4414,26 +4165,23 @@
         <v>99.3266</v>
       </c>
       <c r="G116" t="n">
-        <v>-9096701.392025199</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4455,26 +4203,23 @@
         <v>52</v>
       </c>
       <c r="G117" t="n">
-        <v>-9096649.392025199</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>9.605</v>
       </c>
       <c r="I117" t="n">
-        <v>9.605</v>
-      </c>
-      <c r="J117" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4496,26 +4241,23 @@
         <v>2620.102</v>
       </c>
       <c r="G118" t="n">
-        <v>-9099269.494025199</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="I118" t="n">
-        <v>9.696999999999999</v>
-      </c>
-      <c r="J118" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4537,26 +4279,23 @@
         <v>19531.9692</v>
       </c>
       <c r="G119" t="n">
-        <v>-9118801.463225199</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>9.685</v>
       </c>
       <c r="I119" t="n">
-        <v>9.685</v>
-      </c>
-      <c r="J119" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4578,26 +4317,23 @@
         <v>1750.2633</v>
       </c>
       <c r="G120" t="n">
-        <v>-9118801.463225199</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>9.616</v>
       </c>
       <c r="I120" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J120" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4619,26 +4355,23 @@
         <v>10489.6217</v>
       </c>
       <c r="G121" t="n">
-        <v>-9118801.463225199</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>9.616</v>
       </c>
       <c r="I121" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J121" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4660,26 +4393,23 @@
         <v>1272.6458</v>
       </c>
       <c r="G122" t="n">
-        <v>-9118801.463225199</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>9.616</v>
       </c>
       <c r="I122" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J122" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4701,26 +4431,23 @@
         <v>52950.716</v>
       </c>
       <c r="G123" t="n">
-        <v>-9118801.463225199</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>9.616</v>
       </c>
       <c r="I123" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4742,26 +4469,23 @@
         <v>1283.9168</v>
       </c>
       <c r="G124" t="n">
-        <v>-9120085.380025199</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>9.616</v>
       </c>
       <c r="I124" t="n">
-        <v>9.616</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4783,26 +4507,23 @@
         <v>1196.7605</v>
       </c>
       <c r="G125" t="n">
-        <v>-9118888.619525198</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="I125" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4824,26 +4545,23 @@
         <v>9150.8145</v>
       </c>
       <c r="G126" t="n">
-        <v>-9118888.619525198</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I126" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J126" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4865,26 +4583,23 @@
         <v>28021.8646</v>
       </c>
       <c r="G127" t="n">
-        <v>-9146910.484125199</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I127" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4906,26 +4621,23 @@
         <v>55</v>
       </c>
       <c r="G128" t="n">
-        <v>-9146855.484125199</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>9.638999999999999</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4947,26 +4659,23 @@
         <v>5130.9621</v>
       </c>
       <c r="G129" t="n">
-        <v>-9146855.484125199</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I129" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4988,26 +4697,23 @@
         <v>54050.3631</v>
       </c>
       <c r="G130" t="n">
-        <v>-9092805.121025199</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I130" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5029,26 +4735,23 @@
         <v>55</v>
       </c>
       <c r="G131" t="n">
-        <v>-9092750.121025199</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>9.65</v>
       </c>
       <c r="I131" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J131" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5070,26 +4773,23 @@
         <v>356.6868</v>
       </c>
       <c r="G132" t="n">
-        <v>-9093106.807825198</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>9.683</v>
       </c>
       <c r="I132" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J132" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5111,26 +4811,23 @@
         <v>55</v>
       </c>
       <c r="G133" t="n">
-        <v>-9093051.807825198</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>9.65</v>
       </c>
       <c r="I133" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J133" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5152,26 +4849,23 @@
         <v>10272.3769</v>
       </c>
       <c r="G134" t="n">
-        <v>-9093051.807825198</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>9.683</v>
       </c>
       <c r="I134" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J134" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5193,26 +4887,23 @@
         <v>20000</v>
       </c>
       <c r="G135" t="n">
-        <v>-9113051.807825198</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>9.683</v>
       </c>
       <c r="I135" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J135" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5234,26 +4925,23 @@
         <v>54.4444</v>
       </c>
       <c r="G136" t="n">
-        <v>-9112997.363425199</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="I136" t="n">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="J136" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5275,26 +4963,23 @@
         <v>9897.331399999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-9112997.363425199</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>9.683</v>
       </c>
       <c r="I137" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J137" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5316,26 +5001,23 @@
         <v>2000</v>
       </c>
       <c r="G138" t="n">
-        <v>-9112997.363425199</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>9.683</v>
       </c>
       <c r="I138" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J138" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5357,26 +5039,21 @@
         <v>515.0328</v>
       </c>
       <c r="G139" t="n">
-        <v>-9112997.363425199</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J139" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5398,26 +5075,23 @@
         <v>2410.1086</v>
       </c>
       <c r="G140" t="n">
-        <v>-9112997.363425199</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>9.683</v>
       </c>
       <c r="I140" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J140" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5439,26 +5113,21 @@
         <v>7529.5543</v>
       </c>
       <c r="G141" t="n">
-        <v>-9105467.809125198</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J141" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5480,26 +5149,23 @@
         <v>232808.7559</v>
       </c>
       <c r="G142" t="n">
-        <v>-8872659.053225199</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>9.74</v>
       </c>
       <c r="I142" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="J142" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5521,26 +5187,21 @@
         <v>9873.3254</v>
       </c>
       <c r="G143" t="n">
-        <v>-8872659.053225199</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="J143" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5562,26 +5223,21 @@
         <v>49907.0929</v>
       </c>
       <c r="G144" t="n">
-        <v>-8872659.053225199</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="J144" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5603,26 +5259,21 @@
         <v>11959.7823</v>
       </c>
       <c r="G145" t="n">
-        <v>-8872659.053225199</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="J145" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5644,26 +5295,21 @@
         <v>16939.2127</v>
       </c>
       <c r="G146" t="n">
-        <v>-8889598.265925199</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>9.869</v>
-      </c>
-      <c r="J146" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5685,26 +5331,21 @@
         <v>60</v>
       </c>
       <c r="G147" t="n">
-        <v>-8889538.265925199</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J147" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5726,26 +5367,21 @@
         <v>112</v>
       </c>
       <c r="G148" t="n">
-        <v>-8889650.265925199</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>9.866</v>
-      </c>
-      <c r="J148" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5767,26 +5403,21 @@
         <v>2809.9759</v>
       </c>
       <c r="G149" t="n">
-        <v>-8886840.290025199</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>9.763</v>
-      </c>
-      <c r="J149" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5808,26 +5439,21 @@
         <v>18722.2876</v>
       </c>
       <c r="G150" t="n">
-        <v>-8905562.577625198</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="J150" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5849,26 +5475,21 @@
         <v>53000</v>
       </c>
       <c r="G151" t="n">
-        <v>-8905562.577625198</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="J151" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5890,26 +5511,21 @@
         <v>7400</v>
       </c>
       <c r="G152" t="n">
-        <v>-8912962.577625198</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5931,26 +5547,21 @@
         <v>52.4444</v>
       </c>
       <c r="G153" t="n">
-        <v>-8912910.133225199</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J153" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5972,26 +5583,21 @@
         <v>100000</v>
       </c>
       <c r="G154" t="n">
-        <v>-9012910.133225199</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="J154" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6013,26 +5619,21 @@
         <v>11959.7823</v>
       </c>
       <c r="G155" t="n">
-        <v>-9012910.133225199</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6054,26 +5655,21 @@
         <v>47489.9219</v>
       </c>
       <c r="G156" t="n">
-        <v>-9012910.133225199</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J156" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6095,26 +5691,21 @@
         <v>17375.976</v>
       </c>
       <c r="G157" t="n">
-        <v>-8995534.157225199</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J157" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6136,26 +5727,21 @@
         <v>51671.43807136752</v>
       </c>
       <c r="G158" t="n">
-        <v>-9047205.595296567</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>9.789</v>
-      </c>
-      <c r="J158" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6177,26 +5763,21 @@
         <v>60</v>
       </c>
       <c r="G159" t="n">
-        <v>-9047145.595296567</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J159" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6218,26 +5799,21 @@
         <v>65186.858</v>
       </c>
       <c r="G160" t="n">
-        <v>-8981958.737296568</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>9.827999999999999</v>
-      </c>
-      <c r="J160" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6259,26 +5835,21 @@
         <v>70920.4546</v>
       </c>
       <c r="G161" t="n">
-        <v>-8981958.737296568</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="J161" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6300,26 +5871,21 @@
         <v>53940.3925</v>
       </c>
       <c r="G162" t="n">
-        <v>-9035899.129796568</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="J162" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6341,26 +5907,21 @@
         <v>29105.6424</v>
       </c>
       <c r="G163" t="n">
-        <v>-9035899.129796568</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="J163" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6382,26 +5943,21 @@
         <v>58962.279</v>
       </c>
       <c r="G164" t="n">
-        <v>-8976936.850796569</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="J164" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6423,26 +5979,21 @@
         <v>54.4545</v>
       </c>
       <c r="G165" t="n">
-        <v>-8976882.396296568</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="J165" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6464,26 +6015,21 @@
         <v>17000</v>
       </c>
       <c r="G166" t="n">
-        <v>-8993882.396296568</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="J166" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6505,26 +6051,21 @@
         <v>99852.5177</v>
       </c>
       <c r="G167" t="n">
-        <v>-8894029.878596568</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="J167" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6546,26 +6087,21 @@
         <v>10000</v>
       </c>
       <c r="G168" t="n">
-        <v>-8904029.878596568</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>9.859</v>
-      </c>
-      <c r="J168" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6587,26 +6123,21 @@
         <v>1676</v>
       </c>
       <c r="G169" t="n">
-        <v>-8902353.878596568</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="J169" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6628,26 +6159,21 @@
         <v>54.4545</v>
       </c>
       <c r="G170" t="n">
-        <v>-8902299.424096568</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>9.693</v>
-      </c>
-      <c r="J170" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6669,26 +6195,21 @@
         <v>1621.5455</v>
       </c>
       <c r="G171" t="n">
-        <v>-8902299.424096568</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="J171" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6710,26 +6231,21 @@
         <v>11137.1566</v>
       </c>
       <c r="G172" t="n">
-        <v>-8902299.424096568</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="J172" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6751,26 +6267,21 @@
         <v>7390</v>
       </c>
       <c r="G173" t="n">
-        <v>-8909689.424096568</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>9.858000000000001</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6792,26 +6303,21 @@
         <v>50815.5338</v>
       </c>
       <c r="G174" t="n">
-        <v>-8960504.957896568</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>9.721</v>
-      </c>
-      <c r="J174" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6833,26 +6339,21 @@
         <v>186878.9427</v>
       </c>
       <c r="G175" t="n">
-        <v>-8773626.015196567</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>9.698</v>
-      </c>
-      <c r="J175" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6874,26 +6375,21 @@
         <v>242767.4348</v>
       </c>
       <c r="G176" t="n">
-        <v>-9016393.449996568</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J176" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6915,26 +6411,21 @@
         <v>14029.7675</v>
       </c>
       <c r="G177" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J177" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6956,26 +6447,21 @@
         <v>15112</v>
       </c>
       <c r="G178" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J178" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6997,26 +6483,21 @@
         <v>34234.7078</v>
       </c>
       <c r="G179" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7038,26 +6519,21 @@
         <v>1714.6391</v>
       </c>
       <c r="G180" t="n">
-        <v>-9002363.682496568</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J180" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7079,26 +6555,21 @@
         <v>13479.1316</v>
       </c>
       <c r="G181" t="n">
-        <v>-9015842.814096568</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J181" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7120,26 +6591,21 @@
         <v>6283.783</v>
       </c>
       <c r="G182" t="n">
-        <v>-9015842.814096568</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="J182" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7161,26 +6627,21 @@
         <v>20865.6851</v>
       </c>
       <c r="G183" t="n">
-        <v>-9036708.499196569</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="J183" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7202,26 +6663,21 @@
         <v>3000</v>
       </c>
       <c r="G184" t="n">
-        <v>-9033708.499196569</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>9.683</v>
-      </c>
-      <c r="J184" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7243,26 +6699,21 @@
         <v>120</v>
       </c>
       <c r="G185" t="n">
-        <v>-9033828.499196569</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J185" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7284,26 +6735,21 @@
         <v>51</v>
       </c>
       <c r="G186" t="n">
-        <v>-9033777.499196569</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7325,26 +6771,21 @@
         <v>247.835</v>
       </c>
       <c r="G187" t="n">
-        <v>-9033777.499196569</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J187" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7366,26 +6807,21 @@
         <v>42101.1107</v>
       </c>
       <c r="G188" t="n">
-        <v>-9075878.609896569</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J188" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7407,26 +6843,21 @@
         <v>766017.7756000001</v>
       </c>
       <c r="G189" t="n">
-        <v>-8309860.834296568</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="J189" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7448,26 +6879,21 @@
         <v>52897.2745</v>
       </c>
       <c r="G190" t="n">
-        <v>-8309860.834296568</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="J190" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7489,26 +6915,21 @@
         <v>10000</v>
       </c>
       <c r="G191" t="n">
-        <v>-8299860.834296568</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>9.680999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7530,26 +6951,21 @@
         <v>51</v>
       </c>
       <c r="G192" t="n">
-        <v>-8299809.834296568</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="J192" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7571,26 +6987,21 @@
         <v>10000</v>
       </c>
       <c r="G193" t="n">
-        <v>-8309809.834296568</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>9.849</v>
-      </c>
-      <c r="J193" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7612,26 +7023,21 @@
         <v>51</v>
       </c>
       <c r="G194" t="n">
-        <v>-8309758.834296568</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>9.711</v>
-      </c>
-      <c r="J194" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7653,26 +7059,21 @@
         <v>16597.444</v>
       </c>
       <c r="G195" t="n">
-        <v>-8309758.834296568</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="J195" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7694,26 +7095,21 @@
         <v>44659.6736</v>
       </c>
       <c r="G196" t="n">
-        <v>-8265099.160696568</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="J196" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7735,26 +7131,21 @@
         <v>110737.6284</v>
       </c>
       <c r="G197" t="n">
-        <v>-8375836.789096568</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="J197" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7776,26 +7167,21 @@
         <v>51</v>
       </c>
       <c r="G198" t="n">
-        <v>-8375785.789096568</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>9.848000000000001</v>
-      </c>
-      <c r="J198" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7817,26 +7203,21 @@
         <v>42217.7451</v>
       </c>
       <c r="G199" t="n">
-        <v>-8375785.789096568</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="J199" t="n">
-        <v>9.423999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>9.443</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
